--- a/Radiation.xlsx
+++ b/Radiation.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu\home\nabernal10\OpenFOAM\windTunnel_Tree\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{415B8F4A-AE47-4D9D-BD6D-3ABF0D26706F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9F10A45-563F-43EE-BC7E-1D018D2F90C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{4466A985-D6EE-441A-8DEC-8066E2B76AAD}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{4466A985-D6EE-441A-8DEC-8066E2B76AAD}"/>
   </bookViews>
   <sheets>
     <sheet name="Case set up" sheetId="2" r:id="rId1"/>
@@ -1026,12 +1026,6 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="1" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1039,6 +1033,12 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -4853,19 +4853,19 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="100">
-                  <c:v>8.888888888888431</c:v>
+                  <c:v>8.7777777777773256</c:v>
                 </c:pt>
                 <c:pt idx="101">
-                  <c:v>8.888888888888431</c:v>
+                  <c:v>8.7777777777773256</c:v>
                 </c:pt>
                 <c:pt idx="102">
-                  <c:v>8.888888888888431</c:v>
+                  <c:v>8.7777777777773256</c:v>
                 </c:pt>
                 <c:pt idx="103">
-                  <c:v>8.888888888888431</c:v>
+                  <c:v>8.7777777777773256</c:v>
                 </c:pt>
                 <c:pt idx="104">
-                  <c:v>8.888888888888431</c:v>
+                  <c:v>8.7777777777773256</c:v>
                 </c:pt>
                 <c:pt idx="105">
                   <c:v>0</c:v>
@@ -5949,16 +5949,16 @@
                   <c:v>99</c:v>
                 </c:pt>
                 <c:pt idx="101">
-                  <c:v>81.778039273339431</c:v>
+                  <c:v>81.973631453690857</c:v>
                 </c:pt>
                 <c:pt idx="102">
-                  <c:v>67.551997044362082</c:v>
+                  <c:v>67.875517714197329</c:v>
                 </c:pt>
                 <c:pt idx="103">
-                  <c:v>55.800705730165163</c:v>
+                  <c:v>56.202047210425029</c:v>
                 </c:pt>
                 <c:pt idx="104">
-                  <c:v>46.093659643247513</c:v>
+                  <c:v>46.536221262326436</c:v>
                 </c:pt>
                 <c:pt idx="105">
                   <c:v>99</c:v>
@@ -24597,9 +24597,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DC8191BD-2B7B-4602-AB98-101ED92BF2DD}">
   <dimension ref="B2:Q116"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F15" sqref="F15"/>
+      <selection pane="bottomLeft" activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -25013,13 +25013,13 @@
       <c r="D10" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="E10" s="30">
+      <c r="E10" s="28">
         <v>0.215</v>
       </c>
-      <c r="F10" s="31">
+      <c r="F10" s="29">
         <v>0.78</v>
       </c>
-      <c r="G10" s="31">
+      <c r="G10" s="29">
         <f>F10-E10</f>
         <v>0.56500000000000006</v>
       </c>
@@ -25072,7 +25072,7 @@
       </c>
       <c r="E11" s="5">
         <f>E12/(E8-E9)</f>
-        <v>8.888888888888431</v>
+        <v>8.7777777777773256</v>
       </c>
       <c r="F11" s="4">
         <v>8.77</v>
@@ -25125,7 +25125,7 @@
         <v>19</v>
       </c>
       <c r="E12" s="2">
-        <v>4</v>
+        <v>3.95</v>
       </c>
       <c r="H12" s="2">
         <f t="shared" si="1"/>
@@ -25278,7 +25278,7 @@
       </c>
       <c r="E15" s="2">
         <f>SUM(P3:P116)/E11</f>
-        <v>59.519632901349567</v>
+        <v>59.768861853048875</v>
       </c>
       <c r="H15" s="2">
         <f t="shared" si="1"/>
@@ -28642,7 +28642,7 @@
       </c>
       <c r="L103" s="2">
         <f t="shared" si="16"/>
-        <v>8.888888888888431</v>
+        <v>8.7777777777773256</v>
       </c>
       <c r="M103" s="2">
         <f t="shared" si="17"/>
@@ -28680,7 +28680,7 @@
       </c>
       <c r="L104" s="2">
         <f t="shared" si="16"/>
-        <v>8.888888888888431</v>
+        <v>8.7777777777773256</v>
       </c>
       <c r="M104" s="2">
         <f t="shared" si="17"/>
@@ -28688,19 +28688,19 @@
       </c>
       <c r="N104" s="2">
         <f t="shared" si="23"/>
-        <v>0.82604080074080233</v>
+        <v>0.82801647933021072</v>
       </c>
       <c r="O104" s="2">
         <f>N104*$E$4</f>
-        <v>81.778039273339431</v>
+        <v>81.973631453690857</v>
       </c>
       <c r="P104" s="2">
         <f>(O103-O104)/J104*M104</f>
-        <v>172.21960726660555</v>
+        <v>170.26368546309129</v>
       </c>
       <c r="Q104" s="4">
         <f>P104/$E$11</f>
-        <v>19.374705817494121</v>
+        <v>19.397128723644311</v>
       </c>
     </row>
     <row r="105" spans="8:17" x14ac:dyDescent="0.3">
@@ -28722,7 +28722,7 @@
       </c>
       <c r="L105" s="2">
         <f t="shared" si="16"/>
-        <v>8.888888888888431</v>
+        <v>8.7777777777773256</v>
       </c>
       <c r="M105" s="2">
         <f t="shared" si="17"/>
@@ -28730,19 +28730,19 @@
       </c>
       <c r="N105" s="2">
         <f t="shared" si="23"/>
-        <v>0.68234340448850583</v>
+        <v>0.68561129004239729</v>
       </c>
       <c r="O105" s="2">
         <f t="shared" ref="O105:O113" si="25">N105*$E$4</f>
-        <v>67.551997044362082</v>
+        <v>67.875517714197329</v>
       </c>
       <c r="P105" s="2">
         <f t="shared" si="20"/>
-        <v>142.26042228977337</v>
+        <v>140.98113739493516</v>
       </c>
       <c r="Q105" s="4">
         <f t="shared" ref="Q105:Q107" si="26">P105/$E$11</f>
-        <v>16.004297507600327</v>
+        <v>16.061142234866857</v>
       </c>
     </row>
     <row r="106" spans="8:17" x14ac:dyDescent="0.3">
@@ -28764,7 +28764,7 @@
       </c>
       <c r="L106" s="2">
         <f t="shared" si="16"/>
-        <v>8.888888888888431</v>
+        <v>8.7777777777773256</v>
       </c>
       <c r="M106" s="2">
         <f t="shared" si="17"/>
@@ -28772,19 +28772,19 @@
       </c>
       <c r="N106" s="2">
         <f t="shared" si="23"/>
-        <v>0.56364349222389054</v>
+        <v>0.5676974465699498</v>
       </c>
       <c r="O106" s="2">
         <f t="shared" si="25"/>
-        <v>55.800705730165163</v>
+        <v>56.202047210425029</v>
       </c>
       <c r="P106" s="2">
         <f t="shared" si="20"/>
-        <v>117.51291314196909</v>
+        <v>116.7347050377229</v>
       </c>
       <c r="Q106" s="4">
         <f t="shared" si="26"/>
-        <v>13.220202728472204</v>
+        <v>13.298890447336206</v>
       </c>
     </row>
     <row r="107" spans="8:17" x14ac:dyDescent="0.3">
@@ -28806,7 +28806,7 @@
       </c>
       <c r="L107" s="2">
         <f t="shared" si="16"/>
-        <v>8.888888888888431</v>
+        <v>8.7777777777773256</v>
       </c>
       <c r="M107" s="2">
         <f t="shared" si="17"/>
@@ -28814,19 +28814,19 @@
       </c>
       <c r="N107" s="2">
         <f t="shared" si="23"/>
-        <v>0.46559252164896475</v>
+        <v>0.47006284103360035</v>
       </c>
       <c r="O107" s="2">
         <f>N107*$E$4</f>
-        <v>46.093659643247513</v>
+        <v>46.536221262326436</v>
       </c>
       <c r="P107" s="2">
         <f t="shared" si="20"/>
-        <v>97.070460869176529</v>
+        <v>96.658259480985961</v>
       </c>
       <c r="Q107" s="4">
         <f t="shared" si="26"/>
-        <v>10.920426847782922</v>
+        <v>11.0117004472015</v>
       </c>
     </row>
     <row r="108" spans="8:17" x14ac:dyDescent="0.3">
@@ -29186,7 +29186,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CCA11A4A-1940-4341-A6C9-DCAF48DA6B48}">
   <dimension ref="B2:L123"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="E22" sqref="E22"/>
     </sheetView>
@@ -30912,7 +30912,7 @@
       </c>
     </row>
     <row r="91" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B91" s="29">
+      <c r="B91" s="27">
         <f>E91/D88</f>
         <v>45.964285714285715</v>
       </c>
@@ -32545,13 +32545,13 @@
       <c r="H7" s="12"/>
       <c r="I7" s="12"/>
       <c r="J7" s="12"/>
-      <c r="K7" s="28" t="s">
+      <c r="K7" s="31" t="s">
         <v>94</v>
       </c>
-      <c r="L7" s="27" t="s">
+      <c r="L7" s="30" t="s">
         <v>97</v>
       </c>
-      <c r="M7" s="27"/>
+      <c r="M7" s="30"/>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A8" s="23" t="s">
@@ -32576,7 +32576,7 @@
       <c r="J8" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="K8" s="28"/>
+      <c r="K8" s="31"/>
       <c r="L8" s="26" t="s">
         <v>98</v>
       </c>

--- a/Radiation.xlsx
+++ b/Radiation.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu\home\nabernal10\OpenFOAM\windTunnel_Tree\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9F10A45-563F-43EE-BC7E-1D018D2F90C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A36D6920-ECB2-4E19-A553-713E26101B3E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{4466A985-D6EE-441A-8DEC-8066E2B76AAD}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="3" xr2:uid="{4466A985-D6EE-441A-8DEC-8066E2B76AAD}"/>
   </bookViews>
   <sheets>
     <sheet name="Case set up" sheetId="2" r:id="rId1"/>
@@ -18,6 +18,7 @@
     <sheet name="Stomatal resistence" sheetId="4" r:id="rId3"/>
     <sheet name="Hoja2" sheetId="5" r:id="rId4"/>
     <sheet name="Hoja3" sheetId="6" r:id="rId5"/>
+    <sheet name="Hoja1" sheetId="7" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -40,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="232" uniqueCount="144">
   <si>
     <t>H</t>
   </si>
@@ -764,12 +765,6 @@
     <t>Experimental</t>
   </si>
   <si>
-    <t>Bottom (y = 0.9 m)</t>
-  </si>
-  <si>
-    <t>Middle (y = 1.125 m)</t>
-  </si>
-  <si>
     <t>Numerical</t>
   </si>
   <si>
@@ -780,9 +775,6 @@
   </si>
   <si>
     <t>Present</t>
-  </si>
-  <si>
-    <t>Top (y = 1.35 m)</t>
   </si>
   <si>
     <t>Air temperature middle T [°C]</t>
@@ -820,6 +812,223 @@
   <si>
     <t>u</t>
   </si>
+  <si>
+    <t>Field</t>
+  </si>
+  <si>
+    <t>InternalField</t>
+  </si>
+  <si>
+    <t>Inlet</t>
+  </si>
+  <si>
+    <t>Outlet</t>
+  </si>
+  <si>
+    <t>Ground</t>
+  </si>
+  <si>
+    <t>Top/Ceiling</t>
+  </si>
+  <si>
+    <t>uniform (ABL)</t>
+  </si>
+  <si>
+    <t>atmBoundaryLayerInletVelocity</t>
+  </si>
+  <si>
+    <t>noSlip</t>
+  </si>
+  <si>
+    <t>symmetryPlane</t>
+  </si>
+  <si>
+    <t>atmBoundaryLayerInletK</t>
+  </si>
+  <si>
+    <t>zeroGradient</t>
+  </si>
+  <si>
+    <t>kqRWallFunction</t>
+  </si>
+  <si>
+    <t>atmBoundaryLayerInletEpsilon</t>
+  </si>
+  <si>
+    <t>epsilonWallFunction</t>
+  </si>
+  <si>
+    <t>fixedValue</t>
+  </si>
+  <si>
+    <t>nutkWallFunction</t>
+  </si>
+  <si>
+    <t>alphatJayatillekeWallFunction</t>
+  </si>
+  <si>
+    <r>
+      <t>Sides (</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Franklin Gothic Book (Cuerpo)"/>
+      </rPr>
+      <t>fixedWalls</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Franklin Gothic Book (Cuerpo)"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>U</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Franklin Gothic Book (Cuerpo)"/>
+      </rPr>
+      <t xml:space="preserve"> [m/s]</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>inletOutlet</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Franklin Gothic Book (Cuerpo)"/>
+      </rPr>
+      <t xml:space="preserve"> or </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Franklin Gothic Book (Cuerpo)"/>
+      </rPr>
+      <t>zeroGradient</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>k</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Franklin Gothic Book (Cuerpo)"/>
+      </rPr>
+      <t xml:space="preserve"> [m²/s²]</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>ε</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Franklin Gothic Book (Cuerpo)"/>
+      </rPr>
+      <t xml:space="preserve"> [m²/s³]</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>p_rgh</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Franklin Gothic Book (Cuerpo)"/>
+      </rPr>
+      <t xml:space="preserve"> [m²/s²]</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>T</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Franklin Gothic Book (Cuerpo)"/>
+      </rPr>
+      <t xml:space="preserve"> [K]</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>w</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Franklin Gothic Book (Cuerpo)"/>
+      </rPr>
+      <t xml:space="preserve"> [kg/kg]</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>nut</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Franklin Gothic Book (Cuerpo)"/>
+      </rPr>
+      <t xml:space="preserve"> [m²/s]</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>alphat</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Franklin Gothic Book (Cuerpo)"/>
+      </rPr>
+      <t xml:space="preserve"> [m²/s]</t>
+    </r>
+  </si>
+  <si>
+    <t>Leaf Temperature: Bottom (y = 0.9 m)</t>
+  </si>
+  <si>
+    <t>Leaf Temperature: Middle (y = 1.125 m)</t>
+  </si>
+  <si>
+    <t>Leaf Temperature: Top (y = 1.35 m)</t>
+  </si>
+  <si>
+    <t>Coordenates</t>
+  </si>
+  <si>
+    <t>Variable</t>
+  </si>
 </sst>
 </file>
 
@@ -829,7 +1038,7 @@
     <numFmt numFmtId="164" formatCode="0.000"/>
     <numFmt numFmtId="165" formatCode="0.0"/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="10">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -876,6 +1085,28 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Franklin Gothic Book (Cuerpo)"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Franklin Gothic Book (Cuerpo)"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Franklin Gothic Book (Cuerpo)"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Franklin Gothic Book (Cuerpo)"/>
+    </font>
   </fonts>
   <fills count="8">
     <fill>
@@ -921,7 +1152,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -944,11 +1175,37 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -976,10 +1233,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1023,9 +1276,6 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="1" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1035,11 +1285,35 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -5949,16 +6223,16 @@
                   <c:v>99</c:v>
                 </c:pt>
                 <c:pt idx="101">
-                  <c:v>81.973631453690857</c:v>
+                  <c:v>49.921570478289773</c:v>
                 </c:pt>
                 <c:pt idx="102">
-                  <c:v>67.875517714197329</c:v>
+                  <c:v>25.173365646655075</c:v>
                 </c:pt>
                 <c:pt idx="103">
-                  <c:v>56.202047210425029</c:v>
+                  <c:v>12.693878255608588</c:v>
                 </c:pt>
                 <c:pt idx="104">
-                  <c:v>46.536221262326436</c:v>
+                  <c:v>6.4009933129312584</c:v>
                 </c:pt>
                 <c:pt idx="105">
                   <c:v>99</c:v>
@@ -20969,7 +21243,7 @@
       <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="11.5546875" style="4"/>
     <col min="2" max="2" width="37.44140625" style="4" bestFit="1" customWidth="1"/>
@@ -20979,7 +21253,7 @@
     <col min="12" max="16384" width="11.5546875" style="4"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:14" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:14" ht="16.2">
       <c r="B2" s="2" t="s">
         <v>3</v>
       </c>
@@ -21017,7 +21291,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="3" spans="2:14" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:14" ht="16.2">
       <c r="B3" s="2" t="s">
         <v>11</v>
       </c>
@@ -21063,7 +21337,7 @@
         <v>1.819348542415117</v>
       </c>
     </row>
-    <row r="4" spans="2:14" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:14" ht="16.2">
       <c r="B4" s="2" t="s">
         <v>12</v>
       </c>
@@ -21110,7 +21384,7 @@
         <v>1.8400895479023789</v>
       </c>
     </row>
-    <row r="5" spans="2:14" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:14" ht="15.6">
       <c r="B5" s="2" t="s">
         <v>21</v>
       </c>
@@ -21156,7 +21430,7 @@
         <v>1.8625131188982582</v>
       </c>
     </row>
-    <row r="6" spans="2:14" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:14" ht="15.6">
       <c r="B6" s="2" t="s">
         <v>21</v>
       </c>
@@ -21203,7 +21477,7 @@
         <v>1.8867557495902005</v>
       </c>
     </row>
-    <row r="7" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:14">
       <c r="B7" s="2" t="s">
         <v>22</v>
       </c>
@@ -21249,7 +21523,7 @@
         <v>1.9129650069370303</v>
       </c>
     </row>
-    <row r="8" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:14">
       <c r="B8" s="2" t="s">
         <v>27</v>
       </c>
@@ -21295,7 +21569,7 @@
         <v>1.9413004289216034</v>
       </c>
     </row>
-    <row r="9" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:14">
       <c r="B9" s="2" t="s">
         <v>24</v>
       </c>
@@ -21341,7 +21615,7 @@
         <v>1.9719344956721039</v>
       </c>
     </row>
-    <row r="10" spans="2:14" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:14" ht="16.2">
       <c r="B10" s="2" t="s">
         <v>25</v>
       </c>
@@ -21387,7 +21661,7 @@
         <v>2.0050536793632814</v>
       </c>
     </row>
-    <row r="11" spans="2:14" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:14" ht="15.6">
       <c r="B11" s="2" t="s">
         <v>26</v>
       </c>
@@ -21433,7 +21707,7 @@
         <v>2.0408595792884698</v>
       </c>
     </row>
-    <row r="12" spans="2:14" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:14" ht="16.2">
       <c r="B12" s="2" t="s">
         <v>33</v>
       </c>
@@ -21480,7 +21754,7 @@
         <v>2.0795701490116647</v>
       </c>
     </row>
-    <row r="13" spans="2:14" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:14" ht="16.2">
       <c r="B13" s="2" t="s">
         <v>35</v>
       </c>
@@ -21527,7 +21801,7 @@
         <v>2.121421023069439</v>
       </c>
     </row>
-    <row r="14" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:14">
       <c r="G14" s="2">
         <f t="shared" si="1"/>
         <v>1</v>
@@ -21561,7 +21835,7 @@
         <v>2.1666669512984464</v>
       </c>
     </row>
-    <row r="15" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:14">
       <c r="G15" s="2">
         <f t="shared" si="1"/>
         <v>1</v>
@@ -21595,7 +21869,7 @@
         <v>2.2155833495193873</v>
       </c>
     </row>
-    <row r="16" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:14">
       <c r="G16" s="2">
         <f t="shared" si="1"/>
         <v>1</v>
@@ -21629,7 +21903,7 @@
         <v>2.2684679760165758</v>
       </c>
     </row>
-    <row r="17" spans="7:14" x14ac:dyDescent="0.3">
+    <row r="17" spans="7:14">
       <c r="G17" s="2">
         <f t="shared" si="1"/>
         <v>1</v>
@@ -21663,7 +21937,7 @@
         <v>2.3256427440179896</v>
       </c>
     </row>
-    <row r="18" spans="7:14" x14ac:dyDescent="0.3">
+    <row r="18" spans="7:14">
       <c r="G18" s="2">
         <f t="shared" si="1"/>
         <v>1</v>
@@ -21697,7 +21971,7 @@
         <v>2.387455681208523</v>
       </c>
     </row>
-    <row r="19" spans="7:14" x14ac:dyDescent="0.3">
+    <row r="19" spans="7:14">
       <c r="G19" s="2">
         <f t="shared" si="1"/>
         <v>1</v>
@@ -21731,7 +22005,7 @@
         <v>2.45428304820416</v>
       </c>
     </row>
-    <row r="20" spans="7:14" x14ac:dyDescent="0.3">
+    <row r="20" spans="7:14">
       <c r="G20" s="2">
         <f t="shared" si="1"/>
         <v>1</v>
@@ -21765,7 +22039,7 @@
         <v>2.5265316288824051</v>
       </c>
     </row>
-    <row r="21" spans="7:14" x14ac:dyDescent="0.3">
+    <row r="21" spans="7:14">
       <c r="G21" s="2">
         <f t="shared" si="1"/>
         <v>1</v>
@@ -21799,7 +22073,7 @@
         <v>2.6046412065104088</v>
       </c>
     </row>
-    <row r="22" spans="7:14" x14ac:dyDescent="0.3">
+    <row r="22" spans="7:14">
       <c r="G22" s="2">
         <f t="shared" si="1"/>
         <v>1</v>
@@ -21833,7 +22107,7 @@
         <v>2.6890872407431923</v>
       </c>
     </row>
-    <row r="23" spans="7:14" x14ac:dyDescent="0.3">
+    <row r="23" spans="7:14">
       <c r="G23" s="2">
         <f t="shared" si="1"/>
         <v>1</v>
@@ -21867,7 +22141,7 @@
         <v>2.7803837617870855</v>
       </c>
     </row>
-    <row r="24" spans="7:14" x14ac:dyDescent="0.3">
+    <row r="24" spans="7:14">
       <c r="G24" s="2">
         <f t="shared" si="1"/>
         <v>1</v>
@@ -21901,7 +22175,7 @@
         <v>2.8790864993453882</v>
       </c>
     </row>
-    <row r="25" spans="7:14" x14ac:dyDescent="0.3">
+    <row r="25" spans="7:14">
       <c r="G25" s="2">
         <f t="shared" si="1"/>
         <v>1</v>
@@ -21935,7 +22209,7 @@
         <v>2.9857962653924361</v>
       </c>
     </row>
-    <row r="26" spans="7:14" x14ac:dyDescent="0.3">
+    <row r="26" spans="7:14">
       <c r="G26" s="2">
         <f t="shared" si="1"/>
         <v>1</v>
@@ -21969,7 +22243,7 @@
         <v>3.1011626113672817</v>
       </c>
     </row>
-    <row r="27" spans="7:14" x14ac:dyDescent="0.3">
+    <row r="27" spans="7:14">
       <c r="G27" s="2">
         <f t="shared" si="1"/>
         <v>1</v>
@@ -22003,7 +22277,7 @@
         <v>3.2258877820486611</v>
       </c>
     </row>
-    <row r="28" spans="7:14" x14ac:dyDescent="0.3">
+    <row r="28" spans="7:14">
       <c r="G28" s="2">
         <f t="shared" si="1"/>
         <v>1</v>
@@ -22037,7 +22311,7 @@
         <v>3.3607309901787921</v>
       </c>
     </row>
-    <row r="29" spans="7:14" x14ac:dyDescent="0.3">
+    <row r="29" spans="7:14">
       <c r="G29" s="2">
         <f t="shared" si="1"/>
         <v>1</v>
@@ -22071,7 +22345,7 @@
         <v>3.5065130378560445</v>
       </c>
     </row>
-    <row r="30" spans="7:14" x14ac:dyDescent="0.3">
+    <row r="30" spans="7:14">
       <c r="G30" s="2">
         <f t="shared" si="1"/>
         <v>1</v>
@@ -22105,7 +22379,7 @@
         <v>3.6641213128272447</v>
       </c>
     </row>
-    <row r="31" spans="7:14" x14ac:dyDescent="0.3">
+    <row r="31" spans="7:14">
       <c r="G31" s="2">
         <f t="shared" si="1"/>
         <v>1</v>
@@ -22139,7 +22413,7 @@
         <v>3.8345151900925116</v>
       </c>
     </row>
-    <row r="32" spans="7:14" x14ac:dyDescent="0.3">
+    <row r="32" spans="7:14">
       <c r="G32" s="2">
         <f t="shared" si="1"/>
         <v>1</v>
@@ -22173,7 +22447,7 @@
         <v>4.0187318717026432</v>
       </c>
     </row>
-    <row r="33" spans="7:14" x14ac:dyDescent="0.3">
+    <row r="33" spans="7:14">
       <c r="G33" s="2">
         <f t="shared" si="1"/>
         <v>1</v>
@@ -22207,7 +22481,7 @@
         <v>4.2178927002963693</v>
       </c>
     </row>
-    <row r="34" spans="7:14" x14ac:dyDescent="0.3">
+    <row r="34" spans="7:14">
       <c r="G34" s="2">
         <f t="shared" si="1"/>
         <v>1</v>
@@ -22241,7 +22515,7 @@
         <v>4.4332099848085544</v>
       </c>
     </row>
-    <row r="35" spans="7:14" x14ac:dyDescent="0.3">
+    <row r="35" spans="7:14">
       <c r="G35" s="2">
         <f t="shared" si="1"/>
         <v>1</v>
@@ -22275,7 +22549,7 @@
         <v>4.6659943798979882</v>
       </c>
     </row>
-    <row r="36" spans="7:14" x14ac:dyDescent="0.3">
+    <row r="36" spans="7:14">
       <c r="G36" s="2">
         <f t="shared" si="1"/>
         <v>1</v>
@@ -22309,7 +22583,7 @@
         <v>4.9176628640139866</v>
       </c>
     </row>
-    <row r="37" spans="7:14" x14ac:dyDescent="0.3">
+    <row r="37" spans="7:14">
       <c r="G37" s="2">
         <f t="shared" si="1"/>
         <v>1</v>
@@ -22343,7 +22617,7 @@
         <v>5.1897473646649459</v>
       </c>
     </row>
-    <row r="38" spans="7:14" x14ac:dyDescent="0.3">
+    <row r="38" spans="7:14">
       <c r="G38" s="2">
         <f t="shared" si="1"/>
         <v>1</v>
@@ -22377,7 +22651,7 @@
         <v>5.4839040833916304</v>
       </c>
     </row>
-    <row r="39" spans="7:14" x14ac:dyDescent="0.3">
+    <row r="39" spans="7:14">
       <c r="G39" s="2">
         <f t="shared" si="1"/>
         <v>1</v>
@@ -22411,7 +22685,7 @@
         <v>5.8019235772070896</v>
       </c>
     </row>
-    <row r="40" spans="7:14" x14ac:dyDescent="0.3">
+    <row r="40" spans="7:14">
       <c r="G40" s="2">
         <f t="shared" si="1"/>
         <v>1</v>
@@ -22445,7 +22719,7 @@
         <v>6.1457416578697757</v>
       </c>
     </row>
-    <row r="41" spans="7:14" x14ac:dyDescent="0.3">
+    <row r="41" spans="7:14">
       <c r="G41" s="2">
         <f t="shared" si="1"/>
         <v>1</v>
@@ -22479,7 +22753,7 @@
         <v>6.5174511753346662</v>
       </c>
     </row>
-    <row r="42" spans="7:14" x14ac:dyDescent="0.3">
+    <row r="42" spans="7:14">
       <c r="G42" s="2">
         <f t="shared" si="1"/>
         <v>1</v>
@@ -22513,7 +22787,7 @@
         <v>6.9193147571092819</v>
       </c>
     </row>
-    <row r="43" spans="7:14" x14ac:dyDescent="0.3">
+    <row r="43" spans="7:14">
       <c r="G43" s="2">
         <f t="shared" si="1"/>
         <v>1</v>
@@ -22547,7 +22821,7 @@
         <v>7.3537785810601308</v>
       </c>
     </row>
-    <row r="44" spans="7:14" x14ac:dyDescent="0.3">
+    <row r="44" spans="7:14">
       <c r="G44" s="2">
         <f t="shared" si="1"/>
         <v>1</v>
@@ -22581,7 +22855,7 @@
         <v>7.8234872655058485</v>
       </c>
     </row>
-    <row r="45" spans="7:14" x14ac:dyDescent="0.3">
+    <row r="45" spans="7:14">
       <c r="G45" s="2">
         <f t="shared" si="1"/>
         <v>1</v>
@@ -22615,7 +22889,7 @@
         <v>8.3312999672342301</v>
       </c>
     </row>
-    <row r="46" spans="7:14" x14ac:dyDescent="0.3">
+    <row r="46" spans="7:14">
       <c r="G46" s="2">
         <f t="shared" si="1"/>
         <v>1</v>
@@ -22649,7 +22923,7 @@
         <v>8.8803077854332564</v>
       </c>
     </row>
-    <row r="47" spans="7:14" x14ac:dyDescent="0.3">
+    <row r="47" spans="7:14">
       <c r="G47" s="2">
         <f t="shared" si="1"/>
         <v>1</v>
@@ -22683,7 +22957,7 @@
         <v>9.4738525774752436</v>
       </c>
     </row>
-    <row r="48" spans="7:14" x14ac:dyDescent="0.3">
+    <row r="48" spans="7:14">
       <c r="G48" s="2">
         <f t="shared" si="1"/>
         <v>1</v>
@@ -22717,7 +22991,7 @@
         <v>10.115547301087464</v>
       </c>
     </row>
-    <row r="49" spans="7:14" x14ac:dyDescent="0.3">
+    <row r="49" spans="7:14">
       <c r="G49" s="2">
         <f t="shared" si="1"/>
         <v>1</v>
@@ -22751,7 +23025,7 @@
         <v>10.809298006733673</v>
       </c>
     </row>
-    <row r="50" spans="7:14" x14ac:dyDescent="0.3">
+    <row r="50" spans="7:14">
       <c r="G50" s="2">
         <f t="shared" si="1"/>
         <v>1</v>
@@ -22785,7 +23059,7 @@
         <v>11.559327614076146</v>
       </c>
     </row>
-    <row r="51" spans="7:14" x14ac:dyDescent="0.3">
+    <row r="51" spans="7:14">
       <c r="G51" s="2">
         <f t="shared" si="1"/>
         <v>1</v>
@@ -22819,7 +23093,7 @@
         <v>12.370201617247513</v>
       </c>
     </row>
-    <row r="52" spans="7:14" x14ac:dyDescent="0.3">
+    <row r="52" spans="7:14">
       <c r="G52" s="2">
         <f t="shared" si="1"/>
         <v>1</v>
@@ -22853,7 +23127,7 @@
         <v>13.246855875402606</v>
       </c>
     </row>
-    <row r="53" spans="7:14" x14ac:dyDescent="0.3">
+    <row r="53" spans="7:14">
       <c r="G53" s="2">
         <f t="shared" si="1"/>
         <v>1</v>
@@ -22887,7 +23161,7 @@
         <v>14.194626657713687</v>
       </c>
     </row>
-    <row r="54" spans="7:14" x14ac:dyDescent="0.3">
+    <row r="54" spans="7:14">
       <c r="G54" s="2">
         <f t="shared" si="1"/>
         <v>1</v>
@@ -22921,7 +23195,7 @@
         <v>15.219283125695663</v>
       </c>
     </row>
-    <row r="55" spans="7:14" x14ac:dyDescent="0.3">
+    <row r="55" spans="7:14">
       <c r="G55" s="2">
         <f t="shared" si="1"/>
         <v>1</v>
@@ -22955,7 +23229,7 @@
         <v>16.327062450583842</v>
       </c>
     </row>
-    <row r="56" spans="7:14" x14ac:dyDescent="0.3">
+    <row r="56" spans="7:14">
       <c r="G56" s="2">
         <f t="shared" si="1"/>
         <v>1</v>
@@ -22989,7 +23263,7 @@
         <v>17.524707779526686</v>
       </c>
     </row>
-    <row r="57" spans="7:14" x14ac:dyDescent="0.3">
+    <row r="57" spans="7:14">
       <c r="G57" s="2">
         <f t="shared" si="1"/>
         <v>1</v>
@@ -23023,7 +23297,7 @@
         <v>18.819509281697197</v>
       </c>
     </row>
-    <row r="58" spans="7:14" x14ac:dyDescent="0.3">
+    <row r="58" spans="7:14">
       <c r="G58" s="2">
         <f t="shared" si="1"/>
         <v>1</v>
@@ -23057,7 +23331,7 @@
         <v>20.219348524173778</v>
       </c>
     </row>
-    <row r="59" spans="7:14" x14ac:dyDescent="0.3">
+    <row r="59" spans="7:14">
       <c r="G59" s="2">
         <f t="shared" si="1"/>
         <v>1</v>
@@ -23091,7 +23365,7 @@
         <v>21.732746447710795</v>
       </c>
     </row>
-    <row r="60" spans="7:14" x14ac:dyDescent="0.3">
+    <row r="60" spans="7:14">
       <c r="G60" s="2">
         <f t="shared" si="1"/>
         <v>1</v>
@@ -23125,7 +23399,7 @@
         <v>23.368915234430915</v>
       </c>
     </row>
-    <row r="61" spans="7:14" x14ac:dyDescent="0.3">
+    <row r="61" spans="7:14">
       <c r="G61" s="2">
         <f t="shared" si="1"/>
         <v>1</v>
@@ -23159,7 +23433,7 @@
         <v>25.137814383162759</v>
       </c>
     </row>
-    <row r="62" spans="7:14" x14ac:dyDescent="0.3">
+    <row r="62" spans="7:14">
       <c r="G62" s="2">
         <f t="shared" si="1"/>
         <v>1</v>
@@ -23193,7 +23467,7 @@
         <v>27.050211333758995</v>
       </c>
     </row>
-    <row r="63" spans="7:14" x14ac:dyDescent="0.3">
+    <row r="63" spans="7:14">
       <c r="G63" s="2">
         <f t="shared" si="1"/>
         <v>1</v>
@@ -23227,7 +23501,7 @@
         <v>29.117747009420135</v>
       </c>
     </row>
-    <row r="64" spans="7:14" x14ac:dyDescent="0.3">
+    <row r="64" spans="7:14">
       <c r="G64" s="2">
         <f t="shared" si="1"/>
         <v>1</v>
@@ -23261,7 +23535,7 @@
         <v>31.353006675986176</v>
       </c>
     </row>
-    <row r="65" spans="7:14" x14ac:dyDescent="0.3">
+    <row r="65" spans="7:14">
       <c r="G65" s="2">
         <f t="shared" si="1"/>
         <v>1</v>
@@ -23295,7 +23569,7 @@
         <v>33.769596549522042</v>
       </c>
     </row>
-    <row r="66" spans="7:14" x14ac:dyDescent="0.3">
+    <row r="66" spans="7:14">
       <c r="G66" s="2">
         <f t="shared" si="1"/>
         <v>1</v>
@@ -23329,7 +23603,7 @@
         <v>36.382226618514352</v>
       </c>
     </row>
-    <row r="67" spans="7:14" x14ac:dyDescent="0.3">
+    <row r="67" spans="7:14">
       <c r="G67" s="2">
         <f t="shared" si="1"/>
         <v>1</v>
@@ -23363,7 +23637,7 @@
         <v>39.206800184824708</v>
       </c>
     </row>
-    <row r="68" spans="7:14" x14ac:dyDescent="0.3">
+    <row r="68" spans="7:14">
       <c r="G68" s="2">
         <f t="shared" ref="G68:G103" si="12">$E$7</f>
         <v>1</v>
@@ -23397,7 +23671,7 @@
         <v>42.260510668443416</v>
       </c>
     </row>
-    <row r="69" spans="7:14" x14ac:dyDescent="0.3">
+    <row r="69" spans="7:14">
       <c r="G69" s="2">
         <f t="shared" si="12"/>
         <v>1</v>
@@ -23431,7 +23705,7 @@
         <v>45.561946265301955</v>
       </c>
     </row>
-    <row r="70" spans="7:14" x14ac:dyDescent="0.3">
+    <row r="70" spans="7:14">
       <c r="G70" s="2">
         <f t="shared" si="12"/>
         <v>1</v>
@@ -23465,7 +23739,7 @@
         <v>49.131203095205741</v>
       </c>
     </row>
-    <row r="71" spans="7:14" x14ac:dyDescent="0.3">
+    <row r="71" spans="7:14">
       <c r="G71" s="2">
         <f t="shared" si="12"/>
         <v>1</v>
@@ -23499,7 +23773,7 @@
         <v>52.990007528627643</v>
       </c>
     </row>
-    <row r="72" spans="7:14" x14ac:dyDescent="0.3">
+    <row r="72" spans="7:14">
       <c r="G72" s="2">
         <f t="shared" si="12"/>
         <v>1</v>
@@ -23533,7 +23807,7 @@
         <v>57.161848436976662</v>
       </c>
     </row>
-    <row r="73" spans="7:14" x14ac:dyDescent="0.3">
+    <row r="73" spans="7:14">
       <c r="G73" s="2">
         <f t="shared" si="12"/>
         <v>1</v>
@@ -23567,7 +23841,7 @@
         <v>61.672120171359538</v>
       </c>
     </row>
-    <row r="74" spans="7:14" x14ac:dyDescent="0.3">
+    <row r="74" spans="7:14">
       <c r="G74" s="2">
         <f t="shared" si="12"/>
         <v>1</v>
@@ -23601,7 +23875,7 @@
         <v>66.54827714016011</v>
       </c>
     </row>
-    <row r="75" spans="7:14" x14ac:dyDescent="0.3">
+    <row r="75" spans="7:14">
       <c r="G75" s="2">
         <f t="shared" si="12"/>
         <v>1</v>
@@ -23635,7 +23909,7 @@
         <v>71.820000926362411</v>
       </c>
     </row>
-    <row r="76" spans="7:14" x14ac:dyDescent="0.3">
+    <row r="76" spans="7:14">
       <c r="G76" s="2">
         <f t="shared" si="12"/>
         <v>1</v>
@@ -23669,7 +23943,7 @@
         <v>77.519380961875797</v>
       </c>
     </row>
-    <row r="77" spans="7:14" x14ac:dyDescent="0.3">
+    <row r="77" spans="7:14">
       <c r="G77" s="2">
         <f t="shared" si="12"/>
         <v>1</v>
@@ -23703,7 +23977,7 @@
         <v>83.681109858641179</v>
       </c>
     </row>
-    <row r="78" spans="7:14" x14ac:dyDescent="0.3">
+    <row r="78" spans="7:14">
       <c r="G78" s="2">
         <f t="shared" si="12"/>
         <v>1</v>
@@ -23737,7 +24011,7 @@
         <v>90.342694585516512</v>
       </c>
     </row>
-    <row r="79" spans="7:14" x14ac:dyDescent="0.3">
+    <row r="79" spans="7:14">
       <c r="G79" s="2">
         <f t="shared" si="12"/>
         <v>1</v>
@@ -23771,7 +24045,7 @@
         <v>97.544684776391946</v>
       </c>
     </row>
-    <row r="80" spans="7:14" x14ac:dyDescent="0.3">
+    <row r="80" spans="7:14">
       <c r="G80" s="2">
         <f t="shared" si="12"/>
         <v>1</v>
@@ -23805,7 +24079,7 @@
         <v>105.33091955926707</v>
       </c>
     </row>
-    <row r="81" spans="7:14" x14ac:dyDescent="0.3">
+    <row r="81" spans="7:14">
       <c r="G81" s="2">
         <f t="shared" si="12"/>
         <v>1</v>
@@ -23839,7 +24113,7 @@
         <v>113.74879440875846</v>
       </c>
     </row>
-    <row r="82" spans="7:14" x14ac:dyDescent="0.3">
+    <row r="82" spans="7:14">
       <c r="G82" s="2">
         <f t="shared" si="12"/>
         <v>1</v>
@@ -23873,7 +24147,7 @@
         <v>122.84954964639266</v>
       </c>
     </row>
-    <row r="83" spans="7:14" x14ac:dyDescent="0.3">
+    <row r="83" spans="7:14">
       <c r="G83" s="2">
         <f t="shared" si="12"/>
         <v>1</v>
@@ -23907,7 +24181,7 @@
         <v>132.68858234480945</v>
       </c>
     </row>
-    <row r="84" spans="7:14" x14ac:dyDescent="0.3">
+    <row r="84" spans="7:14">
       <c r="G84" s="2">
         <f t="shared" si="12"/>
         <v>1</v>
@@ -23941,7 +24215,7 @@
         <v>143.32578353446362</v>
       </c>
     </row>
-    <row r="85" spans="7:14" x14ac:dyDescent="0.3">
+    <row r="85" spans="7:14">
       <c r="G85" s="2">
         <f t="shared" si="12"/>
         <v>1</v>
@@ -23975,7 +24249,7 @@
         <v>154.82590276543118</v>
       </c>
     </row>
-    <row r="86" spans="7:14" x14ac:dyDescent="0.3">
+    <row r="86" spans="7:14">
       <c r="G86" s="2">
         <f t="shared" si="12"/>
         <v>1</v>
@@ -24009,7 +24283,7 @@
         <v>167.25894224343773</v>
       </c>
     </row>
-    <row r="87" spans="7:14" x14ac:dyDescent="0.3">
+    <row r="87" spans="7:14">
       <c r="G87" s="2">
         <f t="shared" si="12"/>
         <v>1</v>
@@ -24043,7 +24317,7 @@
         <v>180.70058293925032</v>
       </c>
     </row>
-    <row r="88" spans="7:14" x14ac:dyDescent="0.3">
+    <row r="88" spans="7:14">
       <c r="G88" s="2">
         <f t="shared" si="12"/>
         <v>1</v>
@@ -24077,7 +24351,7 @@
         <v>195.23264526519517</v>
       </c>
     </row>
-    <row r="89" spans="7:14" x14ac:dyDescent="0.3">
+    <row r="89" spans="7:14">
       <c r="G89" s="2">
         <f t="shared" si="12"/>
         <v>1</v>
@@ -24111,7 +24385,7 @@
         <v>210.94358712298003</v>
       </c>
     </row>
-    <row r="90" spans="7:14" x14ac:dyDescent="0.3">
+    <row r="90" spans="7:14">
       <c r="G90" s="2">
         <f t="shared" si="12"/>
         <v>1</v>
@@ -24145,7 +24419,7 @@
         <v>227.92904235447949</v>
       </c>
     </row>
-    <row r="91" spans="7:14" x14ac:dyDescent="0.3">
+    <row r="91" spans="7:14">
       <c r="G91" s="2">
         <f t="shared" si="12"/>
         <v>1</v>
@@ -24179,7 +24453,7 @@
         <v>246.29240287307988</v>
       </c>
     </row>
-    <row r="92" spans="7:14" x14ac:dyDescent="0.3">
+    <row r="92" spans="7:14">
       <c r="G92" s="2">
         <f t="shared" si="12"/>
         <v>1</v>
@@ -24213,7 +24487,7 @@
         <v>266.14544801906635</v>
       </c>
     </row>
-    <row r="93" spans="7:14" x14ac:dyDescent="0.3">
+    <row r="93" spans="7:14">
       <c r="G93" s="2">
         <f t="shared" si="12"/>
         <v>1</v>
@@ -24247,7 +24521,7 @@
         <v>287.60902496999245</v>
       </c>
     </row>
-    <row r="94" spans="7:14" x14ac:dyDescent="0.3">
+    <row r="94" spans="7:14">
       <c r="G94" s="2">
         <f t="shared" si="12"/>
         <v>1</v>
@@ -24281,7 +24555,7 @@
         <v>310.81378434774763</v>
       </c>
     </row>
-    <row r="95" spans="7:14" x14ac:dyDescent="0.3">
+    <row r="95" spans="7:14">
       <c r="G95" s="2">
         <f t="shared" si="12"/>
         <v>1</v>
@@ -24315,7 +24589,7 @@
         <v>335.90097550002582</v>
       </c>
     </row>
-    <row r="96" spans="7:14" x14ac:dyDescent="0.3">
+    <row r="96" spans="7:14">
       <c r="G96" s="2">
         <f t="shared" si="12"/>
         <v>1</v>
@@ -24349,7 +24623,7 @@
         <v>363.0233062971414</v>
       </c>
     </row>
-    <row r="97" spans="7:14" x14ac:dyDescent="0.3">
+    <row r="97" spans="7:14">
       <c r="G97" s="2">
         <f t="shared" si="12"/>
         <v>1</v>
@@ -24383,7 +24657,7 @@
         <v>392.34587267784849</v>
       </c>
     </row>
-    <row r="98" spans="7:14" x14ac:dyDescent="0.3">
+    <row r="98" spans="7:14">
       <c r="G98" s="2">
         <f t="shared" si="12"/>
         <v>1</v>
@@ -24417,7 +24691,7 @@
         <v>424.04716360238854</v>
       </c>
     </row>
-    <row r="99" spans="7:14" x14ac:dyDescent="0.3">
+    <row r="99" spans="7:14">
       <c r="G99" s="2">
         <f t="shared" si="12"/>
         <v>1</v>
@@ -24451,7 +24725,7 @@
         <v>458.32014753000101</v>
       </c>
     </row>
-    <row r="100" spans="7:14" x14ac:dyDescent="0.3">
+    <row r="100" spans="7:14">
       <c r="G100" s="2">
         <f t="shared" si="12"/>
         <v>1</v>
@@ -24485,7 +24759,7 @@
         <v>495.3734470343785</v>
       </c>
     </row>
-    <row r="101" spans="7:14" x14ac:dyDescent="0.3">
+    <row r="101" spans="7:14">
       <c r="G101" s="2">
         <f t="shared" si="12"/>
         <v>1</v>
@@ -24519,7 +24793,7 @@
         <v>535.43260870705012</v>
       </c>
     </row>
-    <row r="102" spans="7:14" x14ac:dyDescent="0.3">
+    <row r="102" spans="7:14">
       <c r="G102" s="2">
         <f t="shared" si="12"/>
         <v>1</v>
@@ -24553,7 +24827,7 @@
         <v>578.74147607870327</v>
       </c>
     </row>
-    <row r="103" spans="7:14" x14ac:dyDescent="0.3">
+    <row r="103" spans="7:14">
       <c r="G103" s="2">
         <f t="shared" si="12"/>
         <v>1</v>
@@ -24597,12 +24871,12 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DC8191BD-2B7B-4602-AB98-101ED92BF2DD}">
   <dimension ref="B2:Q116"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F14" sqref="F14"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A91" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F109" sqref="F109"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="2.109375" style="4" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="37.44140625" style="4" bestFit="1" customWidth="1"/>
@@ -24613,7 +24887,7 @@
     <col min="15" max="16384" width="11.5546875" style="4"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:16" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:16" ht="15.6">
       <c r="B2" s="1" t="s">
         <v>77</v>
       </c>
@@ -24645,7 +24919,7 @@
         <v>82</v>
       </c>
       <c r="N2" s="1" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="O2" s="1" t="s">
         <v>29</v>
@@ -24654,7 +24928,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="3" spans="2:16" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:16" ht="16.2">
       <c r="B3" s="2" t="s">
         <v>3</v>
       </c>
@@ -24672,11 +24946,11 @@
         <f>$E$8</f>
         <v>1.3500000000000232</v>
       </c>
-      <c r="I3" s="20">
+      <c r="I3" s="18">
         <v>11.35</v>
       </c>
       <c r="J3" s="2"/>
-      <c r="K3" s="21">
+      <c r="K3" s="19">
         <f>H3-I3</f>
         <v>-9.9999999999999769</v>
       </c>
@@ -24698,7 +24972,7 @@
       </c>
       <c r="P3" s="2"/>
     </row>
-    <row r="4" spans="2:16" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:16" ht="16.2">
       <c r="B4" s="2" t="s">
         <v>11</v>
       </c>
@@ -24715,7 +24989,7 @@
         <f t="shared" ref="H4:H67" si="1">$E$8</f>
         <v>1.3500000000000232</v>
       </c>
-      <c r="I4" s="20">
+      <c r="I4" s="18">
         <f>I3-0.1</f>
         <v>11.25</v>
       </c>
@@ -24723,7 +24997,7 @@
         <f>I3-I4</f>
         <v>9.9999999999999645E-2</v>
       </c>
-      <c r="K4" s="21">
+      <c r="K4" s="19">
         <f t="shared" ref="K4:K67" si="2">H4-I4</f>
         <v>-9.8999999999999773</v>
       </c>
@@ -24748,7 +25022,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="2:16" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:16" ht="16.2">
       <c r="B5" s="2" t="s">
         <v>12</v>
       </c>
@@ -24769,7 +25043,7 @@
         <f t="shared" si="1"/>
         <v>1.3500000000000232</v>
       </c>
-      <c r="I5" s="20">
+      <c r="I5" s="18">
         <f t="shared" ref="I5:I68" si="6">I4-0.1</f>
         <v>11.15</v>
       </c>
@@ -24777,7 +25051,7 @@
         <f t="shared" ref="J5:J68" si="7">I4-I5</f>
         <v>9.9999999999999645E-2</v>
       </c>
-      <c r="K5" s="21">
+      <c r="K5" s="19">
         <f t="shared" si="2"/>
         <v>-9.7999999999999776</v>
       </c>
@@ -24802,7 +25076,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="2:16" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:16" ht="15.6">
       <c r="B6" s="2" t="s">
         <v>21</v>
       </c>
@@ -24819,7 +25093,7 @@
         <f t="shared" si="1"/>
         <v>1.3500000000000232</v>
       </c>
-      <c r="I6" s="20">
+      <c r="I6" s="18">
         <f t="shared" si="6"/>
         <v>11.05</v>
       </c>
@@ -24827,7 +25101,7 @@
         <f t="shared" si="7"/>
         <v>9.9999999999999645E-2</v>
       </c>
-      <c r="K6" s="21">
+      <c r="K6" s="19">
         <f t="shared" si="2"/>
         <v>-9.699999999999978</v>
       </c>
@@ -24852,7 +25126,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="2:16" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:16" ht="15.6">
       <c r="B7" s="2" t="s">
         <v>21</v>
       </c>
@@ -24870,7 +25144,7 @@
         <f t="shared" si="1"/>
         <v>1.3500000000000232</v>
       </c>
-      <c r="I7" s="20">
+      <c r="I7" s="18">
         <f t="shared" si="6"/>
         <v>10.950000000000001</v>
       </c>
@@ -24878,7 +25152,7 @@
         <f t="shared" si="7"/>
         <v>9.9999999999999645E-2</v>
       </c>
-      <c r="K7" s="21">
+      <c r="K7" s="19">
         <f t="shared" si="2"/>
         <v>-9.5999999999999783</v>
       </c>
@@ -24903,7 +25177,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:16">
       <c r="B8" s="2" t="s">
         <v>22</v>
       </c>
@@ -24920,7 +25194,7 @@
         <f t="shared" si="1"/>
         <v>1.3500000000000232</v>
       </c>
-      <c r="I8" s="20">
+      <c r="I8" s="18">
         <f t="shared" si="6"/>
         <v>10.850000000000001</v>
       </c>
@@ -24928,7 +25202,7 @@
         <f t="shared" si="7"/>
         <v>9.9999999999999645E-2</v>
       </c>
-      <c r="K8" s="21">
+      <c r="K8" s="19">
         <f t="shared" si="2"/>
         <v>-9.4999999999999787</v>
       </c>
@@ -24953,7 +25227,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:16">
       <c r="B9" s="2" t="s">
         <v>27</v>
       </c>
@@ -24970,7 +25244,7 @@
         <f t="shared" si="1"/>
         <v>1.3500000000000232</v>
       </c>
-      <c r="I9" s="20">
+      <c r="I9" s="18">
         <f t="shared" si="6"/>
         <v>10.750000000000002</v>
       </c>
@@ -24978,7 +25252,7 @@
         <f t="shared" si="7"/>
         <v>9.9999999999999645E-2</v>
       </c>
-      <c r="K9" s="21">
+      <c r="K9" s="19">
         <f t="shared" si="2"/>
         <v>-9.399999999999979</v>
       </c>
@@ -25003,7 +25277,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:16">
       <c r="B10" s="2" t="s">
         <v>24</v>
       </c>
@@ -25013,21 +25287,21 @@
       <c r="D10" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="E10" s="28">
-        <v>0.215</v>
-      </c>
-      <c r="F10" s="29">
+      <c r="E10" s="25">
         <v>0.78</v>
       </c>
-      <c r="G10" s="29">
+      <c r="F10" s="26">
+        <v>0.78</v>
+      </c>
+      <c r="G10" s="26">
         <f>F10-E10</f>
-        <v>0.56500000000000006</v>
+        <v>0</v>
       </c>
       <c r="H10" s="2">
         <f t="shared" si="1"/>
         <v>1.3500000000000232</v>
       </c>
-      <c r="I10" s="20">
+      <c r="I10" s="18">
         <f t="shared" si="6"/>
         <v>10.650000000000002</v>
       </c>
@@ -25035,7 +25309,7 @@
         <f t="shared" si="7"/>
         <v>9.9999999999999645E-2</v>
       </c>
-      <c r="K10" s="21">
+      <c r="K10" s="19">
         <f t="shared" si="2"/>
         <v>-9.2999999999999794</v>
       </c>
@@ -25060,12 +25334,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="2:16" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:16" ht="16.2">
       <c r="B11" s="2" t="s">
         <v>25</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="D11" s="2" t="s">
         <v>19</v>
@@ -25081,7 +25355,7 @@
         <f t="shared" si="1"/>
         <v>1.3500000000000232</v>
       </c>
-      <c r="I11" s="20">
+      <c r="I11" s="18">
         <f t="shared" si="6"/>
         <v>10.550000000000002</v>
       </c>
@@ -25089,7 +25363,7 @@
         <f t="shared" si="7"/>
         <v>9.9999999999999645E-2</v>
       </c>
-      <c r="K11" s="21">
+      <c r="K11" s="19">
         <f t="shared" si="2"/>
         <v>-9.1999999999999797</v>
       </c>
@@ -25114,12 +25388,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="2:16" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:16" ht="16.2">
       <c r="B12" s="2" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="D12" s="2" t="s">
         <v>19</v>
@@ -25131,7 +25405,7 @@
         <f t="shared" si="1"/>
         <v>1.3500000000000232</v>
       </c>
-      <c r="I12" s="20">
+      <c r="I12" s="18">
         <f t="shared" si="6"/>
         <v>10.450000000000003</v>
       </c>
@@ -25139,7 +25413,7 @@
         <f t="shared" si="7"/>
         <v>9.9999999999999645E-2</v>
       </c>
-      <c r="K12" s="21">
+      <c r="K12" s="19">
         <f t="shared" si="2"/>
         <v>-9.0999999999999801</v>
       </c>
@@ -25164,7 +25438,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="2:16" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:16" ht="15.6">
       <c r="B13" s="2" t="s">
         <v>26</v>
       </c>
@@ -25182,7 +25456,7 @@
         <f t="shared" si="1"/>
         <v>1.3500000000000232</v>
       </c>
-      <c r="I13" s="20">
+      <c r="I13" s="18">
         <f t="shared" si="6"/>
         <v>10.350000000000003</v>
       </c>
@@ -25190,7 +25464,7 @@
         <f t="shared" si="7"/>
         <v>9.9999999999999645E-2</v>
       </c>
-      <c r="K13" s="21">
+      <c r="K13" s="19">
         <f t="shared" si="2"/>
         <v>-8.9999999999999805</v>
       </c>
@@ -25215,7 +25489,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="2:16" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:16" ht="16.2">
       <c r="B14" s="2" t="s">
         <v>33</v>
       </c>
@@ -25233,7 +25507,7 @@
         <f t="shared" si="1"/>
         <v>1.3500000000000232</v>
       </c>
-      <c r="I14" s="20">
+      <c r="I14" s="18">
         <f t="shared" si="6"/>
         <v>10.250000000000004</v>
       </c>
@@ -25241,7 +25515,7 @@
         <f t="shared" si="7"/>
         <v>9.9999999999999645E-2</v>
       </c>
-      <c r="K14" s="21">
+      <c r="K14" s="19">
         <f t="shared" si="2"/>
         <v>-8.8999999999999808</v>
       </c>
@@ -25266,7 +25540,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="2:16" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:16" ht="16.2">
       <c r="B15" s="2" t="s">
         <v>83</v>
       </c>
@@ -25278,13 +25552,13 @@
       </c>
       <c r="E15" s="2">
         <f>SUM(P3:P116)/E11</f>
-        <v>59.768861853048875</v>
+        <v>105.49253926375455</v>
       </c>
       <c r="H15" s="2">
         <f t="shared" si="1"/>
         <v>1.3500000000000232</v>
       </c>
-      <c r="I15" s="20">
+      <c r="I15" s="18">
         <f t="shared" si="6"/>
         <v>10.150000000000004</v>
       </c>
@@ -25292,7 +25566,7 @@
         <f t="shared" si="7"/>
         <v>9.9999999999999645E-2</v>
       </c>
-      <c r="K15" s="21">
+      <c r="K15" s="19">
         <f t="shared" si="2"/>
         <v>-8.7999999999999812</v>
       </c>
@@ -25317,12 +25591,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:16">
       <c r="H16" s="2">
         <f t="shared" si="1"/>
         <v>1.3500000000000232</v>
       </c>
-      <c r="I16" s="20">
+      <c r="I16" s="18">
         <f t="shared" si="6"/>
         <v>10.050000000000004</v>
       </c>
@@ -25330,7 +25604,7 @@
         <f t="shared" si="7"/>
         <v>9.9999999999999645E-2</v>
       </c>
-      <c r="K16" s="21">
+      <c r="K16" s="19">
         <f t="shared" si="2"/>
         <v>-8.6999999999999815</v>
       </c>
@@ -25355,12 +25629,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="8:16" x14ac:dyDescent="0.3">
+    <row r="17" spans="8:16">
       <c r="H17" s="2">
         <f t="shared" si="1"/>
         <v>1.3500000000000232</v>
       </c>
-      <c r="I17" s="20">
+      <c r="I17" s="18">
         <f t="shared" si="6"/>
         <v>9.9500000000000046</v>
       </c>
@@ -25368,7 +25642,7 @@
         <f t="shared" si="7"/>
         <v>9.9999999999999645E-2</v>
       </c>
-      <c r="K17" s="21">
+      <c r="K17" s="19">
         <f t="shared" si="2"/>
         <v>-8.5999999999999819</v>
       </c>
@@ -25393,12 +25667,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="8:16" x14ac:dyDescent="0.3">
+    <row r="18" spans="8:16">
       <c r="H18" s="2">
         <f t="shared" si="1"/>
         <v>1.3500000000000232</v>
       </c>
-      <c r="I18" s="20">
+      <c r="I18" s="18">
         <f t="shared" si="6"/>
         <v>9.850000000000005</v>
       </c>
@@ -25406,7 +25680,7 @@
         <f t="shared" si="7"/>
         <v>9.9999999999999645E-2</v>
       </c>
-      <c r="K18" s="21">
+      <c r="K18" s="19">
         <f t="shared" si="2"/>
         <v>-8.4999999999999822</v>
       </c>
@@ -25431,12 +25705,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="8:16" x14ac:dyDescent="0.3">
+    <row r="19" spans="8:16">
       <c r="H19" s="2">
         <f t="shared" si="1"/>
         <v>1.3500000000000232</v>
       </c>
-      <c r="I19" s="20">
+      <c r="I19" s="18">
         <f t="shared" si="6"/>
         <v>9.7500000000000053</v>
       </c>
@@ -25444,7 +25718,7 @@
         <f t="shared" si="7"/>
         <v>9.9999999999999645E-2</v>
       </c>
-      <c r="K19" s="21">
+      <c r="K19" s="19">
         <f t="shared" si="2"/>
         <v>-8.3999999999999826</v>
       </c>
@@ -25469,12 +25743,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="8:16" x14ac:dyDescent="0.3">
+    <row r="20" spans="8:16">
       <c r="H20" s="2">
         <f t="shared" si="1"/>
         <v>1.3500000000000232</v>
       </c>
-      <c r="I20" s="20">
+      <c r="I20" s="18">
         <f t="shared" si="6"/>
         <v>9.6500000000000057</v>
       </c>
@@ -25482,7 +25756,7 @@
         <f t="shared" si="7"/>
         <v>9.9999999999999645E-2</v>
       </c>
-      <c r="K20" s="21">
+      <c r="K20" s="19">
         <f t="shared" si="2"/>
         <v>-8.2999999999999829</v>
       </c>
@@ -25507,12 +25781,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="8:16" x14ac:dyDescent="0.3">
+    <row r="21" spans="8:16">
       <c r="H21" s="2">
         <f t="shared" si="1"/>
         <v>1.3500000000000232</v>
       </c>
-      <c r="I21" s="20">
+      <c r="I21" s="18">
         <f t="shared" si="6"/>
         <v>9.550000000000006</v>
       </c>
@@ -25520,7 +25794,7 @@
         <f t="shared" si="7"/>
         <v>9.9999999999999645E-2</v>
       </c>
-      <c r="K21" s="21">
+      <c r="K21" s="19">
         <f t="shared" si="2"/>
         <v>-8.1999999999999833</v>
       </c>
@@ -25545,12 +25819,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="8:16" x14ac:dyDescent="0.3">
+    <row r="22" spans="8:16">
       <c r="H22" s="2">
         <f t="shared" si="1"/>
         <v>1.3500000000000232</v>
       </c>
-      <c r="I22" s="20">
+      <c r="I22" s="18">
         <f t="shared" si="6"/>
         <v>9.4500000000000064</v>
       </c>
@@ -25558,7 +25832,7 @@
         <f t="shared" si="7"/>
         <v>9.9999999999999645E-2</v>
       </c>
-      <c r="K22" s="21">
+      <c r="K22" s="19">
         <f t="shared" si="2"/>
         <v>-8.0999999999999837</v>
       </c>
@@ -25583,12 +25857,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="8:16" x14ac:dyDescent="0.3">
+    <row r="23" spans="8:16">
       <c r="H23" s="2">
         <f t="shared" si="1"/>
         <v>1.3500000000000232</v>
       </c>
-      <c r="I23" s="20">
+      <c r="I23" s="18">
         <f t="shared" si="6"/>
         <v>9.3500000000000068</v>
       </c>
@@ -25596,7 +25870,7 @@
         <f t="shared" si="7"/>
         <v>9.9999999999999645E-2</v>
       </c>
-      <c r="K23" s="21">
+      <c r="K23" s="19">
         <f t="shared" si="2"/>
         <v>-7.999999999999984</v>
       </c>
@@ -25621,12 +25895,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="8:16" x14ac:dyDescent="0.3">
+    <row r="24" spans="8:16">
       <c r="H24" s="2">
         <f t="shared" si="1"/>
         <v>1.3500000000000232</v>
       </c>
-      <c r="I24" s="20">
+      <c r="I24" s="18">
         <f t="shared" si="6"/>
         <v>9.2500000000000071</v>
       </c>
@@ -25634,7 +25908,7 @@
         <f t="shared" si="7"/>
         <v>9.9999999999999645E-2</v>
       </c>
-      <c r="K24" s="21">
+      <c r="K24" s="19">
         <f t="shared" si="2"/>
         <v>-7.8999999999999844</v>
       </c>
@@ -25659,12 +25933,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="8:16" x14ac:dyDescent="0.3">
+    <row r="25" spans="8:16">
       <c r="H25" s="2">
         <f t="shared" si="1"/>
         <v>1.3500000000000232</v>
       </c>
-      <c r="I25" s="20">
+      <c r="I25" s="18">
         <f t="shared" si="6"/>
         <v>9.1500000000000075</v>
       </c>
@@ -25672,7 +25946,7 @@
         <f t="shared" si="7"/>
         <v>9.9999999999999645E-2</v>
       </c>
-      <c r="K25" s="21">
+      <c r="K25" s="19">
         <f t="shared" si="2"/>
         <v>-7.7999999999999847</v>
       </c>
@@ -25697,12 +25971,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="8:16" x14ac:dyDescent="0.3">
+    <row r="26" spans="8:16">
       <c r="H26" s="2">
         <f t="shared" si="1"/>
         <v>1.3500000000000232</v>
       </c>
-      <c r="I26" s="20">
+      <c r="I26" s="18">
         <f t="shared" si="6"/>
         <v>9.0500000000000078</v>
       </c>
@@ -25710,7 +25984,7 @@
         <f t="shared" si="7"/>
         <v>9.9999999999999645E-2</v>
       </c>
-      <c r="K26" s="21">
+      <c r="K26" s="19">
         <f t="shared" si="2"/>
         <v>-7.6999999999999851</v>
       </c>
@@ -25735,12 +26009,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="8:16" x14ac:dyDescent="0.3">
+    <row r="27" spans="8:16">
       <c r="H27" s="2">
         <f t="shared" si="1"/>
         <v>1.3500000000000232</v>
       </c>
-      <c r="I27" s="20">
+      <c r="I27" s="18">
         <f t="shared" si="6"/>
         <v>8.9500000000000082</v>
       </c>
@@ -25748,7 +26022,7 @@
         <f t="shared" si="7"/>
         <v>9.9999999999999645E-2</v>
       </c>
-      <c r="K27" s="21">
+      <c r="K27" s="19">
         <f t="shared" si="2"/>
         <v>-7.5999999999999854</v>
       </c>
@@ -25773,12 +26047,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="8:16" x14ac:dyDescent="0.3">
+    <row r="28" spans="8:16">
       <c r="H28" s="2">
         <f t="shared" si="1"/>
         <v>1.3500000000000232</v>
       </c>
-      <c r="I28" s="20">
+      <c r="I28" s="18">
         <f t="shared" si="6"/>
         <v>8.8500000000000085</v>
       </c>
@@ -25786,7 +26060,7 @@
         <f t="shared" si="7"/>
         <v>9.9999999999999645E-2</v>
       </c>
-      <c r="K28" s="21">
+      <c r="K28" s="19">
         <f t="shared" si="2"/>
         <v>-7.4999999999999858</v>
       </c>
@@ -25811,12 +26085,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="8:16" x14ac:dyDescent="0.3">
+    <row r="29" spans="8:16">
       <c r="H29" s="2">
         <f t="shared" si="1"/>
         <v>1.3500000000000232</v>
       </c>
-      <c r="I29" s="20">
+      <c r="I29" s="18">
         <f t="shared" si="6"/>
         <v>8.7500000000000089</v>
       </c>
@@ -25824,7 +26098,7 @@
         <f t="shared" si="7"/>
         <v>9.9999999999999645E-2</v>
       </c>
-      <c r="K29" s="21">
+      <c r="K29" s="19">
         <f t="shared" si="2"/>
         <v>-7.3999999999999861</v>
       </c>
@@ -25849,12 +26123,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="8:16" x14ac:dyDescent="0.3">
+    <row r="30" spans="8:16">
       <c r="H30" s="2">
         <f t="shared" si="1"/>
         <v>1.3500000000000232</v>
       </c>
-      <c r="I30" s="20">
+      <c r="I30" s="18">
         <f t="shared" si="6"/>
         <v>8.6500000000000092</v>
       </c>
@@ -25862,7 +26136,7 @@
         <f t="shared" si="7"/>
         <v>9.9999999999999645E-2</v>
       </c>
-      <c r="K30" s="21">
+      <c r="K30" s="19">
         <f t="shared" si="2"/>
         <v>-7.2999999999999865</v>
       </c>
@@ -25887,12 +26161,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="8:16" x14ac:dyDescent="0.3">
+    <row r="31" spans="8:16">
       <c r="H31" s="2">
         <f t="shared" si="1"/>
         <v>1.3500000000000232</v>
       </c>
-      <c r="I31" s="20">
+      <c r="I31" s="18">
         <f t="shared" si="6"/>
         <v>8.5500000000000096</v>
       </c>
@@ -25900,7 +26174,7 @@
         <f t="shared" si="7"/>
         <v>9.9999999999999645E-2</v>
       </c>
-      <c r="K31" s="21">
+      <c r="K31" s="19">
         <f t="shared" si="2"/>
         <v>-7.1999999999999869</v>
       </c>
@@ -25925,12 +26199,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="8:16" x14ac:dyDescent="0.3">
+    <row r="32" spans="8:16">
       <c r="H32" s="2">
         <f t="shared" si="1"/>
         <v>1.3500000000000232</v>
       </c>
-      <c r="I32" s="20">
+      <c r="I32" s="18">
         <f t="shared" si="6"/>
         <v>8.4500000000000099</v>
       </c>
@@ -25938,7 +26212,7 @@
         <f t="shared" si="7"/>
         <v>9.9999999999999645E-2</v>
       </c>
-      <c r="K32" s="21">
+      <c r="K32" s="19">
         <f t="shared" si="2"/>
         <v>-7.0999999999999872</v>
       </c>
@@ -25963,12 +26237,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="8:16" x14ac:dyDescent="0.3">
+    <row r="33" spans="8:16">
       <c r="H33" s="2">
         <f t="shared" si="1"/>
         <v>1.3500000000000232</v>
       </c>
-      <c r="I33" s="20">
+      <c r="I33" s="18">
         <f t="shared" si="6"/>
         <v>8.3500000000000103</v>
       </c>
@@ -25976,7 +26250,7 @@
         <f t="shared" si="7"/>
         <v>9.9999999999999645E-2</v>
       </c>
-      <c r="K33" s="21">
+      <c r="K33" s="19">
         <f t="shared" si="2"/>
         <v>-6.9999999999999876</v>
       </c>
@@ -26001,12 +26275,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="8:16" x14ac:dyDescent="0.3">
+    <row r="34" spans="8:16">
       <c r="H34" s="2">
         <f t="shared" si="1"/>
         <v>1.3500000000000232</v>
       </c>
-      <c r="I34" s="20">
+      <c r="I34" s="18">
         <f t="shared" si="6"/>
         <v>8.2500000000000107</v>
       </c>
@@ -26014,7 +26288,7 @@
         <f t="shared" si="7"/>
         <v>9.9999999999999645E-2</v>
       </c>
-      <c r="K34" s="21">
+      <c r="K34" s="19">
         <f t="shared" si="2"/>
         <v>-6.8999999999999879</v>
       </c>
@@ -26039,12 +26313,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="8:16" x14ac:dyDescent="0.3">
+    <row r="35" spans="8:16">
       <c r="H35" s="2">
         <f t="shared" si="1"/>
         <v>1.3500000000000232</v>
       </c>
-      <c r="I35" s="20">
+      <c r="I35" s="18">
         <f t="shared" si="6"/>
         <v>8.150000000000011</v>
       </c>
@@ -26052,7 +26326,7 @@
         <f t="shared" si="7"/>
         <v>9.9999999999999645E-2</v>
       </c>
-      <c r="K35" s="21">
+      <c r="K35" s="19">
         <f t="shared" si="2"/>
         <v>-6.7999999999999883</v>
       </c>
@@ -26077,12 +26351,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="8:16" x14ac:dyDescent="0.3">
+    <row r="36" spans="8:16">
       <c r="H36" s="2">
         <f t="shared" si="1"/>
         <v>1.3500000000000232</v>
       </c>
-      <c r="I36" s="20">
+      <c r="I36" s="18">
         <f t="shared" si="6"/>
         <v>8.0500000000000114</v>
       </c>
@@ -26090,7 +26364,7 @@
         <f t="shared" si="7"/>
         <v>9.9999999999999645E-2</v>
       </c>
-      <c r="K36" s="21">
+      <c r="K36" s="19">
         <f t="shared" si="2"/>
         <v>-6.6999999999999886</v>
       </c>
@@ -26115,12 +26389,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="8:16" x14ac:dyDescent="0.3">
+    <row r="37" spans="8:16">
       <c r="H37" s="2">
         <f t="shared" si="1"/>
         <v>1.3500000000000232</v>
       </c>
-      <c r="I37" s="20">
+      <c r="I37" s="18">
         <f t="shared" si="6"/>
         <v>7.9500000000000117</v>
       </c>
@@ -26128,7 +26402,7 @@
         <f t="shared" si="7"/>
         <v>9.9999999999999645E-2</v>
       </c>
-      <c r="K37" s="21">
+      <c r="K37" s="19">
         <f t="shared" si="2"/>
         <v>-6.599999999999989</v>
       </c>
@@ -26153,12 +26427,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="8:16" x14ac:dyDescent="0.3">
+    <row r="38" spans="8:16">
       <c r="H38" s="2">
         <f t="shared" si="1"/>
         <v>1.3500000000000232</v>
       </c>
-      <c r="I38" s="20">
+      <c r="I38" s="18">
         <f t="shared" si="6"/>
         <v>7.8500000000000121</v>
       </c>
@@ -26166,7 +26440,7 @@
         <f t="shared" si="7"/>
         <v>9.9999999999999645E-2</v>
       </c>
-      <c r="K38" s="21">
+      <c r="K38" s="19">
         <f t="shared" si="2"/>
         <v>-6.4999999999999893</v>
       </c>
@@ -26191,12 +26465,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="8:16" x14ac:dyDescent="0.3">
+    <row r="39" spans="8:16">
       <c r="H39" s="2">
         <f t="shared" si="1"/>
         <v>1.3500000000000232</v>
       </c>
-      <c r="I39" s="20">
+      <c r="I39" s="18">
         <f t="shared" si="6"/>
         <v>7.7500000000000124</v>
       </c>
@@ -26204,7 +26478,7 @@
         <f t="shared" si="7"/>
         <v>9.9999999999999645E-2</v>
       </c>
-      <c r="K39" s="21">
+      <c r="K39" s="19">
         <f t="shared" si="2"/>
         <v>-6.3999999999999897</v>
       </c>
@@ -26229,12 +26503,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="8:16" x14ac:dyDescent="0.3">
+    <row r="40" spans="8:16">
       <c r="H40" s="2">
         <f t="shared" si="1"/>
         <v>1.3500000000000232</v>
       </c>
-      <c r="I40" s="20">
+      <c r="I40" s="18">
         <f t="shared" si="6"/>
         <v>7.6500000000000128</v>
       </c>
@@ -26242,7 +26516,7 @@
         <f t="shared" si="7"/>
         <v>9.9999999999999645E-2</v>
       </c>
-      <c r="K40" s="21">
+      <c r="K40" s="19">
         <f t="shared" si="2"/>
         <v>-6.2999999999999901</v>
       </c>
@@ -26267,12 +26541,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="8:16" x14ac:dyDescent="0.3">
+    <row r="41" spans="8:16">
       <c r="H41" s="2">
         <f t="shared" si="1"/>
         <v>1.3500000000000232</v>
       </c>
-      <c r="I41" s="20">
+      <c r="I41" s="18">
         <f t="shared" si="6"/>
         <v>7.5500000000000131</v>
       </c>
@@ -26280,7 +26554,7 @@
         <f t="shared" si="7"/>
         <v>9.9999999999999645E-2</v>
       </c>
-      <c r="K41" s="21">
+      <c r="K41" s="19">
         <f t="shared" si="2"/>
         <v>-6.1999999999999904</v>
       </c>
@@ -26305,12 +26579,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="8:16" x14ac:dyDescent="0.3">
+    <row r="42" spans="8:16">
       <c r="H42" s="2">
         <f t="shared" si="1"/>
         <v>1.3500000000000232</v>
       </c>
-      <c r="I42" s="20">
+      <c r="I42" s="18">
         <f t="shared" si="6"/>
         <v>7.4500000000000135</v>
       </c>
@@ -26318,7 +26592,7 @@
         <f t="shared" si="7"/>
         <v>9.9999999999999645E-2</v>
       </c>
-      <c r="K42" s="21">
+      <c r="K42" s="19">
         <f t="shared" si="2"/>
         <v>-6.0999999999999908</v>
       </c>
@@ -26343,12 +26617,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="8:16" x14ac:dyDescent="0.3">
+    <row r="43" spans="8:16">
       <c r="H43" s="2">
         <f t="shared" si="1"/>
         <v>1.3500000000000232</v>
       </c>
-      <c r="I43" s="20">
+      <c r="I43" s="18">
         <f t="shared" si="6"/>
         <v>7.3500000000000139</v>
       </c>
@@ -26356,7 +26630,7 @@
         <f t="shared" si="7"/>
         <v>9.9999999999999645E-2</v>
       </c>
-      <c r="K43" s="21">
+      <c r="K43" s="19">
         <f t="shared" si="2"/>
         <v>-5.9999999999999911</v>
       </c>
@@ -26381,12 +26655,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="8:16" x14ac:dyDescent="0.3">
+    <row r="44" spans="8:16">
       <c r="H44" s="2">
         <f t="shared" si="1"/>
         <v>1.3500000000000232</v>
       </c>
-      <c r="I44" s="20">
+      <c r="I44" s="18">
         <f t="shared" si="6"/>
         <v>7.2500000000000142</v>
       </c>
@@ -26394,7 +26668,7 @@
         <f t="shared" si="7"/>
         <v>9.9999999999999645E-2</v>
       </c>
-      <c r="K44" s="21">
+      <c r="K44" s="19">
         <f t="shared" si="2"/>
         <v>-5.8999999999999915</v>
       </c>
@@ -26419,12 +26693,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="8:16" x14ac:dyDescent="0.3">
+    <row r="45" spans="8:16">
       <c r="H45" s="2">
         <f t="shared" si="1"/>
         <v>1.3500000000000232</v>
       </c>
-      <c r="I45" s="20">
+      <c r="I45" s="18">
         <f t="shared" si="6"/>
         <v>7.1500000000000146</v>
       </c>
@@ -26432,7 +26706,7 @@
         <f t="shared" si="7"/>
         <v>9.9999999999999645E-2</v>
       </c>
-      <c r="K45" s="21">
+      <c r="K45" s="19">
         <f t="shared" si="2"/>
         <v>-5.7999999999999918</v>
       </c>
@@ -26457,12 +26731,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="8:16" x14ac:dyDescent="0.3">
+    <row r="46" spans="8:16">
       <c r="H46" s="2">
         <f t="shared" si="1"/>
         <v>1.3500000000000232</v>
       </c>
-      <c r="I46" s="20">
+      <c r="I46" s="18">
         <f t="shared" si="6"/>
         <v>7.0500000000000149</v>
       </c>
@@ -26470,7 +26744,7 @@
         <f t="shared" si="7"/>
         <v>9.9999999999999645E-2</v>
       </c>
-      <c r="K46" s="21">
+      <c r="K46" s="19">
         <f t="shared" si="2"/>
         <v>-5.6999999999999922</v>
       </c>
@@ -26495,12 +26769,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="8:16" x14ac:dyDescent="0.3">
+    <row r="47" spans="8:16">
       <c r="H47" s="2">
         <f t="shared" si="1"/>
         <v>1.3500000000000232</v>
       </c>
-      <c r="I47" s="20">
+      <c r="I47" s="18">
         <f t="shared" si="6"/>
         <v>6.9500000000000153</v>
       </c>
@@ -26508,7 +26782,7 @@
         <f t="shared" si="7"/>
         <v>9.9999999999999645E-2</v>
       </c>
-      <c r="K47" s="21">
+      <c r="K47" s="19">
         <f t="shared" si="2"/>
         <v>-5.5999999999999925</v>
       </c>
@@ -26533,12 +26807,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="8:16" x14ac:dyDescent="0.3">
+    <row r="48" spans="8:16">
       <c r="H48" s="2">
         <f t="shared" si="1"/>
         <v>1.3500000000000232</v>
       </c>
-      <c r="I48" s="20">
+      <c r="I48" s="18">
         <f t="shared" si="6"/>
         <v>6.8500000000000156</v>
       </c>
@@ -26546,7 +26820,7 @@
         <f t="shared" si="7"/>
         <v>9.9999999999999645E-2</v>
       </c>
-      <c r="K48" s="21">
+      <c r="K48" s="19">
         <f t="shared" si="2"/>
         <v>-5.4999999999999929</v>
       </c>
@@ -26571,12 +26845,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="8:16" x14ac:dyDescent="0.3">
+    <row r="49" spans="8:16">
       <c r="H49" s="2">
         <f t="shared" si="1"/>
         <v>1.3500000000000232</v>
       </c>
-      <c r="I49" s="20">
+      <c r="I49" s="18">
         <f t="shared" si="6"/>
         <v>6.750000000000016</v>
       </c>
@@ -26584,7 +26858,7 @@
         <f t="shared" si="7"/>
         <v>9.9999999999999645E-2</v>
       </c>
-      <c r="K49" s="21">
+      <c r="K49" s="19">
         <f t="shared" si="2"/>
         <v>-5.3999999999999932</v>
       </c>
@@ -26609,12 +26883,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="8:16" x14ac:dyDescent="0.3">
+    <row r="50" spans="8:16">
       <c r="H50" s="2">
         <f t="shared" si="1"/>
         <v>1.3500000000000232</v>
       </c>
-      <c r="I50" s="20">
+      <c r="I50" s="18">
         <f t="shared" si="6"/>
         <v>6.6500000000000163</v>
       </c>
@@ -26622,7 +26896,7 @@
         <f t="shared" si="7"/>
         <v>9.9999999999999645E-2</v>
       </c>
-      <c r="K50" s="21">
+      <c r="K50" s="19">
         <f t="shared" si="2"/>
         <v>-5.2999999999999936</v>
       </c>
@@ -26647,12 +26921,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="8:16" x14ac:dyDescent="0.3">
+    <row r="51" spans="8:16">
       <c r="H51" s="2">
         <f t="shared" si="1"/>
         <v>1.3500000000000232</v>
       </c>
-      <c r="I51" s="20">
+      <c r="I51" s="18">
         <f t="shared" si="6"/>
         <v>6.5500000000000167</v>
       </c>
@@ -26660,7 +26934,7 @@
         <f t="shared" si="7"/>
         <v>9.9999999999999645E-2</v>
       </c>
-      <c r="K51" s="21">
+      <c r="K51" s="19">
         <f t="shared" si="2"/>
         <v>-5.199999999999994</v>
       </c>
@@ -26685,12 +26959,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="8:16" x14ac:dyDescent="0.3">
+    <row r="52" spans="8:16">
       <c r="H52" s="2">
         <f t="shared" si="1"/>
         <v>1.3500000000000232</v>
       </c>
-      <c r="I52" s="20">
+      <c r="I52" s="18">
         <f t="shared" si="6"/>
         <v>6.4500000000000171</v>
       </c>
@@ -26698,7 +26972,7 @@
         <f t="shared" si="7"/>
         <v>9.9999999999999645E-2</v>
       </c>
-      <c r="K52" s="21">
+      <c r="K52" s="19">
         <f t="shared" si="2"/>
         <v>-5.0999999999999943</v>
       </c>
@@ -26723,12 +26997,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="8:16" x14ac:dyDescent="0.3">
+    <row r="53" spans="8:16">
       <c r="H53" s="2">
         <f t="shared" si="1"/>
         <v>1.3500000000000232</v>
       </c>
-      <c r="I53" s="20">
+      <c r="I53" s="18">
         <f t="shared" si="6"/>
         <v>6.3500000000000174</v>
       </c>
@@ -26736,7 +27010,7 @@
         <f t="shared" si="7"/>
         <v>9.9999999999999645E-2</v>
       </c>
-      <c r="K53" s="21">
+      <c r="K53" s="19">
         <f t="shared" si="2"/>
         <v>-4.9999999999999947</v>
       </c>
@@ -26761,12 +27035,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="8:16" x14ac:dyDescent="0.3">
+    <row r="54" spans="8:16">
       <c r="H54" s="2">
         <f t="shared" si="1"/>
         <v>1.3500000000000232</v>
       </c>
-      <c r="I54" s="20">
+      <c r="I54" s="18">
         <f t="shared" si="6"/>
         <v>6.2500000000000178</v>
       </c>
@@ -26774,7 +27048,7 @@
         <f t="shared" si="7"/>
         <v>9.9999999999999645E-2</v>
       </c>
-      <c r="K54" s="21">
+      <c r="K54" s="19">
         <f t="shared" si="2"/>
         <v>-4.899999999999995</v>
       </c>
@@ -26799,12 +27073,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="8:16" x14ac:dyDescent="0.3">
+    <row r="55" spans="8:16">
       <c r="H55" s="2">
         <f t="shared" si="1"/>
         <v>1.3500000000000232</v>
       </c>
-      <c r="I55" s="20">
+      <c r="I55" s="18">
         <f t="shared" si="6"/>
         <v>6.1500000000000181</v>
       </c>
@@ -26812,7 +27086,7 @@
         <f t="shared" si="7"/>
         <v>9.9999999999999645E-2</v>
       </c>
-      <c r="K55" s="21">
+      <c r="K55" s="19">
         <f t="shared" si="2"/>
         <v>-4.7999999999999954</v>
       </c>
@@ -26837,12 +27111,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="8:16" x14ac:dyDescent="0.3">
+    <row r="56" spans="8:16">
       <c r="H56" s="2">
         <f t="shared" si="1"/>
         <v>1.3500000000000232</v>
       </c>
-      <c r="I56" s="20">
+      <c r="I56" s="18">
         <f t="shared" si="6"/>
         <v>6.0500000000000185</v>
       </c>
@@ -26850,7 +27124,7 @@
         <f t="shared" si="7"/>
         <v>9.9999999999999645E-2</v>
       </c>
-      <c r="K56" s="21">
+      <c r="K56" s="19">
         <f t="shared" si="2"/>
         <v>-4.6999999999999957</v>
       </c>
@@ -26875,12 +27149,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="8:16" x14ac:dyDescent="0.3">
+    <row r="57" spans="8:16">
       <c r="H57" s="2">
         <f t="shared" si="1"/>
         <v>1.3500000000000232</v>
       </c>
-      <c r="I57" s="20">
+      <c r="I57" s="18">
         <f t="shared" si="6"/>
         <v>5.9500000000000188</v>
       </c>
@@ -26888,7 +27162,7 @@
         <f t="shared" si="7"/>
         <v>9.9999999999999645E-2</v>
       </c>
-      <c r="K57" s="21">
+      <c r="K57" s="19">
         <f t="shared" si="2"/>
         <v>-4.5999999999999961</v>
       </c>
@@ -26913,12 +27187,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="8:16" x14ac:dyDescent="0.3">
+    <row r="58" spans="8:16">
       <c r="H58" s="2">
         <f t="shared" si="1"/>
         <v>1.3500000000000232</v>
       </c>
-      <c r="I58" s="20">
+      <c r="I58" s="18">
         <f t="shared" si="6"/>
         <v>5.8500000000000192</v>
       </c>
@@ -26926,7 +27200,7 @@
         <f t="shared" si="7"/>
         <v>9.9999999999999645E-2</v>
       </c>
-      <c r="K58" s="21">
+      <c r="K58" s="19">
         <f t="shared" si="2"/>
         <v>-4.4999999999999964</v>
       </c>
@@ -26951,12 +27225,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="8:16" x14ac:dyDescent="0.3">
+    <row r="59" spans="8:16">
       <c r="H59" s="2">
         <f t="shared" si="1"/>
         <v>1.3500000000000232</v>
       </c>
-      <c r="I59" s="20">
+      <c r="I59" s="18">
         <f t="shared" si="6"/>
         <v>5.7500000000000195</v>
       </c>
@@ -26964,7 +27238,7 @@
         <f t="shared" si="7"/>
         <v>9.9999999999999645E-2</v>
       </c>
-      <c r="K59" s="21">
+      <c r="K59" s="19">
         <f t="shared" si="2"/>
         <v>-4.3999999999999968</v>
       </c>
@@ -26989,12 +27263,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="8:16" x14ac:dyDescent="0.3">
+    <row r="60" spans="8:16">
       <c r="H60" s="2">
         <f t="shared" si="1"/>
         <v>1.3500000000000232</v>
       </c>
-      <c r="I60" s="20">
+      <c r="I60" s="18">
         <f t="shared" si="6"/>
         <v>5.6500000000000199</v>
       </c>
@@ -27002,7 +27276,7 @@
         <f t="shared" si="7"/>
         <v>9.9999999999999645E-2</v>
       </c>
-      <c r="K60" s="21">
+      <c r="K60" s="19">
         <f t="shared" si="2"/>
         <v>-4.2999999999999972</v>
       </c>
@@ -27027,12 +27301,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="8:16" x14ac:dyDescent="0.3">
+    <row r="61" spans="8:16">
       <c r="H61" s="2">
         <f t="shared" si="1"/>
         <v>1.3500000000000232</v>
       </c>
-      <c r="I61" s="20">
+      <c r="I61" s="18">
         <f t="shared" si="6"/>
         <v>5.5500000000000203</v>
       </c>
@@ -27040,7 +27314,7 @@
         <f t="shared" si="7"/>
         <v>9.9999999999999645E-2</v>
       </c>
-      <c r="K61" s="21">
+      <c r="K61" s="19">
         <f t="shared" si="2"/>
         <v>-4.1999999999999975</v>
       </c>
@@ -27065,12 +27339,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="8:16" x14ac:dyDescent="0.3">
+    <row r="62" spans="8:16">
       <c r="H62" s="2">
         <f t="shared" si="1"/>
         <v>1.3500000000000232</v>
       </c>
-      <c r="I62" s="20">
+      <c r="I62" s="18">
         <f t="shared" si="6"/>
         <v>5.4500000000000206</v>
       </c>
@@ -27078,7 +27352,7 @@
         <f t="shared" si="7"/>
         <v>9.9999999999999645E-2</v>
       </c>
-      <c r="K62" s="21">
+      <c r="K62" s="19">
         <f t="shared" si="2"/>
         <v>-4.0999999999999979</v>
       </c>
@@ -27103,12 +27377,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="8:16" x14ac:dyDescent="0.3">
+    <row r="63" spans="8:16">
       <c r="H63" s="2">
         <f t="shared" si="1"/>
         <v>1.3500000000000232</v>
       </c>
-      <c r="I63" s="20">
+      <c r="I63" s="18">
         <f t="shared" si="6"/>
         <v>5.350000000000021</v>
       </c>
@@ -27116,7 +27390,7 @@
         <f t="shared" si="7"/>
         <v>9.9999999999999645E-2</v>
       </c>
-      <c r="K63" s="21">
+      <c r="K63" s="19">
         <f t="shared" si="2"/>
         <v>-3.9999999999999978</v>
       </c>
@@ -27141,12 +27415,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="8:16" x14ac:dyDescent="0.3">
+    <row r="64" spans="8:16">
       <c r="H64" s="2">
         <f t="shared" si="1"/>
         <v>1.3500000000000232</v>
       </c>
-      <c r="I64" s="20">
+      <c r="I64" s="18">
         <f t="shared" si="6"/>
         <v>5.2500000000000213</v>
       </c>
@@ -27154,7 +27428,7 @@
         <f t="shared" si="7"/>
         <v>9.9999999999999645E-2</v>
       </c>
-      <c r="K64" s="21">
+      <c r="K64" s="19">
         <f t="shared" si="2"/>
         <v>-3.8999999999999981</v>
       </c>
@@ -27179,12 +27453,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="8:16" x14ac:dyDescent="0.3">
+    <row r="65" spans="8:16">
       <c r="H65" s="2">
         <f t="shared" si="1"/>
         <v>1.3500000000000232</v>
       </c>
-      <c r="I65" s="20">
+      <c r="I65" s="18">
         <f t="shared" si="6"/>
         <v>5.1500000000000217</v>
       </c>
@@ -27192,7 +27466,7 @@
         <f t="shared" si="7"/>
         <v>9.9999999999999645E-2</v>
       </c>
-      <c r="K65" s="21">
+      <c r="K65" s="19">
         <f t="shared" si="2"/>
         <v>-3.7999999999999985</v>
       </c>
@@ -27217,12 +27491,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="8:16" x14ac:dyDescent="0.3">
+    <row r="66" spans="8:16">
       <c r="H66" s="2">
         <f t="shared" si="1"/>
         <v>1.3500000000000232</v>
       </c>
-      <c r="I66" s="20">
+      <c r="I66" s="18">
         <f t="shared" si="6"/>
         <v>5.050000000000022</v>
       </c>
@@ -27230,7 +27504,7 @@
         <f t="shared" si="7"/>
         <v>9.9999999999999645E-2</v>
       </c>
-      <c r="K66" s="21">
+      <c r="K66" s="19">
         <f t="shared" si="2"/>
         <v>-3.6999999999999988</v>
       </c>
@@ -27255,12 +27529,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="8:16" x14ac:dyDescent="0.3">
+    <row r="67" spans="8:16">
       <c r="H67" s="2">
         <f t="shared" si="1"/>
         <v>1.3500000000000232</v>
       </c>
-      <c r="I67" s="20">
+      <c r="I67" s="18">
         <f t="shared" si="6"/>
         <v>4.9500000000000224</v>
       </c>
@@ -27268,7 +27542,7 @@
         <f t="shared" si="7"/>
         <v>9.9999999999999645E-2</v>
       </c>
-      <c r="K67" s="21">
+      <c r="K67" s="19">
         <f t="shared" si="2"/>
         <v>-3.5999999999999992</v>
       </c>
@@ -27293,12 +27567,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="8:16" x14ac:dyDescent="0.3">
+    <row r="68" spans="8:16">
       <c r="H68" s="2">
         <f t="shared" ref="H68:H99" si="14">$E$8</f>
         <v>1.3500000000000232</v>
       </c>
-      <c r="I68" s="20">
+      <c r="I68" s="18">
         <f t="shared" si="6"/>
         <v>4.8500000000000227</v>
       </c>
@@ -27306,7 +27580,7 @@
         <f t="shared" si="7"/>
         <v>9.9999999999999645E-2</v>
       </c>
-      <c r="K68" s="21">
+      <c r="K68" s="19">
         <f t="shared" ref="K68:K116" si="15">H68-I68</f>
         <v>-3.4999999999999996</v>
       </c>
@@ -27331,12 +27605,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="8:16" x14ac:dyDescent="0.3">
+    <row r="69" spans="8:16">
       <c r="H69" s="2">
         <f t="shared" si="14"/>
         <v>1.3500000000000232</v>
       </c>
-      <c r="I69" s="20">
+      <c r="I69" s="18">
         <f t="shared" ref="I69:I116" si="18">I68-0.1</f>
         <v>4.7500000000000231</v>
       </c>
@@ -27344,7 +27618,7 @@
         <f t="shared" ref="J69:J116" si="19">I68-I69</f>
         <v>9.9999999999999645E-2</v>
       </c>
-      <c r="K69" s="21">
+      <c r="K69" s="19">
         <f t="shared" si="15"/>
         <v>-3.4</v>
       </c>
@@ -27369,12 +27643,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="8:16" x14ac:dyDescent="0.3">
+    <row r="70" spans="8:16">
       <c r="H70" s="2">
         <f t="shared" si="14"/>
         <v>1.3500000000000232</v>
       </c>
-      <c r="I70" s="20">
+      <c r="I70" s="18">
         <f t="shared" si="18"/>
         <v>4.6500000000000234</v>
       </c>
@@ -27382,7 +27656,7 @@
         <f t="shared" si="19"/>
         <v>9.9999999999999645E-2</v>
       </c>
-      <c r="K70" s="21">
+      <c r="K70" s="19">
         <f t="shared" si="15"/>
         <v>-3.3000000000000003</v>
       </c>
@@ -27407,12 +27681,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="8:16" x14ac:dyDescent="0.3">
+    <row r="71" spans="8:16">
       <c r="H71" s="2">
         <f t="shared" si="14"/>
         <v>1.3500000000000232</v>
       </c>
-      <c r="I71" s="20">
+      <c r="I71" s="18">
         <f t="shared" si="18"/>
         <v>4.5500000000000238</v>
       </c>
@@ -27420,7 +27694,7 @@
         <f t="shared" si="19"/>
         <v>9.9999999999999645E-2</v>
       </c>
-      <c r="K71" s="21">
+      <c r="K71" s="19">
         <f t="shared" si="15"/>
         <v>-3.2000000000000006</v>
       </c>
@@ -27445,12 +27719,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="8:16" x14ac:dyDescent="0.3">
+    <row r="72" spans="8:16">
       <c r="H72" s="2">
         <f t="shared" si="14"/>
         <v>1.3500000000000232</v>
       </c>
-      <c r="I72" s="20">
+      <c r="I72" s="18">
         <f t="shared" si="18"/>
         <v>4.4500000000000242</v>
       </c>
@@ -27458,7 +27732,7 @@
         <f t="shared" si="19"/>
         <v>9.9999999999999645E-2</v>
       </c>
-      <c r="K72" s="21">
+      <c r="K72" s="19">
         <f t="shared" si="15"/>
         <v>-3.100000000000001</v>
       </c>
@@ -27483,12 +27757,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="8:16" x14ac:dyDescent="0.3">
+    <row r="73" spans="8:16">
       <c r="H73" s="2">
         <f t="shared" si="14"/>
         <v>1.3500000000000232</v>
       </c>
-      <c r="I73" s="20">
+      <c r="I73" s="18">
         <f t="shared" si="18"/>
         <v>4.3500000000000245</v>
       </c>
@@ -27496,7 +27770,7 @@
         <f t="shared" si="19"/>
         <v>9.9999999999999645E-2</v>
       </c>
-      <c r="K73" s="21">
+      <c r="K73" s="19">
         <f t="shared" si="15"/>
         <v>-3.0000000000000013</v>
       </c>
@@ -27521,12 +27795,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="8:16" x14ac:dyDescent="0.3">
+    <row r="74" spans="8:16">
       <c r="H74" s="2">
         <f t="shared" si="14"/>
         <v>1.3500000000000232</v>
       </c>
-      <c r="I74" s="20">
+      <c r="I74" s="18">
         <f t="shared" si="18"/>
         <v>4.2500000000000249</v>
       </c>
@@ -27534,7 +27808,7 @@
         <f t="shared" si="19"/>
         <v>9.9999999999999645E-2</v>
       </c>
-      <c r="K74" s="21">
+      <c r="K74" s="19">
         <f t="shared" si="15"/>
         <v>-2.9000000000000017</v>
       </c>
@@ -27559,12 +27833,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="8:16" x14ac:dyDescent="0.3">
+    <row r="75" spans="8:16">
       <c r="H75" s="2">
         <f t="shared" si="14"/>
         <v>1.3500000000000232</v>
       </c>
-      <c r="I75" s="20">
+      <c r="I75" s="18">
         <f t="shared" si="18"/>
         <v>4.1500000000000252</v>
       </c>
@@ -27572,7 +27846,7 @@
         <f t="shared" si="19"/>
         <v>9.9999999999999645E-2</v>
       </c>
-      <c r="K75" s="21">
+      <c r="K75" s="19">
         <f t="shared" si="15"/>
         <v>-2.800000000000002</v>
       </c>
@@ -27597,12 +27871,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="8:16" x14ac:dyDescent="0.3">
+    <row r="76" spans="8:16">
       <c r="H76" s="2">
         <f t="shared" si="14"/>
         <v>1.3500000000000232</v>
       </c>
-      <c r="I76" s="20">
+      <c r="I76" s="18">
         <f t="shared" si="18"/>
         <v>4.0500000000000256</v>
       </c>
@@ -27610,7 +27884,7 @@
         <f t="shared" si="19"/>
         <v>9.9999999999999645E-2</v>
       </c>
-      <c r="K76" s="21">
+      <c r="K76" s="19">
         <f t="shared" si="15"/>
         <v>-2.7000000000000024</v>
       </c>
@@ -27635,12 +27909,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="8:16" x14ac:dyDescent="0.3">
+    <row r="77" spans="8:16">
       <c r="H77" s="2">
         <f t="shared" si="14"/>
         <v>1.3500000000000232</v>
       </c>
-      <c r="I77" s="20">
+      <c r="I77" s="18">
         <f t="shared" si="18"/>
         <v>3.9500000000000255</v>
       </c>
@@ -27648,7 +27922,7 @@
         <f t="shared" si="19"/>
         <v>0.10000000000000009</v>
       </c>
-      <c r="K77" s="21">
+      <c r="K77" s="19">
         <f t="shared" si="15"/>
         <v>-2.6000000000000023</v>
       </c>
@@ -27673,12 +27947,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="8:16" x14ac:dyDescent="0.3">
+    <row r="78" spans="8:16">
       <c r="H78" s="2">
         <f t="shared" si="14"/>
         <v>1.3500000000000232</v>
       </c>
-      <c r="I78" s="20">
+      <c r="I78" s="18">
         <f t="shared" si="18"/>
         <v>3.8500000000000254</v>
       </c>
@@ -27686,7 +27960,7 @@
         <f t="shared" si="19"/>
         <v>0.10000000000000009</v>
       </c>
-      <c r="K78" s="21">
+      <c r="K78" s="19">
         <f t="shared" si="15"/>
         <v>-2.5000000000000022</v>
       </c>
@@ -27711,12 +27985,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="8:16" x14ac:dyDescent="0.3">
+    <row r="79" spans="8:16">
       <c r="H79" s="2">
         <f t="shared" si="14"/>
         <v>1.3500000000000232</v>
       </c>
-      <c r="I79" s="20">
+      <c r="I79" s="18">
         <f t="shared" si="18"/>
         <v>3.7500000000000253</v>
       </c>
@@ -27724,7 +27998,7 @@
         <f t="shared" si="19"/>
         <v>0.10000000000000009</v>
       </c>
-      <c r="K79" s="21">
+      <c r="K79" s="19">
         <f t="shared" si="15"/>
         <v>-2.4000000000000021</v>
       </c>
@@ -27749,12 +28023,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="8:16" x14ac:dyDescent="0.3">
+    <row r="80" spans="8:16">
       <c r="H80" s="2">
         <f t="shared" si="14"/>
         <v>1.3500000000000232</v>
       </c>
-      <c r="I80" s="20">
+      <c r="I80" s="18">
         <f t="shared" si="18"/>
         <v>3.6500000000000252</v>
       </c>
@@ -27762,7 +28036,7 @@
         <f t="shared" si="19"/>
         <v>0.10000000000000009</v>
       </c>
-      <c r="K80" s="21">
+      <c r="K80" s="19">
         <f t="shared" si="15"/>
         <v>-2.300000000000002</v>
       </c>
@@ -27787,12 +28061,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="8:16" x14ac:dyDescent="0.3">
+    <row r="81" spans="8:16">
       <c r="H81" s="2">
         <f t="shared" si="14"/>
         <v>1.3500000000000232</v>
       </c>
-      <c r="I81" s="20">
+      <c r="I81" s="18">
         <f t="shared" si="18"/>
         <v>3.5500000000000251</v>
       </c>
@@ -27800,7 +28074,7 @@
         <f t="shared" si="19"/>
         <v>0.10000000000000009</v>
       </c>
-      <c r="K81" s="21">
+      <c r="K81" s="19">
         <f t="shared" si="15"/>
         <v>-2.200000000000002</v>
       </c>
@@ -27825,12 +28099,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="8:16" x14ac:dyDescent="0.3">
+    <row r="82" spans="8:16">
       <c r="H82" s="2">
         <f t="shared" si="14"/>
         <v>1.3500000000000232</v>
       </c>
-      <c r="I82" s="20">
+      <c r="I82" s="18">
         <f t="shared" si="18"/>
         <v>3.450000000000025</v>
       </c>
@@ -27838,7 +28112,7 @@
         <f t="shared" si="19"/>
         <v>0.10000000000000009</v>
       </c>
-      <c r="K82" s="21">
+      <c r="K82" s="19">
         <f t="shared" si="15"/>
         <v>-2.1000000000000019</v>
       </c>
@@ -27863,12 +28137,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="8:16" x14ac:dyDescent="0.3">
+    <row r="83" spans="8:16">
       <c r="H83" s="2">
         <f t="shared" si="14"/>
         <v>1.3500000000000232</v>
       </c>
-      <c r="I83" s="20">
+      <c r="I83" s="18">
         <f t="shared" si="18"/>
         <v>3.350000000000025</v>
       </c>
@@ -27876,7 +28150,7 @@
         <f t="shared" si="19"/>
         <v>0.10000000000000009</v>
       </c>
-      <c r="K83" s="21">
+      <c r="K83" s="19">
         <f t="shared" si="15"/>
         <v>-2.0000000000000018</v>
       </c>
@@ -27901,12 +28175,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="8:16" x14ac:dyDescent="0.3">
+    <row r="84" spans="8:16">
       <c r="H84" s="2">
         <f t="shared" si="14"/>
         <v>1.3500000000000232</v>
       </c>
-      <c r="I84" s="20">
+      <c r="I84" s="18">
         <f t="shared" si="18"/>
         <v>3.2500000000000249</v>
       </c>
@@ -27914,7 +28188,7 @@
         <f t="shared" si="19"/>
         <v>0.10000000000000009</v>
       </c>
-      <c r="K84" s="21">
+      <c r="K84" s="19">
         <f t="shared" si="15"/>
         <v>-1.9000000000000017</v>
       </c>
@@ -27939,12 +28213,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="8:16" x14ac:dyDescent="0.3">
+    <row r="85" spans="8:16">
       <c r="H85" s="2">
         <f t="shared" si="14"/>
         <v>1.3500000000000232</v>
       </c>
-      <c r="I85" s="20">
+      <c r="I85" s="18">
         <f t="shared" si="18"/>
         <v>3.1500000000000248</v>
       </c>
@@ -27952,7 +28226,7 @@
         <f t="shared" si="19"/>
         <v>0.10000000000000009</v>
       </c>
-      <c r="K85" s="21">
+      <c r="K85" s="19">
         <f t="shared" si="15"/>
         <v>-1.8000000000000016</v>
       </c>
@@ -27977,12 +28251,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="8:16" x14ac:dyDescent="0.3">
+    <row r="86" spans="8:16">
       <c r="H86" s="2">
         <f t="shared" si="14"/>
         <v>1.3500000000000232</v>
       </c>
-      <c r="I86" s="20">
+      <c r="I86" s="18">
         <f t="shared" si="18"/>
         <v>3.0500000000000247</v>
       </c>
@@ -27990,7 +28264,7 @@
         <f t="shared" si="19"/>
         <v>0.10000000000000009</v>
       </c>
-      <c r="K86" s="21">
+      <c r="K86" s="19">
         <f t="shared" si="15"/>
         <v>-1.7000000000000015</v>
       </c>
@@ -28015,12 +28289,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="8:16" x14ac:dyDescent="0.3">
+    <row r="87" spans="8:16">
       <c r="H87" s="2">
         <f t="shared" si="14"/>
         <v>1.3500000000000232</v>
       </c>
-      <c r="I87" s="20">
+      <c r="I87" s="18">
         <f t="shared" si="18"/>
         <v>2.9500000000000246</v>
       </c>
@@ -28028,7 +28302,7 @@
         <f t="shared" si="19"/>
         <v>0.10000000000000009</v>
       </c>
-      <c r="K87" s="21">
+      <c r="K87" s="19">
         <f t="shared" si="15"/>
         <v>-1.6000000000000014</v>
       </c>
@@ -28053,12 +28327,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="8:16" x14ac:dyDescent="0.3">
+    <row r="88" spans="8:16">
       <c r="H88" s="2">
         <f t="shared" si="14"/>
         <v>1.3500000000000232</v>
       </c>
-      <c r="I88" s="20">
+      <c r="I88" s="18">
         <f t="shared" si="18"/>
         <v>2.8500000000000245</v>
       </c>
@@ -28066,7 +28340,7 @@
         <f t="shared" si="19"/>
         <v>0.10000000000000009</v>
       </c>
-      <c r="K88" s="21">
+      <c r="K88" s="19">
         <f t="shared" si="15"/>
         <v>-1.5000000000000013</v>
       </c>
@@ -28091,12 +28365,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="8:16" x14ac:dyDescent="0.3">
+    <row r="89" spans="8:16">
       <c r="H89" s="2">
         <f t="shared" si="14"/>
         <v>1.3500000000000232</v>
       </c>
-      <c r="I89" s="20">
+      <c r="I89" s="18">
         <f t="shared" si="18"/>
         <v>2.7500000000000244</v>
       </c>
@@ -28104,7 +28378,7 @@
         <f t="shared" si="19"/>
         <v>0.10000000000000009</v>
       </c>
-      <c r="K89" s="21">
+      <c r="K89" s="19">
         <f t="shared" si="15"/>
         <v>-1.4000000000000012</v>
       </c>
@@ -28129,12 +28403,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="8:16" x14ac:dyDescent="0.3">
+    <row r="90" spans="8:16">
       <c r="H90" s="2">
         <f t="shared" si="14"/>
         <v>1.3500000000000232</v>
       </c>
-      <c r="I90" s="20">
+      <c r="I90" s="18">
         <f t="shared" si="18"/>
         <v>2.6500000000000243</v>
       </c>
@@ -28142,7 +28416,7 @@
         <f t="shared" si="19"/>
         <v>0.10000000000000009</v>
       </c>
-      <c r="K90" s="21">
+      <c r="K90" s="19">
         <f t="shared" si="15"/>
         <v>-1.3000000000000012</v>
       </c>
@@ -28167,12 +28441,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="8:16" x14ac:dyDescent="0.3">
+    <row r="91" spans="8:16">
       <c r="H91" s="2">
         <f t="shared" si="14"/>
         <v>1.3500000000000232</v>
       </c>
-      <c r="I91" s="20">
+      <c r="I91" s="18">
         <f t="shared" si="18"/>
         <v>2.5500000000000242</v>
       </c>
@@ -28180,7 +28454,7 @@
         <f t="shared" si="19"/>
         <v>0.10000000000000009</v>
       </c>
-      <c r="K91" s="21">
+      <c r="K91" s="19">
         <f t="shared" si="15"/>
         <v>-1.2000000000000011</v>
       </c>
@@ -28205,12 +28479,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="8:16" x14ac:dyDescent="0.3">
+    <row r="92" spans="8:16">
       <c r="H92" s="2">
         <f t="shared" si="14"/>
         <v>1.3500000000000232</v>
       </c>
-      <c r="I92" s="20">
+      <c r="I92" s="18">
         <f t="shared" si="18"/>
         <v>2.4500000000000242</v>
       </c>
@@ -28218,7 +28492,7 @@
         <f t="shared" si="19"/>
         <v>0.10000000000000009</v>
       </c>
-      <c r="K92" s="21">
+      <c r="K92" s="19">
         <f t="shared" si="15"/>
         <v>-1.100000000000001</v>
       </c>
@@ -28243,12 +28517,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="8:16" x14ac:dyDescent="0.3">
+    <row r="93" spans="8:16">
       <c r="H93" s="2">
         <f t="shared" si="14"/>
         <v>1.3500000000000232</v>
       </c>
-      <c r="I93" s="20">
+      <c r="I93" s="18">
         <f t="shared" si="18"/>
         <v>2.3500000000000241</v>
       </c>
@@ -28256,7 +28530,7 @@
         <f t="shared" si="19"/>
         <v>0.10000000000000009</v>
       </c>
-      <c r="K93" s="21">
+      <c r="K93" s="19">
         <f t="shared" si="15"/>
         <v>-1.0000000000000009</v>
       </c>
@@ -28281,12 +28555,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="8:16" x14ac:dyDescent="0.3">
+    <row r="94" spans="8:16">
       <c r="H94" s="2">
         <f t="shared" si="14"/>
         <v>1.3500000000000232</v>
       </c>
-      <c r="I94" s="20">
+      <c r="I94" s="18">
         <f t="shared" si="18"/>
         <v>2.250000000000024</v>
       </c>
@@ -28294,7 +28568,7 @@
         <f t="shared" si="19"/>
         <v>0.10000000000000009</v>
       </c>
-      <c r="K94" s="21">
+      <c r="K94" s="19">
         <f t="shared" si="15"/>
         <v>-0.9000000000000008</v>
       </c>
@@ -28319,12 +28593,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="8:16" x14ac:dyDescent="0.3">
+    <row r="95" spans="8:16">
       <c r="H95" s="2">
         <f t="shared" si="14"/>
         <v>1.3500000000000232</v>
       </c>
-      <c r="I95" s="20">
+      <c r="I95" s="18">
         <f t="shared" si="18"/>
         <v>2.1500000000000239</v>
       </c>
@@ -28332,7 +28606,7 @@
         <f t="shared" si="19"/>
         <v>0.10000000000000009</v>
       </c>
-      <c r="K95" s="21">
+      <c r="K95" s="19">
         <f t="shared" si="15"/>
         <v>-0.80000000000000071</v>
       </c>
@@ -28357,12 +28631,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="8:16" x14ac:dyDescent="0.3">
+    <row r="96" spans="8:16">
       <c r="H96" s="2">
         <f t="shared" si="14"/>
         <v>1.3500000000000232</v>
       </c>
-      <c r="I96" s="20">
+      <c r="I96" s="18">
         <f t="shared" si="18"/>
         <v>2.0500000000000238</v>
       </c>
@@ -28370,7 +28644,7 @@
         <f t="shared" si="19"/>
         <v>0.10000000000000009</v>
       </c>
-      <c r="K96" s="21">
+      <c r="K96" s="19">
         <f t="shared" si="15"/>
         <v>-0.70000000000000062</v>
       </c>
@@ -28395,12 +28669,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="8:17" x14ac:dyDescent="0.3">
+    <row r="97" spans="8:17">
       <c r="H97" s="2">
         <f t="shared" si="14"/>
         <v>1.3500000000000232</v>
       </c>
-      <c r="I97" s="20">
+      <c r="I97" s="18">
         <f t="shared" si="18"/>
         <v>1.9500000000000237</v>
       </c>
@@ -28408,7 +28682,7 @@
         <f t="shared" si="19"/>
         <v>0.10000000000000009</v>
       </c>
-      <c r="K97" s="21">
+      <c r="K97" s="19">
         <f t="shared" si="15"/>
         <v>-0.60000000000000053</v>
       </c>
@@ -28433,12 +28707,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="8:17" x14ac:dyDescent="0.3">
+    <row r="98" spans="8:17">
       <c r="H98" s="2">
         <f t="shared" si="14"/>
         <v>1.3500000000000232</v>
       </c>
-      <c r="I98" s="20">
+      <c r="I98" s="18">
         <f t="shared" si="18"/>
         <v>1.8500000000000236</v>
       </c>
@@ -28446,7 +28720,7 @@
         <f t="shared" si="19"/>
         <v>0.10000000000000009</v>
       </c>
-      <c r="K98" s="21">
+      <c r="K98" s="19">
         <f t="shared" si="15"/>
         <v>-0.50000000000000044</v>
       </c>
@@ -28471,12 +28745,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="8:17" x14ac:dyDescent="0.3">
+    <row r="99" spans="8:17">
       <c r="H99" s="2">
         <f t="shared" si="14"/>
         <v>1.3500000000000232</v>
       </c>
-      <c r="I99" s="20">
+      <c r="I99" s="18">
         <f t="shared" si="18"/>
         <v>1.7500000000000235</v>
       </c>
@@ -28484,7 +28758,7 @@
         <f t="shared" si="19"/>
         <v>0.10000000000000009</v>
       </c>
-      <c r="K99" s="21">
+      <c r="K99" s="19">
         <f t="shared" si="15"/>
         <v>-0.40000000000000036</v>
       </c>
@@ -28509,12 +28783,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="8:17" x14ac:dyDescent="0.3">
+    <row r="100" spans="8:17">
       <c r="H100" s="2">
         <f t="shared" ref="H100:H116" si="24">$E$8</f>
         <v>1.3500000000000232</v>
       </c>
-      <c r="I100" s="20">
+      <c r="I100" s="18">
         <f t="shared" si="18"/>
         <v>1.6500000000000234</v>
       </c>
@@ -28522,7 +28796,7 @@
         <f t="shared" si="19"/>
         <v>0.10000000000000009</v>
       </c>
-      <c r="K100" s="21">
+      <c r="K100" s="19">
         <f t="shared" si="15"/>
         <v>-0.30000000000000027</v>
       </c>
@@ -28547,12 +28821,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="101" spans="8:17" x14ac:dyDescent="0.3">
+    <row r="101" spans="8:17">
       <c r="H101" s="2">
         <f t="shared" si="24"/>
         <v>1.3500000000000232</v>
       </c>
-      <c r="I101" s="20">
+      <c r="I101" s="18">
         <f t="shared" si="18"/>
         <v>1.5500000000000234</v>
       </c>
@@ -28560,7 +28834,7 @@
         <f t="shared" si="19"/>
         <v>0.10000000000000009</v>
       </c>
-      <c r="K101" s="21">
+      <c r="K101" s="19">
         <f t="shared" si="15"/>
         <v>-0.20000000000000018</v>
       </c>
@@ -28585,12 +28859,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="102" spans="8:17" x14ac:dyDescent="0.3">
+    <row r="102" spans="8:17">
       <c r="H102" s="2">
         <f t="shared" si="24"/>
         <v>1.3500000000000232</v>
       </c>
-      <c r="I102" s="20">
+      <c r="I102" s="18">
         <f t="shared" si="18"/>
         <v>1.4500000000000233</v>
       </c>
@@ -28598,7 +28872,7 @@
         <f t="shared" si="19"/>
         <v>0.10000000000000009</v>
       </c>
-      <c r="K102" s="21">
+      <c r="K102" s="19">
         <f t="shared" si="15"/>
         <v>-0.10000000000000009</v>
       </c>
@@ -28623,12 +28897,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="103" spans="8:17" x14ac:dyDescent="0.3">
+    <row r="103" spans="8:17">
       <c r="H103" s="2">
         <f t="shared" si="24"/>
         <v>1.3500000000000232</v>
       </c>
-      <c r="I103" s="20">
+      <c r="I103" s="18">
         <f t="shared" si="18"/>
         <v>1.3500000000000232</v>
       </c>
@@ -28636,7 +28910,7 @@
         <f t="shared" si="19"/>
         <v>0.10000000000000009</v>
       </c>
-      <c r="K103" s="21">
+      <c r="K103" s="19">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
@@ -28661,12 +28935,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="104" spans="8:17" x14ac:dyDescent="0.3">
+    <row r="104" spans="8:17">
       <c r="H104" s="2">
         <f t="shared" si="24"/>
         <v>1.3500000000000232</v>
       </c>
-      <c r="I104" s="20">
+      <c r="I104" s="18">
         <f t="shared" si="18"/>
         <v>1.2500000000000231</v>
       </c>
@@ -28674,7 +28948,7 @@
         <f t="shared" si="19"/>
         <v>0.10000000000000009</v>
       </c>
-      <c r="K104" s="21">
+      <c r="K104" s="19">
         <f t="shared" si="15"/>
         <v>0.10000000000000009</v>
       </c>
@@ -28688,27 +28962,27 @@
       </c>
       <c r="N104" s="2">
         <f t="shared" si="23"/>
-        <v>0.82801647933021072</v>
+        <v>0.50425828765949265</v>
       </c>
       <c r="O104" s="2">
         <f>N104*$E$4</f>
-        <v>81.973631453690857</v>
+        <v>49.921570478289773</v>
       </c>
       <c r="P104" s="2">
         <f>(O103-O104)/J104*M104</f>
-        <v>170.26368546309129</v>
+        <v>490.78429521710183</v>
       </c>
       <c r="Q104" s="4">
         <f>P104/$E$11</f>
-        <v>19.397128723644311</v>
-      </c>
-    </row>
-    <row r="105" spans="8:17" x14ac:dyDescent="0.3">
+        <v>55.912134898153724</v>
+      </c>
+    </row>
+    <row r="105" spans="8:17">
       <c r="H105" s="2">
         <f t="shared" si="24"/>
         <v>1.3500000000000232</v>
       </c>
-      <c r="I105" s="20">
+      <c r="I105" s="18">
         <f t="shared" si="18"/>
         <v>1.150000000000023</v>
       </c>
@@ -28716,7 +28990,7 @@
         <f t="shared" si="19"/>
         <v>0.10000000000000009</v>
       </c>
-      <c r="K105" s="21">
+      <c r="K105" s="19">
         <f t="shared" si="15"/>
         <v>0.20000000000000018</v>
       </c>
@@ -28730,27 +29004,27 @@
       </c>
       <c r="N105" s="2">
         <f t="shared" si="23"/>
-        <v>0.68561129004239729</v>
+        <v>0.2542764206732836</v>
       </c>
       <c r="O105" s="2">
         <f t="shared" ref="O105:O113" si="25">N105*$E$4</f>
-        <v>67.875517714197329</v>
+        <v>25.173365646655075</v>
       </c>
       <c r="P105" s="2">
         <f t="shared" si="20"/>
-        <v>140.98113739493516</v>
+        <v>247.48204831634678</v>
       </c>
       <c r="Q105" s="4">
         <f t="shared" ref="Q105:Q107" si="26">P105/$E$11</f>
-        <v>16.061142234866857</v>
-      </c>
-    </row>
-    <row r="106" spans="8:17" x14ac:dyDescent="0.3">
+        <v>28.194157403129566</v>
+      </c>
+    </row>
+    <row r="106" spans="8:17">
       <c r="H106" s="2">
         <f t="shared" si="24"/>
         <v>1.3500000000000232</v>
       </c>
-      <c r="I106" s="20">
+      <c r="I106" s="18">
         <f t="shared" si="18"/>
         <v>1.0500000000000229</v>
       </c>
@@ -28758,7 +29032,7 @@
         <f t="shared" si="19"/>
         <v>0.10000000000000009</v>
       </c>
-      <c r="K106" s="21">
+      <c r="K106" s="19">
         <f t="shared" si="15"/>
         <v>0.30000000000000027</v>
       </c>
@@ -28772,27 +29046,27 @@
       </c>
       <c r="N106" s="2">
         <f t="shared" si="23"/>
-        <v>0.5676974465699498</v>
+        <v>0.12822099248089483</v>
       </c>
       <c r="O106" s="2">
         <f t="shared" si="25"/>
-        <v>56.202047210425029</v>
+        <v>12.693878255608588</v>
       </c>
       <c r="P106" s="2">
         <f t="shared" si="20"/>
-        <v>116.7347050377229</v>
+        <v>124.79487391046476</v>
       </c>
       <c r="Q106" s="4">
         <f t="shared" si="26"/>
-        <v>13.298890447336206</v>
-      </c>
-    </row>
-    <row r="107" spans="8:17" x14ac:dyDescent="0.3">
+        <v>14.217137534104312</v>
+      </c>
+    </row>
+    <row r="107" spans="8:17">
       <c r="H107" s="2">
         <f t="shared" si="24"/>
         <v>1.3500000000000232</v>
       </c>
-      <c r="I107" s="20">
+      <c r="I107" s="18">
         <f t="shared" si="18"/>
         <v>0.95000000000002294</v>
       </c>
@@ -28800,7 +29074,7 @@
         <f t="shared" si="19"/>
         <v>9.9999999999999978E-2</v>
       </c>
-      <c r="K107" s="21">
+      <c r="K107" s="19">
         <f t="shared" si="15"/>
         <v>0.40000000000000024</v>
       </c>
@@ -28814,27 +29088,27 @@
       </c>
       <c r="N107" s="2">
         <f t="shared" si="23"/>
-        <v>0.47006284103360035</v>
+        <v>6.4656498110416752E-2</v>
       </c>
       <c r="O107" s="2">
         <f>N107*$E$4</f>
-        <v>46.536221262326436</v>
+        <v>6.4009933129312584</v>
       </c>
       <c r="P107" s="2">
         <f t="shared" si="20"/>
-        <v>96.658259480985961</v>
+        <v>62.928849426773311</v>
       </c>
       <c r="Q107" s="4">
         <f t="shared" si="26"/>
-        <v>11.0117004472015</v>
-      </c>
-    </row>
-    <row r="108" spans="8:17" x14ac:dyDescent="0.3">
+        <v>7.1691094283669488</v>
+      </c>
+    </row>
+    <row r="108" spans="8:17">
       <c r="H108" s="2">
         <f t="shared" si="24"/>
         <v>1.3500000000000232</v>
       </c>
-      <c r="I108" s="20">
+      <c r="I108" s="18">
         <f t="shared" si="18"/>
         <v>0.85000000000002296</v>
       </c>
@@ -28842,7 +29116,7 @@
         <f t="shared" si="19"/>
         <v>9.9999999999999978E-2</v>
       </c>
-      <c r="K108" s="21">
+      <c r="K108" s="19">
         <f t="shared" si="15"/>
         <v>0.50000000000000022</v>
       </c>
@@ -28867,12 +29141,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="109" spans="8:17" x14ac:dyDescent="0.3">
+    <row r="109" spans="8:17">
       <c r="H109" s="2">
         <f t="shared" si="24"/>
         <v>1.3500000000000232</v>
       </c>
-      <c r="I109" s="20">
+      <c r="I109" s="18">
         <f t="shared" si="18"/>
         <v>0.75000000000002298</v>
       </c>
@@ -28880,7 +29154,7 @@
         <f t="shared" si="19"/>
         <v>9.9999999999999978E-2</v>
       </c>
-      <c r="K109" s="21">
+      <c r="K109" s="19">
         <f t="shared" si="15"/>
         <v>0.6000000000000002</v>
       </c>
@@ -28905,12 +29179,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="110" spans="8:17" x14ac:dyDescent="0.3">
+    <row r="110" spans="8:17">
       <c r="H110" s="2">
         <f t="shared" si="24"/>
         <v>1.3500000000000232</v>
       </c>
-      <c r="I110" s="20">
+      <c r="I110" s="18">
         <f t="shared" si="18"/>
         <v>0.650000000000023</v>
       </c>
@@ -28918,7 +29192,7 @@
         <f t="shared" si="19"/>
         <v>9.9999999999999978E-2</v>
       </c>
-      <c r="K110" s="21">
+      <c r="K110" s="19">
         <f t="shared" si="15"/>
         <v>0.70000000000000018</v>
       </c>
@@ -28943,12 +29217,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="111" spans="8:17" x14ac:dyDescent="0.3">
+    <row r="111" spans="8:17">
       <c r="H111" s="2">
         <f t="shared" si="24"/>
         <v>1.3500000000000232</v>
       </c>
-      <c r="I111" s="20">
+      <c r="I111" s="18">
         <f t="shared" si="18"/>
         <v>0.55000000000002303</v>
       </c>
@@ -28956,7 +29230,7 @@
         <f t="shared" si="19"/>
         <v>9.9999999999999978E-2</v>
       </c>
-      <c r="K111" s="21">
+      <c r="K111" s="19">
         <f t="shared" si="15"/>
         <v>0.80000000000000016</v>
       </c>
@@ -28981,12 +29255,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="112" spans="8:17" x14ac:dyDescent="0.3">
+    <row r="112" spans="8:17">
       <c r="H112" s="2">
         <f t="shared" si="24"/>
         <v>1.3500000000000232</v>
       </c>
-      <c r="I112" s="20">
+      <c r="I112" s="18">
         <f t="shared" si="18"/>
         <v>0.45000000000002305</v>
       </c>
@@ -28994,7 +29268,7 @@
         <f t="shared" si="19"/>
         <v>9.9999999999999978E-2</v>
       </c>
-      <c r="K112" s="21">
+      <c r="K112" s="19">
         <f t="shared" si="15"/>
         <v>0.90000000000000013</v>
       </c>
@@ -29019,12 +29293,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="113" spans="8:16" x14ac:dyDescent="0.3">
+    <row r="113" spans="8:16">
       <c r="H113" s="2">
         <f t="shared" si="24"/>
         <v>1.3500000000000232</v>
       </c>
-      <c r="I113" s="20">
+      <c r="I113" s="18">
         <f t="shared" si="18"/>
         <v>0.35000000000002307</v>
       </c>
@@ -29032,7 +29306,7 @@
         <f t="shared" si="19"/>
         <v>9.9999999999999978E-2</v>
       </c>
-      <c r="K113" s="21">
+      <c r="K113" s="19">
         <f t="shared" si="15"/>
         <v>1</v>
       </c>
@@ -29057,12 +29331,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="114" spans="8:16" x14ac:dyDescent="0.3">
+    <row r="114" spans="8:16">
       <c r="H114" s="2">
         <f t="shared" si="24"/>
         <v>1.3500000000000232</v>
       </c>
-      <c r="I114" s="20">
+      <c r="I114" s="18">
         <f t="shared" si="18"/>
         <v>0.25000000000002309</v>
       </c>
@@ -29070,7 +29344,7 @@
         <f t="shared" si="19"/>
         <v>9.9999999999999978E-2</v>
       </c>
-      <c r="K114" s="21">
+      <c r="K114" s="19">
         <f t="shared" si="15"/>
         <v>1.1000000000000001</v>
       </c>
@@ -29095,12 +29369,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="115" spans="8:16" x14ac:dyDescent="0.3">
+    <row r="115" spans="8:16">
       <c r="H115" s="2">
         <f t="shared" si="24"/>
         <v>1.3500000000000232</v>
       </c>
-      <c r="I115" s="20">
+      <c r="I115" s="18">
         <f t="shared" si="18"/>
         <v>0.15000000000002309</v>
       </c>
@@ -29108,7 +29382,7 @@
         <f t="shared" si="19"/>
         <v>0.1</v>
       </c>
-      <c r="K115" s="21">
+      <c r="K115" s="19">
         <f t="shared" si="15"/>
         <v>1.2000000000000002</v>
       </c>
@@ -29133,12 +29407,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="116" spans="8:16" x14ac:dyDescent="0.3">
+    <row r="116" spans="8:16">
       <c r="H116" s="2">
         <f t="shared" si="24"/>
         <v>1.3500000000000232</v>
       </c>
-      <c r="I116" s="20">
+      <c r="I116" s="18">
         <f t="shared" si="18"/>
         <v>5.0000000000023082E-2</v>
       </c>
@@ -29146,7 +29420,7 @@
         <f t="shared" si="19"/>
         <v>0.1</v>
       </c>
-      <c r="K116" s="21">
+      <c r="K116" s="19">
         <f t="shared" si="15"/>
         <v>1.3</v>
       </c>
@@ -29191,7 +29465,7 @@
       <selection pane="bottomLeft" activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="11.5546875" style="4"/>
     <col min="2" max="2" width="14.33203125" style="4" bestFit="1" customWidth="1"/>
@@ -29200,7 +29474,7 @@
     <col min="6" max="16384" width="11.5546875" style="4"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:12" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:12" ht="15.6">
       <c r="I2" s="1" t="s">
         <v>73</v>
       </c>
@@ -29214,7 +29488,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="3" spans="2:12" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:12" ht="15.6">
       <c r="B3" s="2"/>
       <c r="C3" s="2" t="s">
         <v>40</v>
@@ -29241,7 +29515,7 @@
         <v>1437.7038555834747</v>
       </c>
     </row>
-    <row r="4" spans="2:12" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:12" ht="16.2">
       <c r="B4" s="2"/>
       <c r="C4" s="2" t="s">
         <v>41</v>
@@ -29268,7 +29542,7 @@
         <v>1370.0946116740679</v>
       </c>
     </row>
-    <row r="5" spans="2:12" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:12" ht="16.2">
       <c r="B5" s="2"/>
       <c r="C5" s="2" t="s">
         <v>42</v>
@@ -29295,7 +29569,7 @@
         <v>1309.2462921556021</v>
       </c>
     </row>
-    <row r="6" spans="2:12" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:12" ht="15.6">
       <c r="B6" s="2"/>
       <c r="C6" s="2" t="s">
         <v>44</v>
@@ -29320,7 +29594,7 @@
         <v>1254.1930506865135</v>
       </c>
     </row>
-    <row r="7" spans="2:12" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:12" ht="16.2">
       <c r="B7" s="2"/>
       <c r="C7" s="2" t="s">
         <v>43</v>
@@ -29331,23 +29605,23 @@
       <c r="E7" s="2">
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="I7" s="15">
+      <c r="I7" s="13">
         <v>4</v>
       </c>
-      <c r="J7" s="15">
+      <c r="J7" s="13">
         <f>($E$4+I7)/($E$5+I7)</f>
         <v>7.8636363636363633</v>
       </c>
-      <c r="K7" s="15">
+      <c r="K7" s="13">
         <f t="shared" si="1"/>
         <v>1.0208548086983251</v>
       </c>
-      <c r="L7" s="15">
+      <c r="L7" s="13">
         <f t="shared" si="2"/>
         <v>1204.1446493509789</v>
       </c>
     </row>
-    <row r="8" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:12">
       <c r="B8" s="2"/>
       <c r="C8" s="2" t="s">
         <v>36</v>
@@ -29372,7 +29646,7 @@
         <v>1158.4482829141864</v>
       </c>
     </row>
-    <row r="9" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:12">
       <c r="B9" s="2"/>
       <c r="C9" s="2" t="s">
         <v>37</v>
@@ -29398,7 +29672,7 @@
         <v>1116.5599470137931</v>
       </c>
     </row>
-    <row r="10" spans="2:12" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:12" ht="15.6">
       <c r="B10" s="2" t="s">
         <v>21</v>
       </c>
@@ -29427,7 +29701,7 @@
         <v>1078.0226779854313</v>
       </c>
     </row>
-    <row r="11" spans="2:12" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:12" ht="15.6">
       <c r="B11" s="2" t="s">
         <v>21</v>
       </c>
@@ -29457,7 +29731,7 @@
         <v>1042.4498142669433</v>
       </c>
     </row>
-    <row r="12" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:12">
       <c r="B12" s="2"/>
       <c r="C12" s="2" t="s">
         <v>46</v>
@@ -29482,7 +29756,7 @@
         <v>1009.511977490566</v>
       </c>
     </row>
-    <row r="13" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:12">
       <c r="B13" s="2"/>
       <c r="C13" s="2" t="s">
         <v>47</v>
@@ -29507,7 +29781,7 @@
         <v>978.92684334107253</v>
       </c>
     </row>
-    <row r="14" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:12">
       <c r="B14" s="2"/>
       <c r="C14" s="2" t="s">
         <v>45</v>
@@ -29532,7 +29806,7 @@
         <v>950.45102878809575</v>
       </c>
     </row>
-    <row r="15" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:12">
       <c r="B15" s="2"/>
       <c r="C15" s="2" t="s">
         <v>48</v>
@@ -29557,7 +29831,7 @@
         <v>923.87360187198419</v>
       </c>
     </row>
-    <row r="16" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:12">
       <c r="B16" s="2"/>
       <c r="C16" s="2" t="s">
         <v>38</v>
@@ -29583,7 +29857,7 @@
         <v>899.01084766013787</v>
       </c>
     </row>
-    <row r="17" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:12">
       <c r="B17" s="2"/>
       <c r="C17" s="2" t="s">
         <v>49</v>
@@ -29609,7 +29883,7 @@
         <v>875.70201558653207</v>
       </c>
     </row>
-    <row r="18" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:12">
       <c r="B18" s="2"/>
       <c r="C18" s="2" t="s">
         <v>50</v>
@@ -29635,9 +29909,9 @@
         <v>853.80584000223553</v>
       </c>
     </row>
-    <row r="19" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:12">
       <c r="C19" s="4" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="E19" s="4">
         <v>130</v>
@@ -29658,9 +29932,9 @@
         <v>833.1976747464272</v>
       </c>
     </row>
-    <row r="20" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:12">
       <c r="C20" s="4" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="E20" s="4">
         <v>0.1</v>
@@ -29681,9 +29955,9 @@
         <v>813.76711893380775</v>
       </c>
     </row>
-    <row r="21" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:12">
       <c r="C21" s="4" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="E21" s="4">
         <v>0.12</v>
@@ -29704,9 +29978,9 @@
         <v>795.41603844411179</v>
       </c>
     </row>
-    <row r="22" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:12">
       <c r="C22" s="4" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="E22" s="4">
         <f>E19*(E20/E21)^0.5</f>
@@ -29728,7 +30002,7 @@
         <v>778.05690825115585</v>
       </c>
     </row>
-    <row r="23" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:12">
       <c r="I23" s="2">
         <v>20</v>
       </c>
@@ -29745,7 +30019,7 @@
         <v>761.61141648940838</v>
       </c>
     </row>
-    <row r="24" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:12">
       <c r="I24" s="2">
         <v>21</v>
       </c>
@@ -29762,7 +30036,7 @@
         <v>746.00928327954523</v>
       </c>
     </row>
-    <row r="25" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:12">
       <c r="I25" s="2">
         <v>22</v>
       </c>
@@ -29779,7 +30053,7 @@
         <v>731.18725673017536</v>
       </c>
     </row>
-    <row r="26" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:12">
       <c r="I26" s="2">
         <v>23</v>
       </c>
@@ -29796,7 +30070,7 @@
         <v>717.08825586614057</v>
       </c>
     </row>
-    <row r="27" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:12">
       <c r="I27" s="2">
         <v>24</v>
       </c>
@@ -29813,7 +30087,7 @@
         <v>703.6606359956312</v>
       </c>
     </row>
-    <row r="28" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:12">
       <c r="I28" s="2">
         <v>25</v>
       </c>
@@ -29830,7 +30104,7 @@
         <v>690.85755658421544</v>
       </c>
     </row>
-    <row r="29" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:12">
       <c r="I29" s="2">
         <v>26</v>
       </c>
@@ -29847,7 +30121,7 @@
         <v>678.63643532786386</v>
       </c>
     </row>
-    <row r="30" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:12">
       <c r="I30" s="2">
         <v>27</v>
       </c>
@@ -29864,7 +30138,7 @@
         <v>666.95847501623905</v>
       </c>
     </row>
-    <row r="31" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:12">
       <c r="I31" s="2">
         <v>28</v>
       </c>
@@ -29881,7 +30155,7 @@
         <v>655.78825210946763</v>
       </c>
     </row>
-    <row r="32" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:12">
       <c r="I32" s="2">
         <v>29</v>
       </c>
@@ -29898,7 +30172,7 @@
         <v>645.0933578370267</v>
       </c>
     </row>
-    <row r="33" spans="9:12" x14ac:dyDescent="0.3">
+    <row r="33" spans="9:12">
       <c r="I33" s="2">
         <v>30</v>
       </c>
@@ -29915,7 +30189,7 @@
         <v>634.84408415927089</v>
       </c>
     </row>
-    <row r="34" spans="9:12" x14ac:dyDescent="0.3">
+    <row r="34" spans="9:12">
       <c r="I34" s="2">
         <v>31</v>
       </c>
@@ -29932,7 +30206,7 @@
         <v>625.01314818264814</v>
       </c>
     </row>
-    <row r="35" spans="9:12" x14ac:dyDescent="0.3">
+    <row r="35" spans="9:12">
       <c r="I35" s="2">
         <v>32</v>
       </c>
@@ -29949,7 +30223,7 @@
         <v>615.57544964508998</v>
       </c>
     </row>
-    <row r="36" spans="9:12" x14ac:dyDescent="0.3">
+    <row r="36" spans="9:12">
       <c r="I36" s="2">
         <v>33</v>
       </c>
@@ -29966,7 +30240,7 @@
         <v>606.50785693253431</v>
       </c>
     </row>
-    <row r="37" spans="9:12" x14ac:dyDescent="0.3">
+    <row r="37" spans="9:12">
       <c r="I37" s="2">
         <v>34</v>
       </c>
@@ -29983,7 +30257,7 @@
         <v>597.78901778584623</v>
       </c>
     </row>
-    <row r="38" spans="9:12" x14ac:dyDescent="0.3">
+    <row r="38" spans="9:12">
       <c r="I38" s="2">
         <v>35</v>
       </c>
@@ -30000,7 +30274,7 @@
         <v>589.39919143714621</v>
       </c>
     </row>
-    <row r="39" spans="9:12" x14ac:dyDescent="0.3">
+    <row r="39" spans="9:12">
       <c r="I39" s="2">
         <v>36</v>
       </c>
@@ -30017,7 +30291,7 @@
         <v>581.32009939765737</v>
       </c>
     </row>
-    <row r="40" spans="9:12" x14ac:dyDescent="0.3">
+    <row r="40" spans="9:12">
       <c r="I40" s="2">
         <v>37</v>
       </c>
@@ -30034,7 +30308,7 @@
         <v>573.53479252324087</v>
       </c>
     </row>
-    <row r="41" spans="9:12" x14ac:dyDescent="0.3">
+    <row r="41" spans="9:12">
       <c r="I41" s="2">
         <v>38</v>
       </c>
@@ -30051,7 +30325,7 @@
         <v>566.0275323229107</v>
       </c>
     </row>
-    <row r="42" spans="9:12" x14ac:dyDescent="0.3">
+    <row r="42" spans="9:12">
       <c r="I42" s="6">
         <v>39</v>
       </c>
@@ -30068,7 +30342,7 @@
         <v>558.78368476118851</v>
       </c>
     </row>
-    <row r="43" spans="9:12" x14ac:dyDescent="0.3">
+    <row r="43" spans="9:12">
       <c r="I43" s="2">
         <v>40</v>
       </c>
@@ -30085,7 +30359,7 @@
         <v>551.78962504642232</v>
       </c>
     </row>
-    <row r="44" spans="9:12" x14ac:dyDescent="0.3">
+    <row r="44" spans="9:12">
       <c r="I44" s="2">
         <v>41</v>
       </c>
@@ -30102,7 +30376,7 @@
         <v>545.03265210164818</v>
       </c>
     </row>
-    <row r="45" spans="9:12" x14ac:dyDescent="0.3">
+    <row r="45" spans="9:12">
       <c r="I45" s="2">
         <v>42</v>
       </c>
@@ -30119,7 +30393,7 @@
         <v>538.50091158836653</v>
       </c>
     </row>
-    <row r="46" spans="9:12" x14ac:dyDescent="0.3">
+    <row r="46" spans="9:12">
       <c r="I46" s="2">
         <v>43</v>
       </c>
@@ -30136,7 +30410,7 @@
         <v>532.18332650174978</v>
       </c>
     </row>
-    <row r="47" spans="9:12" x14ac:dyDescent="0.3">
+    <row r="47" spans="9:12">
       <c r="I47" s="2">
         <v>44</v>
       </c>
@@ -30153,7 +30427,7 @@
         <v>526.06953448244337</v>
       </c>
     </row>
-    <row r="48" spans="9:12" x14ac:dyDescent="0.3">
+    <row r="48" spans="9:12">
       <c r="I48" s="2">
         <v>45</v>
       </c>
@@ -30170,7 +30444,7 @@
         <v>520.14983109867046</v>
       </c>
     </row>
-    <row r="49" spans="9:12" x14ac:dyDescent="0.3">
+    <row r="49" spans="9:12">
       <c r="I49" s="2">
         <v>46</v>
       </c>
@@ -30187,7 +30461,7 @@
         <v>514.41511844564036</v>
       </c>
     </row>
-    <row r="50" spans="9:12" x14ac:dyDescent="0.3">
+    <row r="50" spans="9:12">
       <c r="I50" s="2">
         <v>47</v>
       </c>
@@ -30204,7 +30478,7 @@
         <v>508.85685848962675</v>
       </c>
     </row>
-    <row r="51" spans="9:12" x14ac:dyDescent="0.3">
+    <row r="51" spans="9:12">
       <c r="I51" s="2">
         <v>48</v>
       </c>
@@ -30221,7 +30495,7 @@
         <v>503.46703065349215</v>
       </c>
     </row>
-    <row r="52" spans="9:12" x14ac:dyDescent="0.3">
+    <row r="52" spans="9:12">
       <c r="I52" s="2">
         <v>49</v>
       </c>
@@ -30238,7 +30512,7 @@
         <v>498.23809320052584</v>
       </c>
     </row>
-    <row r="53" spans="9:12" x14ac:dyDescent="0.3">
+    <row r="53" spans="9:12">
       <c r="I53" s="2">
         <v>50</v>
       </c>
@@ -30255,7 +30529,7 @@
         <v>493.16294802558798</v>
       </c>
     </row>
-    <row r="54" spans="9:12" x14ac:dyDescent="0.3">
+    <row r="54" spans="9:12">
       <c r="I54" s="2">
         <v>51</v>
       </c>
@@ -30272,7 +30546,7 @@
         <v>488.2349085078946</v>
       </c>
     </row>
-    <row r="55" spans="9:12" x14ac:dyDescent="0.3">
+    <row r="55" spans="9:12">
       <c r="I55" s="2">
         <v>52</v>
       </c>
@@ -30289,7 +30563,7 @@
         <v>483.44767011927826</v>
       </c>
     </row>
-    <row r="56" spans="9:12" x14ac:dyDescent="0.3">
+    <row r="56" spans="9:12">
       <c r="I56" s="2">
         <v>53</v>
       </c>
@@ -30306,7 +30580,7 @@
         <v>478.79528351625669</v>
       </c>
     </row>
-    <row r="57" spans="9:12" x14ac:dyDescent="0.3">
+    <row r="57" spans="9:12">
       <c r="I57" s="2">
         <v>54</v>
       </c>
@@ -30323,7 +30597,7 @@
         <v>474.27212987443028</v>
       </c>
     </row>
-    <row r="58" spans="9:12" x14ac:dyDescent="0.3">
+    <row r="58" spans="9:12">
       <c r="I58" s="2">
         <v>55</v>
       </c>
@@ -30340,7 +30614,7 @@
         <v>469.87289825018797</v>
       </c>
     </row>
-    <row r="59" spans="9:12" x14ac:dyDescent="0.3">
+    <row r="59" spans="9:12">
       <c r="I59" s="2">
         <v>56</v>
       </c>
@@ -30357,7 +30631,7 @@
         <v>465.5925647779523</v>
       </c>
     </row>
-    <row r="60" spans="9:12" x14ac:dyDescent="0.3">
+    <row r="60" spans="9:12">
       <c r="I60" s="2">
         <v>57</v>
       </c>
@@ -30374,7 +30648,7 @@
         <v>461.42637353164298</v>
       </c>
     </row>
-    <row r="61" spans="9:12" x14ac:dyDescent="0.3">
+    <row r="61" spans="9:12">
       <c r="I61" s="2">
         <v>58</v>
       </c>
@@ -30391,7 +30665,7 @@
         <v>457.36981889707857</v>
       </c>
     </row>
-    <row r="62" spans="9:12" x14ac:dyDescent="0.3">
+    <row r="62" spans="9:12">
       <c r="I62" s="2">
         <v>59</v>
       </c>
@@ -30408,7 +30682,7 @@
         <v>453.41862931795742</v>
       </c>
     </row>
-    <row r="63" spans="9:12" x14ac:dyDescent="0.3">
+    <row r="63" spans="9:12">
       <c r="I63" s="2">
         <v>60</v>
       </c>
@@ -30425,7 +30699,7 @@
         <v>449.568752292147</v>
       </c>
     </row>
-    <row r="64" spans="9:12" x14ac:dyDescent="0.3">
+    <row r="64" spans="9:12">
       <c r="I64" s="2">
         <v>61</v>
       </c>
@@ -30442,7 +30716,7 @@
         <v>445.81634050749642</v>
       </c>
     </row>
-    <row r="65" spans="9:12" x14ac:dyDescent="0.3">
+    <row r="65" spans="9:12">
       <c r="I65" s="2">
         <v>62</v>
       </c>
@@ -30459,7 +30733,7 @@
         <v>442.15773901746206</v>
       </c>
     </row>
-    <row r="66" spans="9:12" x14ac:dyDescent="0.3">
+    <row r="66" spans="9:12">
       <c r="I66" s="2">
         <v>63</v>
       </c>
@@ -30476,7 +30750,7 @@
         <v>438.5894733666878</v>
       </c>
     </row>
-    <row r="67" spans="9:12" x14ac:dyDescent="0.3">
+    <row r="67" spans="9:12">
       <c r="I67" s="2">
         <v>64</v>
       </c>
@@ -30493,7 +30767,7 @@
         <v>435.10823858544467</v>
       </c>
     </row>
-    <row r="68" spans="9:12" x14ac:dyDescent="0.3">
+    <row r="68" spans="9:12">
       <c r="I68" s="2">
         <v>65</v>
       </c>
@@ -30510,7 +30784,7 @@
         <v>431.71088897965313</v>
       </c>
     </row>
-    <row r="69" spans="9:12" x14ac:dyDescent="0.3">
+    <row r="69" spans="9:12">
       <c r="I69" s="2">
         <v>66</v>
       </c>
@@ -30527,7 +30801,7 @@
         <v>428.39442865018998</v>
       </c>
     </row>
-    <row r="70" spans="9:12" x14ac:dyDescent="0.3">
+    <row r="70" spans="9:12">
       <c r="I70" s="2">
         <v>67</v>
       </c>
@@ -30544,7 +30818,7 @@
         <v>425.15600268142009</v>
       </c>
     </row>
-    <row r="71" spans="9:12" x14ac:dyDescent="0.3">
+    <row r="71" spans="9:12">
       <c r="I71" s="2">
         <v>68</v>
       </c>
@@ -30561,7 +30835,7 @@
         <v>421.9928889444821</v>
       </c>
     </row>
-    <row r="72" spans="9:12" x14ac:dyDescent="0.3">
+    <row r="72" spans="9:12">
       <c r="I72" s="2">
         <v>69</v>
       </c>
@@ -30578,7 +30852,7 @@
         <v>418.90249046586445</v>
       </c>
     </row>
-    <row r="73" spans="9:12" x14ac:dyDescent="0.3">
+    <row r="73" spans="9:12">
       <c r="I73" s="2">
         <v>70</v>
       </c>
@@ -30595,7 +30869,7 @@
         <v>415.88232831630631</v>
       </c>
     </row>
-    <row r="74" spans="9:12" x14ac:dyDescent="0.3">
+    <row r="74" spans="9:12">
       <c r="I74" s="2">
         <v>71</v>
       </c>
@@ -30612,7 +30886,7 @@
         <v>412.9300349790978</v>
       </c>
     </row>
-    <row r="75" spans="9:12" x14ac:dyDescent="0.3">
+    <row r="75" spans="9:12">
       <c r="I75" s="2">
         <v>72</v>
       </c>
@@ -30629,7 +30903,7 @@
         <v>410.04334816049391</v>
       </c>
     </row>
-    <row r="76" spans="9:12" x14ac:dyDescent="0.3">
+    <row r="76" spans="9:12">
       <c r="I76" s="2">
         <v>73</v>
       </c>
@@ -30646,7 +30920,7 @@
         <v>407.22010500823296</v>
       </c>
     </row>
-    <row r="77" spans="9:12" x14ac:dyDescent="0.3">
+    <row r="77" spans="9:12">
       <c r="I77" s="2">
         <v>74</v>
       </c>
@@ -30663,7 +30937,7 @@
         <v>404.4582367071082</v>
       </c>
     </row>
-    <row r="78" spans="9:12" x14ac:dyDescent="0.3">
+    <row r="78" spans="9:12">
       <c r="I78" s="2">
         <v>75</v>
       </c>
@@ -30680,7 +30954,7 @@
         <v>401.75576342321176</v>
       </c>
     </row>
-    <row r="79" spans="9:12" x14ac:dyDescent="0.3">
+    <row r="79" spans="9:12">
       <c r="I79" s="2">
         <v>76</v>
       </c>
@@ -30697,7 +30971,7 @@
         <v>399.11078957088773</v>
       </c>
     </row>
-    <row r="80" spans="9:12" x14ac:dyDescent="0.3">
+    <row r="80" spans="9:12">
       <c r="I80" s="2">
         <v>77</v>
       </c>
@@ -30714,7 +30988,7 @@
         <v>396.52149937861259</v>
       </c>
     </row>
-    <row r="81" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="81" spans="2:12">
       <c r="I81" s="2">
         <v>78</v>
       </c>
@@ -30731,7 +31005,7 @@
         <v>393.98615273200983</v>
       </c>
     </row>
-    <row r="82" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="82" spans="2:12">
       <c r="I82" s="2">
         <v>79</v>
       </c>
@@ -30748,7 +31022,7 @@
         <v>391.50308127399677</v>
       </c>
     </row>
-    <row r="83" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="83" spans="2:12">
       <c r="I83" s="2">
         <v>80</v>
       </c>
@@ -30765,7 +31039,7 @@
         <v>389.07068474369845</v>
       </c>
     </row>
-    <row r="84" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="84" spans="2:12">
       <c r="I84" s="2">
         <v>81</v>
       </c>
@@ -30782,7 +31056,7 @@
         <v>386.68742753724433</v>
       </c>
     </row>
-    <row r="85" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="85" spans="2:12">
       <c r="I85" s="2">
         <v>82</v>
       </c>
@@ -30799,7 +31073,7 @@
         <v>384.35183547491937</v>
       </c>
     </row>
-    <row r="86" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="86" spans="2:12">
       <c r="I86" s="2">
         <v>83</v>
       </c>
@@ -30816,7 +31090,7 @@
         <v>382.06249276036323</v>
       </c>
     </row>
-    <row r="87" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="87" spans="2:12">
       <c r="I87" s="6">
         <v>84</v>
       </c>
@@ -30833,7 +31107,7 @@
         <v>379.81803911864154</v>
       </c>
     </row>
-    <row r="88" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="88" spans="2:12">
       <c r="C88" s="4">
         <f>1-D88</f>
         <v>0.15151515151515149</v>
@@ -30858,13 +31132,13 @@
         <v>377.61716710103087</v>
       </c>
     </row>
-    <row r="89" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="89" spans="2:12">
       <c r="C89" s="4">
         <f>B90-E90</f>
         <v>15</v>
       </c>
       <c r="E89" s="4" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="F89" s="4" t="s">
         <v>67</v>
@@ -30885,7 +31159,7 @@
         <v>375.45861954529749</v>
       </c>
     </row>
-    <row r="90" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="90" spans="2:12">
       <c r="B90" s="4">
         <v>99</v>
       </c>
@@ -30911,8 +31185,8 @@
         <v>373.34118718110176</v>
       </c>
     </row>
-    <row r="91" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B91" s="27">
+    <row r="91" spans="2:12">
+      <c r="B91" s="24">
         <f>E91/D88</f>
         <v>45.964285714285715</v>
       </c>
@@ -30942,7 +31216,7 @@
         <v>371.26370637094749</v>
       </c>
     </row>
-    <row r="92" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="92" spans="2:12">
       <c r="I92" s="2">
         <v>89</v>
       </c>
@@ -30959,7 +31233,7 @@
         <v>369.22505697780548</v>
       </c>
     </row>
-    <row r="93" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="93" spans="2:12">
       <c r="I93" s="2">
         <v>90</v>
       </c>
@@ -30976,7 +31250,7 @@
         <v>367.22416035120307</v>
       </c>
     </row>
-    <row r="94" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="94" spans="2:12">
       <c r="I94" s="2">
         <v>91</v>
       </c>
@@ -30993,7 +31267,7 @@
         <v>365.25997742417138</v>
       </c>
     </row>
-    <row r="95" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="95" spans="2:12">
       <c r="I95" s="2">
         <v>92</v>
       </c>
@@ -31010,7 +31284,7 @@
         <v>363.33150691399476</v>
       </c>
     </row>
-    <row r="96" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="96" spans="2:12">
       <c r="I96" s="2">
         <v>93</v>
       </c>
@@ -31027,7 +31301,7 @@
         <v>361.43778362021783</v>
       </c>
     </row>
-    <row r="97" spans="9:12" x14ac:dyDescent="0.3">
+    <row r="97" spans="9:12">
       <c r="I97" s="2">
         <v>94</v>
       </c>
@@ -31044,7 +31318,7 @@
         <v>359.57787681382968</v>
       </c>
     </row>
-    <row r="98" spans="9:12" x14ac:dyDescent="0.3">
+    <row r="98" spans="9:12">
       <c r="I98" s="2">
         <v>95</v>
       </c>
@@ -31061,7 +31335,7 @@
         <v>357.75088871197943</v>
       </c>
     </row>
-    <row r="99" spans="9:12" x14ac:dyDescent="0.3">
+    <row r="99" spans="9:12">
       <c r="I99" s="2">
         <v>96</v>
       </c>
@@ -31078,7 +31352,7 @@
         <v>355.95595303296864</v>
       </c>
     </row>
-    <row r="100" spans="9:12" x14ac:dyDescent="0.3">
+    <row r="100" spans="9:12">
       <c r="I100" s="2">
         <v>97</v>
       </c>
@@ -31095,7 +31369,7 @@
         <v>354.19223362663627</v>
       </c>
     </row>
-    <row r="101" spans="9:12" x14ac:dyDescent="0.3">
+    <row r="101" spans="9:12">
       <c r="I101" s="2">
         <v>98</v>
       </c>
@@ -31112,24 +31386,24 @@
         <v>352.4589231755856</v>
       </c>
     </row>
-    <row r="102" spans="9:12" x14ac:dyDescent="0.3">
-      <c r="I102" s="15">
+    <row r="102" spans="9:12">
+      <c r="I102" s="13">
         <v>99</v>
       </c>
-      <c r="J102" s="15">
+      <c r="J102" s="13">
         <f t="shared" si="8"/>
         <v>2.2905982905982905</v>
       </c>
-      <c r="K102" s="15">
+      <c r="K102" s="13">
         <f t="shared" si="7"/>
         <v>1.0208548086983251</v>
       </c>
-      <c r="L102" s="15">
+      <c r="L102" s="13">
         <f t="shared" si="6"/>
         <v>350.75524196301427</v>
       </c>
     </row>
-    <row r="103" spans="9:12" x14ac:dyDescent="0.3">
+    <row r="103" spans="9:12">
       <c r="I103" s="2">
         <v>100</v>
       </c>
@@ -31146,7 +31420,7 @@
         <v>349.08043670319853</v>
       </c>
     </row>
-    <row r="104" spans="9:12" x14ac:dyDescent="0.3">
+    <row r="104" spans="9:12">
       <c r="I104" s="2">
         <v>101</v>
       </c>
@@ -31163,7 +31437,7 @@
         <v>347.43377943094254</v>
       </c>
     </row>
-    <row r="105" spans="9:12" x14ac:dyDescent="0.3">
+    <row r="105" spans="9:12">
       <c r="I105" s="2">
         <v>102</v>
       </c>
@@ -31180,7 +31454,7 @@
         <v>345.81456644655765</v>
       </c>
     </row>
-    <row r="106" spans="9:12" x14ac:dyDescent="0.3">
+    <row r="106" spans="9:12">
       <c r="I106" s="2">
         <v>103</v>
       </c>
@@ -31197,7 +31471,7 @@
         <v>344.22211731315423</v>
       </c>
     </row>
-    <row r="107" spans="9:12" x14ac:dyDescent="0.3">
+    <row r="107" spans="9:12">
       <c r="I107" s="2">
         <v>104</v>
       </c>
@@ -31214,7 +31488,7 @@
         <v>342.65577390324933</v>
       </c>
     </row>
-    <row r="108" spans="9:12" x14ac:dyDescent="0.3">
+    <row r="108" spans="9:12">
       <c r="I108" s="2">
         <v>105</v>
       </c>
@@ -31231,7 +31505,7 @@
         <v>341.11489949187933</v>
       </c>
     </row>
-    <row r="109" spans="9:12" x14ac:dyDescent="0.3">
+    <row r="109" spans="9:12">
       <c r="I109" s="2">
         <v>106</v>
       </c>
@@ -31248,7 +31522,7 @@
         <v>339.59887789359607</v>
       </c>
     </row>
-    <row r="110" spans="9:12" x14ac:dyDescent="0.3">
+    <row r="110" spans="9:12">
       <c r="I110" s="2">
         <v>107</v>
       </c>
@@ -31265,7 +31539,7 @@
         <v>338.1071126408853</v>
       </c>
     </row>
-    <row r="111" spans="9:12" x14ac:dyDescent="0.3">
+    <row r="111" spans="9:12">
       <c r="I111" s="2">
         <v>108</v>
       </c>
@@ -31282,7 +31556,7 @@
         <v>336.63902620170967</v>
       </c>
     </row>
-    <row r="112" spans="9:12" x14ac:dyDescent="0.3">
+    <row r="112" spans="9:12">
       <c r="I112" s="2">
         <v>109</v>
       </c>
@@ -31299,7 +31573,7 @@
         <v>335.194059234017</v>
       </c>
     </row>
-    <row r="113" spans="9:12" x14ac:dyDescent="0.3">
+    <row r="113" spans="9:12">
       <c r="I113" s="2">
         <v>110</v>
       </c>
@@ -31316,7 +31590,7 @@
         <v>333.77166987519456</v>
       </c>
     </row>
-    <row r="114" spans="9:12" x14ac:dyDescent="0.3">
+    <row r="114" spans="9:12">
       <c r="I114" s="2">
         <v>111</v>
       </c>
@@ -31333,7 +31607,7 @@
         <v>332.37133306457093</v>
       </c>
     </row>
-    <row r="115" spans="9:12" x14ac:dyDescent="0.3">
+    <row r="115" spans="9:12">
       <c r="I115" s="2">
         <v>112</v>
       </c>
@@ -31350,7 +31624,7 @@
         <v>330.99253989718773</v>
       </c>
     </row>
-    <row r="116" spans="9:12" x14ac:dyDescent="0.3">
+    <row r="116" spans="9:12">
       <c r="I116" s="2">
         <v>113</v>
       </c>
@@ -31367,7 +31641,7 @@
         <v>329.63479700716908</v>
       </c>
     </row>
-    <row r="117" spans="9:12" x14ac:dyDescent="0.3">
+    <row r="117" spans="9:12">
       <c r="I117" s="2">
         <v>114</v>
       </c>
@@ -31384,7 +31658,7 @@
         <v>328.29762597912048</v>
       </c>
     </row>
-    <row r="118" spans="9:12" x14ac:dyDescent="0.3">
+    <row r="118" spans="9:12">
       <c r="I118" s="2">
         <v>115</v>
       </c>
@@ -31401,7 +31675,7 @@
         <v>326.9805627860801</v>
       </c>
     </row>
-    <row r="119" spans="9:12" x14ac:dyDescent="0.3">
+    <row r="119" spans="9:12">
       <c r="I119" s="2">
         <v>116</v>
       </c>
@@ -31418,7 +31692,7 @@
         <v>325.68315725263733</v>
       </c>
     </row>
-    <row r="120" spans="9:12" x14ac:dyDescent="0.3">
+    <row r="120" spans="9:12">
       <c r="I120" s="2">
         <v>117</v>
       </c>
@@ -31435,7 +31709,7 @@
         <v>324.40497254191223</v>
       </c>
     </row>
-    <row r="121" spans="9:12" x14ac:dyDescent="0.3">
+    <row r="121" spans="9:12">
       <c r="I121" s="2">
         <v>118</v>
       </c>
@@ -31452,7 +31726,7 @@
         <v>323.14558466516837</v>
       </c>
     </row>
-    <row r="122" spans="9:12" x14ac:dyDescent="0.3">
+    <row r="122" spans="9:12">
       <c r="I122" s="2">
         <v>119</v>
       </c>
@@ -31469,7 +31743,7 @@
         <v>321.90458201290255</v>
       </c>
     </row>
-    <row r="123" spans="9:12" x14ac:dyDescent="0.3">
+    <row r="123" spans="9:12">
       <c r="I123" s="2">
         <v>120</v>
       </c>
@@ -31497,941 +31771,941 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5A70DDA5-8C3F-427C-A7DC-B7066756466D}">
   <dimension ref="B2:J50"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
       <selection activeCell="L4" sqref="L4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="2.109375" style="12" bestFit="1" customWidth="1"/>
-    <col min="2" max="16384" width="11.5546875" style="12"/>
+    <col min="1" max="1" width="2.109375" style="10" bestFit="1" customWidth="1"/>
+    <col min="2" max="16384" width="11.5546875" style="10"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:8">
       <c r="C2" s="9" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="4" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B4" s="13"/>
-      <c r="C4" s="14" t="s">
+    <row r="4" spans="2:8">
+      <c r="B4" s="11"/>
+      <c r="C4" s="12" t="s">
         <v>51</v>
       </c>
-      <c r="D4" s="14" t="s">
+      <c r="D4" s="12" t="s">
         <v>52</v>
       </c>
-      <c r="E4" s="14" t="s">
+      <c r="E4" s="12" t="s">
         <v>53</v>
       </c>
-      <c r="F4" s="14" t="s">
+      <c r="F4" s="12" t="s">
         <v>54</v>
       </c>
-      <c r="G4" s="14" t="s">
+      <c r="G4" s="12" t="s">
         <v>55</v>
       </c>
-      <c r="H4" s="14" t="s">
+      <c r="H4" s="12" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="5" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B5" s="16"/>
-      <c r="C5" s="19">
+    <row r="5" spans="2:8">
+      <c r="B5" s="14"/>
+      <c r="C5" s="17">
         <v>3</v>
       </c>
-      <c r="D5" s="19">
+      <c r="D5" s="17">
         <v>291</v>
       </c>
-      <c r="E5" s="19">
+      <c r="E5" s="17">
         <v>292</v>
       </c>
-      <c r="F5" s="19">
+      <c r="F5" s="17">
         <v>292</v>
       </c>
-      <c r="G5" s="19">
+      <c r="G5" s="17">
         <v>291</v>
       </c>
-      <c r="H5" s="19">
+      <c r="H5" s="17">
         <v>293</v>
       </c>
     </row>
-    <row r="6" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B6" s="16"/>
-      <c r="C6" s="19">
+    <row r="6" spans="2:8">
+      <c r="B6" s="14"/>
+      <c r="C6" s="17">
         <v>4</v>
       </c>
-      <c r="D6" s="19">
+      <c r="D6" s="17">
         <v>291</v>
       </c>
-      <c r="E6" s="19">
+      <c r="E6" s="17">
         <v>292</v>
       </c>
-      <c r="F6" s="19">
+      <c r="F6" s="17">
         <v>292</v>
       </c>
-      <c r="G6" s="19">
+      <c r="G6" s="17">
         <v>291</v>
       </c>
-      <c r="H6" s="19">
+      <c r="H6" s="17">
         <v>293</v>
       </c>
     </row>
-    <row r="7" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B7" s="16"/>
-      <c r="C7" s="19">
+    <row r="7" spans="2:8">
+      <c r="B7" s="14"/>
+      <c r="C7" s="17">
         <v>5</v>
       </c>
-      <c r="D7" s="19">
+      <c r="D7" s="17">
         <v>292</v>
       </c>
-      <c r="E7" s="19">
+      <c r="E7" s="17">
         <v>293</v>
       </c>
-      <c r="F7" s="19">
+      <c r="F7" s="17">
         <v>292</v>
       </c>
-      <c r="G7" s="19">
+      <c r="G7" s="17">
         <v>291</v>
       </c>
-      <c r="H7" s="19">
+      <c r="H7" s="17">
         <v>293</v>
       </c>
     </row>
-    <row r="8" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B8" s="16"/>
-      <c r="C8" s="19">
+    <row r="8" spans="2:8">
+      <c r="B8" s="14"/>
+      <c r="C8" s="17">
         <v>6</v>
       </c>
-      <c r="D8" s="19">
+      <c r="D8" s="17">
         <v>295</v>
       </c>
-      <c r="E8" s="19">
+      <c r="E8" s="17">
         <v>296</v>
       </c>
-      <c r="F8" s="19">
+      <c r="F8" s="17">
         <v>295</v>
       </c>
-      <c r="G8" s="19">
+      <c r="G8" s="17">
         <v>294</v>
       </c>
-      <c r="H8" s="19">
+      <c r="H8" s="17">
         <v>294</v>
       </c>
     </row>
-    <row r="9" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B9" s="16"/>
-      <c r="C9" s="19">
+    <row r="9" spans="2:8">
+      <c r="B9" s="14"/>
+      <c r="C9" s="17">
         <v>7</v>
       </c>
-      <c r="D9" s="19">
+      <c r="D9" s="17">
         <v>298</v>
       </c>
-      <c r="E9" s="19">
+      <c r="E9" s="17">
         <v>299</v>
       </c>
-      <c r="F9" s="19">
+      <c r="F9" s="17">
         <v>297</v>
       </c>
-      <c r="G9" s="19">
+      <c r="G9" s="17">
         <v>296</v>
       </c>
-      <c r="H9" s="19">
+      <c r="H9" s="17">
         <v>295</v>
       </c>
     </row>
-    <row r="10" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B10" s="16"/>
-      <c r="C10" s="19">
+    <row r="10" spans="2:8">
+      <c r="B10" s="14"/>
+      <c r="C10" s="17">
         <v>8</v>
       </c>
-      <c r="D10" s="19">
+      <c r="D10" s="17">
         <v>301</v>
       </c>
-      <c r="E10" s="19">
+      <c r="E10" s="17">
         <v>302</v>
       </c>
-      <c r="F10" s="19">
+      <c r="F10" s="17">
         <v>300</v>
       </c>
-      <c r="G10" s="19">
+      <c r="G10" s="17">
         <v>298</v>
       </c>
-      <c r="H10" s="19">
+      <c r="H10" s="17">
         <v>296</v>
       </c>
     </row>
-    <row r="11" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B11" s="16"/>
-      <c r="C11" s="19">
+    <row r="11" spans="2:8">
+      <c r="B11" s="14"/>
+      <c r="C11" s="17">
         <v>9</v>
       </c>
-      <c r="D11" s="19">
+      <c r="D11" s="17">
         <v>303</v>
       </c>
-      <c r="E11" s="19">
+      <c r="E11" s="17">
         <v>303</v>
       </c>
-      <c r="F11" s="19">
+      <c r="F11" s="17">
         <v>301</v>
       </c>
-      <c r="G11" s="19">
+      <c r="G11" s="17">
         <v>300</v>
       </c>
-      <c r="H11" s="19">
+      <c r="H11" s="17">
         <v>297</v>
       </c>
     </row>
-    <row r="12" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B12" s="16"/>
-      <c r="C12" s="19">
+    <row r="12" spans="2:8">
+      <c r="B12" s="14"/>
+      <c r="C12" s="17">
         <v>10</v>
       </c>
-      <c r="D12" s="19">
+      <c r="D12" s="17">
         <v>304</v>
       </c>
-      <c r="E12" s="19">
+      <c r="E12" s="17">
         <v>304</v>
       </c>
-      <c r="F12" s="19">
+      <c r="F12" s="17">
         <v>302</v>
       </c>
-      <c r="G12" s="19">
+      <c r="G12" s="17">
         <v>300</v>
       </c>
-      <c r="H12" s="19">
+      <c r="H12" s="17">
         <v>297</v>
       </c>
     </row>
-    <row r="13" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B13" s="16"/>
-      <c r="C13" s="19">
+    <row r="13" spans="2:8">
+      <c r="B13" s="14"/>
+      <c r="C13" s="17">
         <v>11</v>
       </c>
-      <c r="D13" s="19">
+      <c r="D13" s="17">
         <v>305</v>
       </c>
-      <c r="E13" s="19">
+      <c r="E13" s="17">
         <v>304</v>
       </c>
-      <c r="F13" s="19">
+      <c r="F13" s="17">
         <v>302</v>
       </c>
-      <c r="G13" s="19">
+      <c r="G13" s="17">
         <v>300</v>
       </c>
-      <c r="H13" s="19">
+      <c r="H13" s="17">
         <v>297</v>
       </c>
     </row>
-    <row r="14" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="C14" s="19">
+    <row r="14" spans="2:8">
+      <c r="C14" s="17">
         <v>12</v>
       </c>
-      <c r="D14" s="19">
+      <c r="D14" s="17">
         <v>303</v>
       </c>
-      <c r="E14" s="19">
+      <c r="E14" s="17">
         <v>302</v>
       </c>
-      <c r="F14" s="19">
+      <c r="F14" s="17">
         <v>300</v>
       </c>
-      <c r="G14" s="19">
+      <c r="G14" s="17">
         <v>298</v>
       </c>
-      <c r="H14" s="19">
+      <c r="H14" s="17">
         <v>296</v>
       </c>
     </row>
-    <row r="15" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="C15" s="19">
+    <row r="15" spans="2:8">
+      <c r="C15" s="17">
         <v>13</v>
       </c>
-      <c r="D15" s="19">
+      <c r="D15" s="17">
         <v>302</v>
       </c>
-      <c r="E15" s="19">
+      <c r="E15" s="17">
         <v>301</v>
       </c>
-      <c r="F15" s="19">
+      <c r="F15" s="17">
         <v>299</v>
       </c>
-      <c r="G15" s="19">
+      <c r="G15" s="17">
         <v>297</v>
       </c>
-      <c r="H15" s="19">
+      <c r="H15" s="17">
         <v>296</v>
       </c>
     </row>
-    <row r="16" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B16" s="13"/>
-      <c r="C16" s="19">
+    <row r="16" spans="2:8">
+      <c r="B16" s="11"/>
+      <c r="C16" s="17">
         <v>14</v>
       </c>
-      <c r="D16" s="19">
+      <c r="D16" s="17">
         <v>300</v>
       </c>
-      <c r="E16" s="19">
+      <c r="E16" s="17">
         <v>299</v>
       </c>
-      <c r="F16" s="19">
+      <c r="F16" s="17">
         <v>298</v>
       </c>
-      <c r="G16" s="19">
+      <c r="G16" s="17">
         <v>296</v>
       </c>
-      <c r="H16" s="19">
+      <c r="H16" s="17">
         <v>295</v>
       </c>
     </row>
-    <row r="17" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B17" s="16"/>
-      <c r="C17" s="19">
+    <row r="17" spans="2:10">
+      <c r="B17" s="14"/>
+      <c r="C17" s="17">
         <v>15</v>
       </c>
-      <c r="D17" s="19">
+      <c r="D17" s="17">
         <v>298</v>
       </c>
-      <c r="E17" s="19">
+      <c r="E17" s="17">
         <v>297</v>
       </c>
-      <c r="F17" s="19">
+      <c r="F17" s="17">
         <v>296</v>
       </c>
-      <c r="G17" s="19">
+      <c r="G17" s="17">
         <v>295</v>
       </c>
-      <c r="H17" s="19">
+      <c r="H17" s="17">
         <v>295</v>
       </c>
     </row>
-    <row r="18" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B18" s="16"/>
-      <c r="C18" s="19">
+    <row r="18" spans="2:10">
+      <c r="B18" s="14"/>
+      <c r="C18" s="17">
         <v>16</v>
       </c>
-      <c r="D18" s="19">
+      <c r="D18" s="17">
         <v>297</v>
       </c>
-      <c r="E18" s="19">
+      <c r="E18" s="17">
         <v>296</v>
       </c>
-      <c r="F18" s="19">
+      <c r="F18" s="17">
         <v>295</v>
       </c>
-      <c r="G18" s="19">
+      <c r="G18" s="17">
         <v>293</v>
       </c>
-      <c r="H18" s="19">
+      <c r="H18" s="17">
         <v>294</v>
       </c>
     </row>
-    <row r="19" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B19" s="16"/>
-      <c r="C19" s="19">
+    <row r="19" spans="2:10">
+      <c r="B19" s="14"/>
+      <c r="C19" s="17">
         <v>17</v>
       </c>
-      <c r="D19" s="19">
+      <c r="D19" s="17">
         <v>296</v>
       </c>
-      <c r="E19" s="19">
+      <c r="E19" s="17">
         <v>295</v>
       </c>
-      <c r="F19" s="19">
+      <c r="F19" s="17">
         <v>294</v>
       </c>
-      <c r="G19" s="19">
+      <c r="G19" s="17">
         <v>292</v>
       </c>
-      <c r="H19" s="19">
+      <c r="H19" s="17">
         <v>294</v>
       </c>
     </row>
-    <row r="20" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B20" s="16"/>
-      <c r="C20" s="19">
+    <row r="20" spans="2:10">
+      <c r="B20" s="14"/>
+      <c r="C20" s="17">
         <v>18</v>
       </c>
-      <c r="D20" s="19">
+      <c r="D20" s="17">
         <v>294</v>
       </c>
-      <c r="E20" s="19">
+      <c r="E20" s="17">
         <v>293</v>
       </c>
-      <c r="F20" s="19">
+      <c r="F20" s="17">
         <v>292</v>
       </c>
-      <c r="G20" s="19">
+      <c r="G20" s="17">
         <v>291</v>
       </c>
-      <c r="H20" s="19">
+      <c r="H20" s="17">
         <v>294</v>
       </c>
     </row>
-    <row r="21" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B21" s="16"/>
-      <c r="C21" s="19">
+    <row r="21" spans="2:10">
+      <c r="B21" s="14"/>
+      <c r="C21" s="17">
         <v>19</v>
       </c>
-      <c r="D21" s="19">
+      <c r="D21" s="17">
         <v>293</v>
       </c>
-      <c r="E21" s="19">
+      <c r="E21" s="17">
         <v>293</v>
       </c>
-      <c r="F21" s="19">
+      <c r="F21" s="17">
         <v>292</v>
       </c>
-      <c r="G21" s="19">
+      <c r="G21" s="17">
         <v>291</v>
       </c>
-      <c r="H21" s="19">
+      <c r="H21" s="17">
         <v>293</v>
       </c>
     </row>
-    <row r="22" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B22" s="16"/>
-      <c r="C22" s="19">
+    <row r="22" spans="2:10">
+      <c r="B22" s="14"/>
+      <c r="C22" s="17">
         <v>20</v>
       </c>
-      <c r="D22" s="19">
+      <c r="D22" s="17">
         <v>292</v>
       </c>
-      <c r="E22" s="19">
+      <c r="E22" s="17">
         <v>293</v>
       </c>
-      <c r="F22" s="19">
+      <c r="F22" s="17">
         <v>292</v>
       </c>
-      <c r="G22" s="19">
+      <c r="G22" s="17">
         <v>291</v>
       </c>
-      <c r="H22" s="19">
+      <c r="H22" s="17">
         <v>293</v>
       </c>
     </row>
-    <row r="23" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B23" s="16"/>
-      <c r="C23" s="19">
+    <row r="23" spans="2:10">
+      <c r="B23" s="14"/>
+      <c r="C23" s="17">
         <v>21</v>
       </c>
-      <c r="D23" s="19">
+      <c r="D23" s="17">
         <v>292</v>
       </c>
-      <c r="E23" s="19">
+      <c r="E23" s="17">
         <v>293</v>
       </c>
-      <c r="F23" s="19">
+      <c r="F23" s="17">
         <v>292</v>
       </c>
-      <c r="G23" s="19">
+      <c r="G23" s="17">
         <v>291</v>
       </c>
-      <c r="H23" s="19">
+      <c r="H23" s="17">
         <v>293</v>
       </c>
     </row>
-    <row r="24" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B24" s="16"/>
-      <c r="C24" s="19">
+    <row r="24" spans="2:10">
+      <c r="B24" s="14"/>
+      <c r="C24" s="17">
         <v>22</v>
       </c>
-      <c r="D24" s="19">
+      <c r="D24" s="17">
         <v>292</v>
       </c>
-      <c r="E24" s="19">
+      <c r="E24" s="17">
         <v>293</v>
       </c>
-      <c r="F24" s="19">
+      <c r="F24" s="17">
         <v>292</v>
       </c>
-      <c r="G24" s="19">
+      <c r="G24" s="17">
         <v>291</v>
       </c>
-      <c r="H24" s="19">
+      <c r="H24" s="17">
         <v>293</v>
       </c>
     </row>
-    <row r="25" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B25" s="16"/>
-      <c r="C25" s="19">
+    <row r="25" spans="2:10">
+      <c r="B25" s="14"/>
+      <c r="C25" s="17">
         <v>23</v>
       </c>
-      <c r="D25" s="19">
+      <c r="D25" s="17">
         <v>291</v>
       </c>
-      <c r="E25" s="19">
+      <c r="E25" s="17">
         <v>292</v>
       </c>
-      <c r="F25" s="19">
+      <c r="F25" s="17">
         <v>292</v>
       </c>
-      <c r="G25" s="19">
+      <c r="G25" s="17">
         <v>291</v>
       </c>
-      <c r="H25" s="19">
+      <c r="H25" s="17">
         <v>293</v>
       </c>
     </row>
-    <row r="27" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:10">
       <c r="C27" s="9" t="s">
         <v>72</v>
       </c>
-      <c r="J27" s="18" t="s">
+      <c r="J27" s="16" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="28" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="J28" s="18" t="s">
+    <row r="28" spans="2:10">
+      <c r="J28" s="16" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="29" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="C29" s="14" t="s">
+    <row r="29" spans="2:10">
+      <c r="C29" s="12" t="s">
         <v>51</v>
       </c>
-      <c r="D29" s="14" t="s">
+      <c r="D29" s="12" t="s">
         <v>57</v>
       </c>
-      <c r="E29" s="14" t="s">
+      <c r="E29" s="12" t="s">
         <v>58</v>
       </c>
-      <c r="F29" s="14" t="s">
+      <c r="F29" s="12" t="s">
         <v>59</v>
       </c>
-      <c r="G29" s="14" t="s">
+      <c r="G29" s="12" t="s">
         <v>60</v>
       </c>
-      <c r="H29" s="14" t="s">
+      <c r="H29" s="12" t="s">
         <v>61</v>
       </c>
-      <c r="J29" s="18" t="s">
+      <c r="J29" s="16" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="30" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="C30" s="19">
+    <row r="30" spans="2:10">
+      <c r="C30" s="17">
         <v>3</v>
       </c>
-      <c r="D30" s="19">
+      <c r="D30" s="17">
         <v>292</v>
       </c>
-      <c r="E30" s="19">
+      <c r="E30" s="17">
         <v>293</v>
       </c>
-      <c r="F30" s="19">
+      <c r="F30" s="17">
         <v>292</v>
       </c>
-      <c r="G30" s="19">
+      <c r="G30" s="17">
         <v>291</v>
       </c>
-      <c r="H30" s="19">
+      <c r="H30" s="17">
         <v>293</v>
       </c>
-      <c r="J30" s="18" t="s">
+      <c r="J30" s="16" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="31" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="C31" s="19">
+    <row r="31" spans="2:10">
+      <c r="C31" s="17">
         <v>4</v>
       </c>
-      <c r="D31" s="19">
+      <c r="D31" s="17">
         <v>292</v>
       </c>
-      <c r="E31" s="19">
+      <c r="E31" s="17">
         <v>293</v>
       </c>
-      <c r="F31" s="19">
+      <c r="F31" s="17">
         <v>292</v>
       </c>
-      <c r="G31" s="19">
+      <c r="G31" s="17">
         <v>291</v>
       </c>
-      <c r="H31" s="19">
+      <c r="H31" s="17">
         <v>293</v>
       </c>
-      <c r="J31" s="18" t="s">
+      <c r="J31" s="16" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="32" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="C32" s="19">
+    <row r="32" spans="2:10">
+      <c r="C32" s="17">
         <v>5</v>
       </c>
-      <c r="D32" s="19">
+      <c r="D32" s="17">
         <v>292</v>
       </c>
-      <c r="E32" s="19">
+      <c r="E32" s="17">
         <v>293</v>
       </c>
-      <c r="F32" s="19">
+      <c r="F32" s="17">
         <v>292</v>
       </c>
-      <c r="G32" s="19">
+      <c r="G32" s="17">
         <v>291</v>
       </c>
-      <c r="H32" s="19">
+      <c r="H32" s="17">
         <v>293</v>
       </c>
     </row>
-    <row r="33" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C33" s="19">
+    <row r="33" spans="3:10">
+      <c r="C33" s="17">
         <v>6</v>
       </c>
-      <c r="D33" s="19">
+      <c r="D33" s="17">
         <v>294</v>
       </c>
-      <c r="E33" s="19">
+      <c r="E33" s="17">
         <v>295</v>
       </c>
-      <c r="F33" s="19">
+      <c r="F33" s="17">
         <v>294</v>
       </c>
-      <c r="G33" s="19">
+      <c r="G33" s="17">
         <v>293</v>
       </c>
-      <c r="H33" s="19">
+      <c r="H33" s="17">
         <v>294</v>
       </c>
     </row>
-    <row r="34" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C34" s="19">
+    <row r="34" spans="3:10">
+      <c r="C34" s="17">
         <v>7</v>
       </c>
-      <c r="D34" s="19">
+      <c r="D34" s="17">
         <v>296</v>
       </c>
-      <c r="E34" s="19">
+      <c r="E34" s="17">
         <v>297</v>
       </c>
-      <c r="F34" s="19">
+      <c r="F34" s="17">
         <v>296</v>
       </c>
-      <c r="G34" s="19">
+      <c r="G34" s="17">
         <v>295</v>
       </c>
-      <c r="H34" s="19">
+      <c r="H34" s="17">
         <v>295</v>
       </c>
     </row>
-    <row r="35" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C35" s="19">
+    <row r="35" spans="3:10">
+      <c r="C35" s="17">
         <v>8</v>
       </c>
-      <c r="D35" s="19">
+      <c r="D35" s="17">
         <v>298</v>
       </c>
-      <c r="E35" s="19">
+      <c r="E35" s="17">
         <v>299</v>
       </c>
-      <c r="F35" s="19">
+      <c r="F35" s="17">
         <v>298</v>
       </c>
-      <c r="G35" s="19">
+      <c r="G35" s="17">
         <v>297</v>
       </c>
-      <c r="H35" s="19">
+      <c r="H35" s="17">
         <v>296</v>
       </c>
     </row>
-    <row r="36" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C36" s="19">
+    <row r="36" spans="3:10">
+      <c r="C36" s="17">
         <v>9</v>
       </c>
-      <c r="D36" s="19">
+      <c r="D36" s="17">
         <v>300</v>
       </c>
-      <c r="E36" s="19">
+      <c r="E36" s="17">
         <v>300</v>
       </c>
-      <c r="F36" s="19">
+      <c r="F36" s="17">
         <v>299</v>
       </c>
-      <c r="G36" s="19">
+      <c r="G36" s="17">
         <v>298</v>
       </c>
-      <c r="H36" s="19">
+      <c r="H36" s="17">
         <v>297</v>
       </c>
-      <c r="J36" s="17"/>
-    </row>
-    <row r="37" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C37" s="19">
+      <c r="J36" s="15"/>
+    </row>
+    <row r="37" spans="3:10">
+      <c r="C37" s="17">
         <v>10</v>
       </c>
-      <c r="D37" s="19">
+      <c r="D37" s="17">
         <v>301</v>
       </c>
-      <c r="E37" s="19">
+      <c r="E37" s="17">
         <v>301</v>
       </c>
-      <c r="F37" s="19">
+      <c r="F37" s="17">
         <v>300</v>
       </c>
-      <c r="G37" s="19">
+      <c r="G37" s="17">
         <v>299</v>
       </c>
-      <c r="H37" s="19">
+      <c r="H37" s="17">
         <v>297</v>
       </c>
     </row>
-    <row r="38" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C38" s="19">
+    <row r="38" spans="3:10">
+      <c r="C38" s="17">
         <v>11</v>
       </c>
-      <c r="D38" s="19">
+      <c r="D38" s="17">
         <v>302</v>
       </c>
-      <c r="E38" s="19">
+      <c r="E38" s="17">
         <v>301</v>
       </c>
-      <c r="F38" s="19">
+      <c r="F38" s="17">
         <v>300</v>
       </c>
-      <c r="G38" s="19">
+      <c r="G38" s="17">
         <v>299</v>
       </c>
-      <c r="H38" s="19">
+      <c r="H38" s="17">
         <v>297</v>
       </c>
     </row>
-    <row r="39" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C39" s="19">
+    <row r="39" spans="3:10">
+      <c r="C39" s="17">
         <v>12</v>
       </c>
-      <c r="D39" s="19">
+      <c r="D39" s="17">
         <v>300</v>
       </c>
-      <c r="E39" s="19">
+      <c r="E39" s="17">
         <v>299</v>
       </c>
-      <c r="F39" s="19">
+      <c r="F39" s="17">
         <v>298</v>
       </c>
-      <c r="G39" s="19">
+      <c r="G39" s="17">
         <v>297</v>
       </c>
-      <c r="H39" s="19">
+      <c r="H39" s="17">
         <v>296</v>
       </c>
     </row>
-    <row r="40" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C40" s="19">
+    <row r="40" spans="3:10">
+      <c r="C40" s="17">
         <v>13</v>
       </c>
-      <c r="D40" s="19">
+      <c r="D40" s="17">
         <v>299</v>
       </c>
-      <c r="E40" s="19">
+      <c r="E40" s="17">
         <v>298</v>
       </c>
-      <c r="F40" s="19">
+      <c r="F40" s="17">
         <v>297</v>
       </c>
-      <c r="G40" s="19">
+      <c r="G40" s="17">
         <v>296</v>
       </c>
-      <c r="H40" s="19">
+      <c r="H40" s="17">
         <v>296</v>
       </c>
     </row>
-    <row r="41" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C41" s="19">
+    <row r="41" spans="3:10">
+      <c r="C41" s="17">
         <v>14</v>
       </c>
-      <c r="D41" s="19">
+      <c r="D41" s="17">
         <v>297</v>
       </c>
-      <c r="E41" s="19">
+      <c r="E41" s="17">
         <v>296</v>
       </c>
-      <c r="F41" s="19">
+      <c r="F41" s="17">
         <v>296</v>
       </c>
-      <c r="G41" s="19">
+      <c r="G41" s="17">
         <v>294</v>
       </c>
-      <c r="H41" s="19">
+      <c r="H41" s="17">
         <v>295</v>
       </c>
     </row>
-    <row r="42" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C42" s="19">
+    <row r="42" spans="3:10">
+      <c r="C42" s="17">
         <v>15</v>
       </c>
-      <c r="D42" s="19">
+      <c r="D42" s="17">
         <v>296</v>
       </c>
-      <c r="E42" s="19">
+      <c r="E42" s="17">
         <v>295</v>
       </c>
-      <c r="F42" s="19">
+      <c r="F42" s="17">
         <v>294</v>
       </c>
-      <c r="G42" s="19">
+      <c r="G42" s="17">
         <v>293</v>
       </c>
-      <c r="H42" s="19">
+      <c r="H42" s="17">
         <v>295</v>
       </c>
     </row>
-    <row r="43" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C43" s="19">
+    <row r="43" spans="3:10">
+      <c r="C43" s="17">
         <v>16</v>
       </c>
-      <c r="D43" s="19">
+      <c r="D43" s="17">
         <v>295</v>
       </c>
-      <c r="E43" s="19">
+      <c r="E43" s="17">
         <v>294</v>
       </c>
-      <c r="F43" s="19">
+      <c r="F43" s="17">
         <v>293</v>
       </c>
-      <c r="G43" s="19">
+      <c r="G43" s="17">
         <v>292</v>
       </c>
-      <c r="H43" s="19">
+      <c r="H43" s="17">
         <v>294</v>
       </c>
     </row>
-    <row r="44" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C44" s="19">
+    <row r="44" spans="3:10">
+      <c r="C44" s="17">
         <v>17</v>
       </c>
-      <c r="D44" s="19">
+      <c r="D44" s="17">
         <v>294</v>
       </c>
-      <c r="E44" s="19">
+      <c r="E44" s="17">
         <v>293</v>
       </c>
-      <c r="F44" s="19">
+      <c r="F44" s="17">
         <v>292</v>
       </c>
-      <c r="G44" s="19">
+      <c r="G44" s="17">
         <v>291</v>
       </c>
-      <c r="H44" s="19">
+      <c r="H44" s="17">
         <v>294</v>
       </c>
     </row>
-    <row r="45" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C45" s="19">
+    <row r="45" spans="3:10">
+      <c r="C45" s="17">
         <v>18</v>
       </c>
-      <c r="D45" s="19">
+      <c r="D45" s="17">
         <v>293</v>
       </c>
-      <c r="E45" s="19">
+      <c r="E45" s="17">
         <v>293</v>
       </c>
-      <c r="F45" s="19">
+      <c r="F45" s="17">
         <v>292</v>
       </c>
-      <c r="G45" s="19">
+      <c r="G45" s="17">
         <v>291</v>
       </c>
-      <c r="H45" s="19">
+      <c r="H45" s="17">
         <v>294</v>
       </c>
     </row>
-    <row r="46" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C46" s="19">
+    <row r="46" spans="3:10">
+      <c r="C46" s="17">
         <v>19</v>
       </c>
-      <c r="D46" s="19">
+      <c r="D46" s="17">
         <v>293</v>
       </c>
-      <c r="E46" s="19">
+      <c r="E46" s="17">
         <v>293</v>
       </c>
-      <c r="F46" s="19">
+      <c r="F46" s="17">
         <v>292</v>
       </c>
-      <c r="G46" s="19">
+      <c r="G46" s="17">
         <v>291</v>
       </c>
-      <c r="H46" s="19">
+      <c r="H46" s="17">
         <v>293</v>
       </c>
     </row>
-    <row r="47" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C47" s="19">
+    <row r="47" spans="3:10">
+      <c r="C47" s="17">
         <v>20</v>
       </c>
-      <c r="D47" s="19">
+      <c r="D47" s="17">
         <v>292</v>
       </c>
-      <c r="E47" s="19">
+      <c r="E47" s="17">
         <v>293</v>
       </c>
-      <c r="F47" s="19">
+      <c r="F47" s="17">
         <v>292</v>
       </c>
-      <c r="G47" s="19">
+      <c r="G47" s="17">
         <v>291</v>
       </c>
-      <c r="H47" s="19">
+      <c r="H47" s="17">
         <v>293</v>
       </c>
     </row>
-    <row r="48" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C48" s="19">
+    <row r="48" spans="3:10">
+      <c r="C48" s="17">
         <v>21</v>
       </c>
-      <c r="D48" s="19">
+      <c r="D48" s="17">
         <v>292</v>
       </c>
-      <c r="E48" s="19">
+      <c r="E48" s="17">
         <v>293</v>
       </c>
-      <c r="F48" s="19">
+      <c r="F48" s="17">
         <v>292</v>
       </c>
-      <c r="G48" s="19">
+      <c r="G48" s="17">
         <v>291</v>
       </c>
-      <c r="H48" s="19">
+      <c r="H48" s="17">
         <v>293</v>
       </c>
     </row>
-    <row r="49" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C49" s="19">
+    <row r="49" spans="3:8">
+      <c r="C49" s="17">
         <v>22</v>
       </c>
-      <c r="D49" s="19">
+      <c r="D49" s="17">
         <v>292</v>
       </c>
-      <c r="E49" s="19">
+      <c r="E49" s="17">
         <v>293</v>
       </c>
-      <c r="F49" s="19">
+      <c r="F49" s="17">
         <v>292</v>
       </c>
-      <c r="G49" s="19">
+      <c r="G49" s="17">
         <v>291</v>
       </c>
-      <c r="H49" s="19">
+      <c r="H49" s="17">
         <v>293</v>
       </c>
     </row>
-    <row r="50" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C50" s="19">
+    <row r="50" spans="3:8">
+      <c r="C50" s="17">
         <v>23</v>
       </c>
-      <c r="D50" s="19">
+      <c r="D50" s="17">
         <v>292</v>
       </c>
-      <c r="E50" s="19">
+      <c r="E50" s="17">
         <v>293</v>
       </c>
-      <c r="F50" s="19">
+      <c r="F50" s="17">
         <v>292</v>
       </c>
-      <c r="G50" s="19">
+      <c r="G50" s="17">
         <v>291</v>
       </c>
-      <c r="H50" s="19">
+      <c r="H50" s="17">
         <v>293</v>
       </c>
     </row>
@@ -32444,353 +32718,599 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F6468B65-C869-43D5-9A81-39B547A17B98}">
   <dimension ref="A2:N20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J26" sqref="J26"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="G7" sqref="G7:M12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="6" width="11.5546875" style="22"/>
-    <col min="7" max="7" width="24.21875" style="22" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.109375" style="22" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="16.109375" style="22" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="21.21875" style="22" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="12.109375" style="22" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="16.109375" style="22" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="21.21875" style="22" bestFit="1" customWidth="1"/>
-    <col min="14" max="16384" width="11.5546875" style="22"/>
+    <col min="1" max="6" width="11.5546875" style="20"/>
+    <col min="7" max="7" width="36.77734375" style="20" bestFit="1" customWidth="1"/>
+    <col min="8" max="10" width="6.77734375" style="20" customWidth="1"/>
+    <col min="11" max="11" width="14" style="20" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="18.5546875" style="20" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="24.109375" style="20" bestFit="1" customWidth="1"/>
+    <col min="14" max="16384" width="11.5546875" style="20"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="B2" s="22" t="s">
+    <row r="2" spans="1:14">
+      <c r="B2" s="20" t="s">
         <v>92</v>
       </c>
-      <c r="C2" s="22" t="s">
+      <c r="C2" s="20" t="s">
         <v>93</v>
       </c>
-      <c r="D2" s="22" t="s">
+      <c r="D2" s="20" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A3" s="23" t="s">
+    <row r="3" spans="1:14">
+      <c r="A3" s="21" t="s">
         <v>84</v>
       </c>
-      <c r="B3" s="24">
+      <c r="B3" s="22">
         <v>10</v>
       </c>
-      <c r="C3" s="24">
+      <c r="C3" s="22">
         <v>0.9</v>
       </c>
-      <c r="D3" s="24">
+      <c r="D3" s="22">
         <v>5.2249999999999996</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A4" s="23" t="s">
+    <row r="4" spans="1:14">
+      <c r="A4" s="21" t="s">
         <v>85</v>
       </c>
-      <c r="B4" s="25">
+      <c r="B4" s="23">
         <v>13.14</v>
       </c>
-      <c r="C4" s="24">
+      <c r="C4" s="22">
         <v>0.9</v>
       </c>
-      <c r="D4" s="24">
+      <c r="D4" s="22">
         <v>5.2249999999999996</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A5" s="23" t="s">
+    <row r="5" spans="1:14">
+      <c r="A5" s="21" t="s">
         <v>86</v>
       </c>
-      <c r="B5" s="25">
+      <c r="B5" s="23">
         <v>13.14</v>
       </c>
-      <c r="C5" s="25">
+      <c r="C5" s="23">
         <v>1.35</v>
       </c>
-      <c r="D5" s="24">
+      <c r="D5" s="22">
         <v>5.2249999999999996</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A6" s="23" t="s">
+    <row r="6" spans="1:14">
+      <c r="A6" s="21" t="s">
         <v>87</v>
       </c>
-      <c r="B6" s="24">
+      <c r="B6" s="22">
         <v>10</v>
       </c>
-      <c r="C6" s="25">
+      <c r="C6" s="23">
         <v>1.35</v>
       </c>
-      <c r="D6" s="24">
+      <c r="D6" s="22">
         <v>5.2249999999999996</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A7" s="23" t="s">
+    <row r="7" spans="1:14">
+      <c r="A7" s="21" t="s">
         <v>88</v>
       </c>
-      <c r="B7" s="24">
+      <c r="B7" s="22">
         <v>10</v>
       </c>
-      <c r="C7" s="24">
+      <c r="C7" s="22">
         <v>0.9</v>
       </c>
-      <c r="D7" s="25">
+      <c r="D7" s="23">
         <v>5.7750000000000004</v>
       </c>
-      <c r="G7" s="12"/>
-      <c r="H7" s="12"/>
-      <c r="I7" s="12"/>
-      <c r="J7" s="12"/>
+      <c r="G7" s="34" t="s">
+        <v>143</v>
+      </c>
+      <c r="H7" s="31" t="s">
+        <v>142</v>
+      </c>
+      <c r="I7" s="31"/>
+      <c r="J7" s="31"/>
       <c r="K7" s="31" t="s">
         <v>94</v>
       </c>
-      <c r="L7" s="30" t="s">
+      <c r="L7" s="31" t="s">
+        <v>95</v>
+      </c>
+      <c r="M7" s="31"/>
+      <c r="N7" s="36"/>
+    </row>
+    <row r="8" spans="1:14">
+      <c r="A8" s="21" t="s">
+        <v>89</v>
+      </c>
+      <c r="B8" s="23">
+        <v>13.14</v>
+      </c>
+      <c r="C8" s="22">
+        <v>0.9</v>
+      </c>
+      <c r="D8" s="23">
+        <v>5.7750000000000004</v>
+      </c>
+      <c r="G8" s="35"/>
+      <c r="H8" s="33" t="s">
+        <v>100</v>
+      </c>
+      <c r="I8" s="33" t="s">
+        <v>101</v>
+      </c>
+      <c r="J8" s="33" t="s">
+        <v>2</v>
+      </c>
+      <c r="K8" s="31"/>
+      <c r="L8" s="33" t="s">
+        <v>96</v>
+      </c>
+      <c r="M8" s="33" t="s">
         <v>97</v>
       </c>
-      <c r="M7" s="30"/>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A8" s="23" t="s">
-        <v>89</v>
-      </c>
-      <c r="B8" s="25">
+      <c r="N8" s="33" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14">
+      <c r="A9" s="21" t="s">
+        <v>90</v>
+      </c>
+      <c r="B9" s="23">
         <v>13.14</v>
       </c>
-      <c r="C8" s="24">
+      <c r="C9" s="23">
+        <v>1.35</v>
+      </c>
+      <c r="D9" s="23">
+        <v>5.7750000000000004</v>
+      </c>
+      <c r="G9" s="32" t="s">
+        <v>139</v>
+      </c>
+      <c r="H9" s="32">
+        <v>11.57</v>
+      </c>
+      <c r="I9" s="32">
         <v>0.9</v>
       </c>
-      <c r="D8" s="25">
+      <c r="J9" s="32">
+        <v>5.5</v>
+      </c>
+      <c r="K9" s="32">
+        <v>26.1</v>
+      </c>
+      <c r="L9" s="32">
+        <v>27.6</v>
+      </c>
+      <c r="M9" s="32">
+        <v>26.2</v>
+      </c>
+      <c r="N9" s="32"/>
+    </row>
+    <row r="10" spans="1:14">
+      <c r="A10" s="21" t="s">
+        <v>91</v>
+      </c>
+      <c r="B10" s="22">
+        <v>10</v>
+      </c>
+      <c r="C10" s="23">
+        <v>1.35</v>
+      </c>
+      <c r="D10" s="23">
         <v>5.7750000000000004</v>
       </c>
-      <c r="G8" s="12"/>
-      <c r="H8" s="12" t="s">
-        <v>103</v>
-      </c>
-      <c r="I8" s="12" t="s">
-        <v>104</v>
-      </c>
-      <c r="J8" s="12" t="s">
-        <v>2</v>
-      </c>
-      <c r="K8" s="31"/>
-      <c r="L8" s="26" t="s">
-        <v>98</v>
-      </c>
-      <c r="M8" s="26" t="s">
+      <c r="G10" s="32" t="s">
+        <v>140</v>
+      </c>
+      <c r="H10" s="32">
+        <v>11.57</v>
+      </c>
+      <c r="I10" s="32">
+        <v>1.125</v>
+      </c>
+      <c r="J10" s="32">
+        <v>5.5</v>
+      </c>
+      <c r="K10" s="32">
+        <v>26.7</v>
+      </c>
+      <c r="L10" s="32">
+        <v>28</v>
+      </c>
+      <c r="M10" s="32">
+        <v>27</v>
+      </c>
+      <c r="N10" s="32"/>
+    </row>
+    <row r="11" spans="1:14">
+      <c r="G11" s="32" t="s">
+        <v>141</v>
+      </c>
+      <c r="H11" s="32">
+        <v>11.57</v>
+      </c>
+      <c r="I11" s="32">
+        <v>1.35</v>
+      </c>
+      <c r="J11" s="32">
+        <v>5.5</v>
+      </c>
+      <c r="K11" s="32">
+        <v>29.5</v>
+      </c>
+      <c r="L11" s="32">
+        <v>30.5</v>
+      </c>
+      <c r="M11" s="32">
+        <v>30.5</v>
+      </c>
+      <c r="N11" s="32"/>
+    </row>
+    <row r="12" spans="1:14">
+      <c r="G12" s="32" t="s">
         <v>99</v>
       </c>
-      <c r="N8" s="22" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A9" s="23" t="s">
-        <v>90</v>
-      </c>
-      <c r="B9" s="25">
+      <c r="H12" s="32">
+        <v>11.57</v>
+      </c>
+      <c r="I12" s="32">
+        <v>1.125</v>
+      </c>
+      <c r="J12" s="32">
+        <v>5.5</v>
+      </c>
+      <c r="K12" s="32">
+        <v>28.1</v>
+      </c>
+      <c r="L12" s="32">
+        <v>28.5</v>
+      </c>
+      <c r="M12" s="32">
+        <v>27.9</v>
+      </c>
+      <c r="N12" s="32"/>
+    </row>
+    <row r="13" spans="1:14">
+      <c r="B13" s="22">
+        <v>10</v>
+      </c>
+      <c r="C13" s="22">
+        <v>0.8</v>
+      </c>
+      <c r="D13" s="22">
+        <v>5.2249999999999996</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14">
+      <c r="B14" s="23">
         <v>13.14</v>
       </c>
-      <c r="C9" s="25">
-        <v>1.35</v>
-      </c>
-      <c r="D9" s="25">
+      <c r="C14" s="22">
+        <v>0.8</v>
+      </c>
+      <c r="D14" s="22">
+        <v>5.2249999999999996</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14">
+      <c r="B15" s="23">
+        <v>13.14</v>
+      </c>
+      <c r="C15" s="23">
+        <v>0.9</v>
+      </c>
+      <c r="D15" s="22">
+        <v>5.2249999999999996</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14">
+      <c r="B16" s="22">
+        <v>10</v>
+      </c>
+      <c r="C16" s="23">
+        <v>0.9</v>
+      </c>
+      <c r="D16" s="22">
+        <v>5.2249999999999996</v>
+      </c>
+    </row>
+    <row r="17" spans="2:4">
+      <c r="B17" s="22">
+        <v>10</v>
+      </c>
+      <c r="C17" s="22">
+        <v>0.8</v>
+      </c>
+      <c r="D17" s="23">
         <v>5.7750000000000004</v>
       </c>
-      <c r="G9" s="10" t="s">
-        <v>95</v>
-      </c>
-      <c r="H9" s="12">
-        <v>11.57</v>
-      </c>
-      <c r="I9" s="12">
+    </row>
+    <row r="18" spans="2:4">
+      <c r="B18" s="23">
+        <v>13.14</v>
+      </c>
+      <c r="C18" s="22">
+        <v>0.8</v>
+      </c>
+      <c r="D18" s="23">
+        <v>5.7750000000000004</v>
+      </c>
+    </row>
+    <row r="19" spans="2:4">
+      <c r="B19" s="23">
+        <v>13.14</v>
+      </c>
+      <c r="C19" s="23">
         <v>0.9</v>
       </c>
-      <c r="J9" s="12">
-        <v>5.5</v>
-      </c>
-      <c r="K9" s="11">
-        <v>26.1</v>
-      </c>
-      <c r="L9" s="11">
-        <v>27.6</v>
-      </c>
-      <c r="M9" s="11">
-        <v>26.2</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A10" s="23" t="s">
-        <v>91</v>
-      </c>
-      <c r="B10" s="24">
+      <c r="D19" s="23">
+        <v>5.7750000000000004</v>
+      </c>
+    </row>
+    <row r="20" spans="2:4">
+      <c r="B20" s="22">
         <v>10</v>
       </c>
-      <c r="C10" s="25">
-        <v>1.35</v>
-      </c>
-      <c r="D10" s="25">
+      <c r="C20" s="23">
+        <v>0.9</v>
+      </c>
+      <c r="D20" s="23">
         <v>5.7750000000000004</v>
       </c>
-      <c r="G10" s="10" t="s">
-        <v>96</v>
-      </c>
-      <c r="H10" s="12">
-        <v>11.57</v>
-      </c>
-      <c r="I10" s="12">
-        <v>1.125</v>
-      </c>
-      <c r="J10" s="12">
-        <v>5.5</v>
-      </c>
-      <c r="K10" s="11">
-        <v>26.7</v>
-      </c>
-      <c r="L10" s="11">
-        <v>28</v>
-      </c>
-      <c r="M10" s="11">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="G11" s="10" t="s">
-        <v>101</v>
-      </c>
-      <c r="H11" s="12">
-        <v>11.57</v>
-      </c>
-      <c r="I11" s="12">
-        <v>1.35</v>
-      </c>
-      <c r="J11" s="12">
-        <v>5.5</v>
-      </c>
-      <c r="K11" s="11">
-        <v>29.5</v>
-      </c>
-      <c r="L11" s="11">
-        <v>30.5</v>
-      </c>
-      <c r="M11" s="11">
-        <v>30.5</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="G12" s="11" t="s">
-        <v>102</v>
-      </c>
-      <c r="H12" s="12"/>
-      <c r="I12" s="12"/>
-      <c r="J12" s="12"/>
-      <c r="K12" s="11">
-        <v>28.1</v>
-      </c>
-      <c r="L12" s="11">
-        <v>28.5</v>
-      </c>
-      <c r="M12" s="11">
-        <v>27.9</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="B13" s="24">
-        <v>10</v>
-      </c>
-      <c r="C13" s="24">
-        <v>0.8</v>
-      </c>
-      <c r="D13" s="24">
-        <v>5.2249999999999996</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="B14" s="25">
-        <v>13.14</v>
-      </c>
-      <c r="C14" s="24">
-        <v>0.8</v>
-      </c>
-      <c r="D14" s="24">
-        <v>5.2249999999999996</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="B15" s="25">
-        <v>13.14</v>
-      </c>
-      <c r="C15" s="25">
-        <v>0.9</v>
-      </c>
-      <c r="D15" s="24">
-        <v>5.2249999999999996</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="B16" s="24">
-        <v>10</v>
-      </c>
-      <c r="C16" s="25">
-        <v>0.9</v>
-      </c>
-      <c r="D16" s="24">
-        <v>5.2249999999999996</v>
-      </c>
-    </row>
-    <row r="17" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B17" s="24">
-        <v>10</v>
-      </c>
-      <c r="C17" s="24">
-        <v>0.8</v>
-      </c>
-      <c r="D17" s="25">
-        <v>5.7750000000000004</v>
-      </c>
-    </row>
-    <row r="18" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B18" s="25">
-        <v>13.14</v>
-      </c>
-      <c r="C18" s="24">
-        <v>0.8</v>
-      </c>
-      <c r="D18" s="25">
-        <v>5.7750000000000004</v>
-      </c>
-    </row>
-    <row r="19" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B19" s="25">
-        <v>13.14</v>
-      </c>
-      <c r="C19" s="25">
-        <v>0.9</v>
-      </c>
-      <c r="D19" s="25">
-        <v>5.7750000000000004</v>
-      </c>
-    </row>
-    <row r="20" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B20" s="24">
-        <v>10</v>
-      </c>
-      <c r="C20" s="25">
-        <v>0.9</v>
-      </c>
-      <c r="D20" s="25">
-        <v>5.7750000000000004</v>
-      </c>
     </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="4">
     <mergeCell ref="L7:M7"/>
     <mergeCell ref="K7:K8"/>
+    <mergeCell ref="H7:J7"/>
+    <mergeCell ref="G7:G8"/>
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{03191197-614A-41B0-9A45-3FD39EE93649}">
+  <dimension ref="B2:H10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:H10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4"/>
+  <cols>
+    <col min="2" max="2" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="26.5546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="22.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="25" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.44140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="25" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:8">
+      <c r="B2" s="27" t="s">
+        <v>111</v>
+      </c>
+      <c r="C2" s="27" t="s">
+        <v>112</v>
+      </c>
+      <c r="D2" s="27" t="s">
+        <v>113</v>
+      </c>
+      <c r="E2" s="27" t="s">
+        <v>114</v>
+      </c>
+      <c r="F2" s="27" t="s">
+        <v>115</v>
+      </c>
+      <c r="G2" s="27" t="s">
+        <v>116</v>
+      </c>
+      <c r="H2" s="27" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="3" spans="2:8">
+      <c r="B3" s="27" t="s">
+        <v>130</v>
+      </c>
+      <c r="C3" s="28" t="s">
+        <v>117</v>
+      </c>
+      <c r="D3" s="29" t="s">
+        <v>118</v>
+      </c>
+      <c r="E3" s="29" t="s">
+        <v>131</v>
+      </c>
+      <c r="F3" s="29" t="s">
+        <v>119</v>
+      </c>
+      <c r="G3" s="29" t="s">
+        <v>120</v>
+      </c>
+      <c r="H3" s="29" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="4" spans="2:8">
+      <c r="B4" s="27" t="s">
+        <v>132</v>
+      </c>
+      <c r="C4" s="28" t="s">
+        <v>117</v>
+      </c>
+      <c r="D4" s="29" t="s">
+        <v>121</v>
+      </c>
+      <c r="E4" s="29" t="s">
+        <v>122</v>
+      </c>
+      <c r="F4" s="29" t="s">
+        <v>123</v>
+      </c>
+      <c r="G4" s="29" t="s">
+        <v>120</v>
+      </c>
+      <c r="H4" s="29" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="5" spans="2:8">
+      <c r="B5" s="27" t="s">
+        <v>133</v>
+      </c>
+      <c r="C5" s="28" t="s">
+        <v>117</v>
+      </c>
+      <c r="D5" s="29" t="s">
+        <v>124</v>
+      </c>
+      <c r="E5" s="29" t="s">
+        <v>122</v>
+      </c>
+      <c r="F5" s="29" t="s">
+        <v>125</v>
+      </c>
+      <c r="G5" s="29" t="s">
+        <v>120</v>
+      </c>
+      <c r="H5" s="29" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="6" spans="2:8">
+      <c r="B6" s="27" t="s">
+        <v>134</v>
+      </c>
+      <c r="C6" s="28">
+        <v>101325</v>
+      </c>
+      <c r="D6" s="29" t="s">
+        <v>122</v>
+      </c>
+      <c r="E6" s="29" t="s">
+        <v>126</v>
+      </c>
+      <c r="F6" s="29" t="s">
+        <v>122</v>
+      </c>
+      <c r="G6" s="29" t="s">
+        <v>120</v>
+      </c>
+      <c r="H6" s="29" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="7" spans="2:8">
+      <c r="B7" s="27" t="s">
+        <v>135</v>
+      </c>
+      <c r="C7" s="28">
+        <v>305.14999999999998</v>
+      </c>
+      <c r="D7" s="29" t="s">
+        <v>126</v>
+      </c>
+      <c r="E7" s="29" t="s">
+        <v>122</v>
+      </c>
+      <c r="F7" s="29" t="s">
+        <v>126</v>
+      </c>
+      <c r="G7" s="29" t="s">
+        <v>120</v>
+      </c>
+      <c r="H7" s="29" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="8" spans="2:8">
+      <c r="B8" s="27" t="s">
+        <v>136</v>
+      </c>
+      <c r="C8" s="28">
+        <v>6.2100000000000002E-3</v>
+      </c>
+      <c r="D8" s="29" t="s">
+        <v>126</v>
+      </c>
+      <c r="E8" s="29" t="s">
+        <v>122</v>
+      </c>
+      <c r="F8" s="29" t="s">
+        <v>122</v>
+      </c>
+      <c r="G8" s="29" t="s">
+        <v>120</v>
+      </c>
+      <c r="H8" s="29" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="9" spans="2:8">
+      <c r="B9" s="27" t="s">
+        <v>137</v>
+      </c>
+      <c r="C9" s="30">
+        <v>1.0000000000000001E-5</v>
+      </c>
+      <c r="D9" s="29" t="s">
+        <v>126</v>
+      </c>
+      <c r="E9" s="29" t="s">
+        <v>122</v>
+      </c>
+      <c r="F9" s="29" t="s">
+        <v>127</v>
+      </c>
+      <c r="G9" s="29" t="s">
+        <v>120</v>
+      </c>
+      <c r="H9" s="29" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="10" spans="2:8">
+      <c r="B10" s="27" t="s">
+        <v>138</v>
+      </c>
+      <c r="C10" s="30">
+        <v>1.0000000000000001E-5</v>
+      </c>
+      <c r="D10" s="29" t="s">
+        <v>126</v>
+      </c>
+      <c r="E10" s="29" t="s">
+        <v>122</v>
+      </c>
+      <c r="F10" s="29" t="s">
+        <v>128</v>
+      </c>
+      <c r="G10" s="29" t="s">
+        <v>120</v>
+      </c>
+      <c r="H10" s="29" t="s">
+        <v>128</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>